--- a/src/loader_package/big_pre_load.xlsx
+++ b/src/loader_package/big_pre_load.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\java_project_desautel_pellen_perold\src\loader_package\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://poce-my.sharepoint.com/personal/charles_perold_edu_ece_fr/Documents/ING 3/Informatique - Java/_Projet Gui S5/_Projet GUI_Fork/java_project_desautel_pellen_perold/src/loader_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A97B4EA-A192-43BB-9E09-B9A2939F16BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{2A97B4EA-A192-43BB-9E09-B9A2939F16BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2B75EFFC-83AE-4891-B5C0-6A4A6C263329}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22560" yWindow="-17235" windowWidth="15660" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elector" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5081" uniqueCount="1964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5085" uniqueCount="1968">
   <si>
     <t>Charles</t>
   </si>
@@ -5930,6 +5930,18 @@
   </si>
   <si>
     <t>NoOne</t>
+  </si>
+  <si>
+    <t>ISABELLE</t>
+  </si>
+  <si>
+    <t>CHARLIE</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>LREM</t>
   </si>
 </sst>
 </file>
@@ -6281,21 +6293,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="C317" sqref="C317"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3828125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.15234375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1960</v>
       </c>
@@ -6315,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -6335,7 +6347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -6355,7 +6367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -6369,13 +6381,13 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>1963</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -6395,7 +6407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -6415,7 +6427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -6435,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -6455,7 +6467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -6475,7 +6487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -6495,7 +6507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -6515,7 +6527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -6535,7 +6547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -6555,9 +6567,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>1964</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
@@ -6575,9 +6587,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>1965</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -6589,13 +6601,13 @@
         <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>1963</v>
       </c>
       <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -6615,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -6635,7 +6647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -6655,7 +6667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -6675,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -6695,7 +6707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -6715,7 +6727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -6735,7 +6747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -6755,7 +6767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -6775,7 +6787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -6795,7 +6807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -6815,7 +6827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -6835,7 +6847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -6855,7 +6867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -6875,7 +6887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>118</v>
       </c>
@@ -6895,7 +6907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -6915,7 +6927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -6935,7 +6947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -6955,7 +6967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -6975,7 +6987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>135</v>
       </c>
@@ -6995,7 +7007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>138</v>
       </c>
@@ -7015,7 +7027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -7035,7 +7047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -7055,7 +7067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>149</v>
       </c>
@@ -7075,7 +7087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -7095,7 +7107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>156</v>
       </c>
@@ -7115,7 +7127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>159</v>
       </c>
@@ -7135,7 +7147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>162</v>
       </c>
@@ -7155,7 +7167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>166</v>
       </c>
@@ -7175,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>170</v>
       </c>
@@ -7195,7 +7207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>174</v>
       </c>
@@ -7215,7 +7227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>125</v>
       </c>
@@ -7235,7 +7247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>179</v>
       </c>
@@ -7255,7 +7267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>183</v>
       </c>
@@ -7275,7 +7287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>186</v>
       </c>
@@ -7295,7 +7307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>190</v>
       </c>
@@ -7315,7 +7327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>193</v>
       </c>
@@ -7335,7 +7347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>195</v>
       </c>
@@ -7355,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>198</v>
       </c>
@@ -7375,7 +7387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>201</v>
       </c>
@@ -7395,7 +7407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -7415,7 +7427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>40</v>
       </c>
@@ -7435,7 +7447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>209</v>
       </c>
@@ -7455,7 +7467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>211</v>
       </c>
@@ -7475,7 +7487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>214</v>
       </c>
@@ -7495,7 +7507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>217</v>
       </c>
@@ -7515,7 +7527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>220</v>
       </c>
@@ -7535,7 +7547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>224</v>
       </c>
@@ -7555,7 +7567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>227</v>
       </c>
@@ -7575,7 +7587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>230</v>
       </c>
@@ -7595,7 +7607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>233</v>
       </c>
@@ -7615,7 +7627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>236</v>
       </c>
@@ -7635,7 +7647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>239</v>
       </c>
@@ -7655,7 +7667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>242</v>
       </c>
@@ -7675,7 +7687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>245</v>
       </c>
@@ -7695,7 +7707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>248</v>
       </c>
@@ -7715,7 +7727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>251</v>
       </c>
@@ -7735,7 +7747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>255</v>
       </c>
@@ -7755,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>258</v>
       </c>
@@ -7775,7 +7787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>261</v>
       </c>
@@ -7795,7 +7807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>264</v>
       </c>
@@ -7815,7 +7827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>267</v>
       </c>
@@ -7835,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>270</v>
       </c>
@@ -7855,7 +7867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>273</v>
       </c>
@@ -7875,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>276</v>
       </c>
@@ -7895,7 +7907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>279</v>
       </c>
@@ -7915,7 +7927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>282</v>
       </c>
@@ -7935,7 +7947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>285</v>
       </c>
@@ -7955,7 +7967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>287</v>
       </c>
@@ -7975,7 +7987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>290</v>
       </c>
@@ -7995,7 +8007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>294</v>
       </c>
@@ -8015,7 +8027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>297</v>
       </c>
@@ -8035,7 +8047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>300</v>
       </c>
@@ -8055,7 +8067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>304</v>
       </c>
@@ -8075,7 +8087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>307</v>
       </c>
@@ -8095,7 +8107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>310</v>
       </c>
@@ -8115,7 +8127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>313</v>
       </c>
@@ -8135,7 +8147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>316</v>
       </c>
@@ -8155,7 +8167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>318</v>
       </c>
@@ -8175,7 +8187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>321</v>
       </c>
@@ -8195,7 +8207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>171</v>
       </c>
@@ -8215,7 +8227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>297</v>
       </c>
@@ -8235,7 +8247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>328</v>
       </c>
@@ -8255,7 +8267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>248</v>
       </c>
@@ -8275,7 +8287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>333</v>
       </c>
@@ -8295,7 +8307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>336</v>
       </c>
@@ -8315,7 +8327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>273</v>
       </c>
@@ -8335,7 +8347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>316</v>
       </c>
@@ -8355,7 +8367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>344</v>
       </c>
@@ -8375,7 +8387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>347</v>
       </c>
@@ -8395,7 +8407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>351</v>
       </c>
@@ -8415,7 +8427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>224</v>
       </c>
@@ -8435,7 +8447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>62</v>
       </c>
@@ -8455,7 +8467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -8475,7 +8487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>358</v>
       </c>
@@ -8495,7 +8507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>361</v>
       </c>
@@ -8515,7 +8527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>364</v>
       </c>
@@ -8535,7 +8547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>166</v>
       </c>
@@ -8555,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>369</v>
       </c>
@@ -8575,7 +8587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>372</v>
       </c>
@@ -8595,7 +8607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>374</v>
       </c>
@@ -8615,7 +8627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>377</v>
       </c>
@@ -8635,7 +8647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>380</v>
       </c>
@@ -8655,7 +8667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>383</v>
       </c>
@@ -8675,7 +8687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>387</v>
       </c>
@@ -8695,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>390</v>
       </c>
@@ -8715,7 +8727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>393</v>
       </c>
@@ -8735,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>396</v>
       </c>
@@ -8755,7 +8767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>358</v>
       </c>
@@ -8775,7 +8787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>227</v>
       </c>
@@ -8795,7 +8807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>403</v>
       </c>
@@ -8815,7 +8827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>313</v>
       </c>
@@ -8835,7 +8847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>162</v>
       </c>
@@ -8855,7 +8867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>410</v>
       </c>
@@ -8875,7 +8887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>152</v>
       </c>
@@ -8895,7 +8907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>307</v>
       </c>
@@ -8915,7 +8927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>318</v>
       </c>
@@ -8935,7 +8947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>420</v>
       </c>
@@ -8955,7 +8967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>423</v>
       </c>
@@ -8975,7 +8987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>217</v>
       </c>
@@ -8995,7 +9007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>53</v>
       </c>
@@ -9015,7 +9027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>430</v>
       </c>
@@ -9035,7 +9047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>433</v>
       </c>
@@ -9055,7 +9067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>436</v>
       </c>
@@ -9075,7 +9087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>171</v>
       </c>
@@ -9095,7 +9107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>242</v>
       </c>
@@ -9115,7 +9127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>444</v>
       </c>
@@ -9135,7 +9147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>447</v>
       </c>
@@ -9155,7 +9167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>450</v>
       </c>
@@ -9175,7 +9187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>453</v>
       </c>
@@ -9195,7 +9207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>456</v>
       </c>
@@ -9215,7 +9227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>458</v>
       </c>
@@ -9235,7 +9247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>461</v>
       </c>
@@ -9255,7 +9267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>464</v>
       </c>
@@ -9275,7 +9287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>467</v>
       </c>
@@ -9295,7 +9307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>470</v>
       </c>
@@ -9315,7 +9327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>473</v>
       </c>
@@ -9335,7 +9347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>36</v>
       </c>
@@ -9355,7 +9367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>477</v>
       </c>
@@ -9375,7 +9387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>480</v>
       </c>
@@ -9395,7 +9407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>483</v>
       </c>
@@ -9415,7 +9427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>211</v>
       </c>
@@ -9435,7 +9447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>487</v>
       </c>
@@ -9455,7 +9467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>490</v>
       </c>
@@ -9475,7 +9487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>255</v>
       </c>
@@ -9495,7 +9507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>495</v>
       </c>
@@ -9515,7 +9527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>498</v>
       </c>
@@ -9535,7 +9547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>240</v>
       </c>
@@ -9555,7 +9567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>502</v>
       </c>
@@ -9575,7 +9587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>504</v>
       </c>
@@ -9595,7 +9607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>336</v>
       </c>
@@ -9615,7 +9627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>509</v>
       </c>
@@ -9635,7 +9647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>511</v>
       </c>
@@ -9655,7 +9667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>513</v>
       </c>
@@ -9675,7 +9687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>516</v>
       </c>
@@ -9695,7 +9707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>519</v>
       </c>
@@ -9715,7 +9727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>259</v>
       </c>
@@ -9735,7 +9747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>390</v>
       </c>
@@ -9755,7 +9767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>526</v>
       </c>
@@ -9775,7 +9787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>528</v>
       </c>
@@ -9795,7 +9807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>531</v>
       </c>
@@ -9815,7 +9827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>533</v>
       </c>
@@ -9835,7 +9847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>233</v>
       </c>
@@ -9855,7 +9867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>538</v>
       </c>
@@ -9875,7 +9887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>541</v>
       </c>
@@ -9895,7 +9907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>544</v>
       </c>
@@ -9915,7 +9927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>546</v>
       </c>
@@ -9935,7 +9947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>549</v>
       </c>
@@ -9955,7 +9967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>551</v>
       </c>
@@ -9975,7 +9987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>307</v>
       </c>
@@ -9995,7 +10007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>556</v>
       </c>
@@ -10015,7 +10027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>559</v>
       </c>
@@ -10035,7 +10047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>328</v>
       </c>
@@ -10055,7 +10067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>562</v>
       </c>
@@ -10075,7 +10087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>230</v>
       </c>
@@ -10095,7 +10107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>410</v>
       </c>
@@ -10115,7 +10127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>568</v>
       </c>
@@ -10135,7 +10147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>570</v>
       </c>
@@ -10155,7 +10167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>572</v>
       </c>
@@ -10175,7 +10187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>264</v>
       </c>
@@ -10195,7 +10207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>344</v>
       </c>
@@ -10215,7 +10227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>578</v>
       </c>
@@ -10235,7 +10247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>581</v>
       </c>
@@ -10255,7 +10267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>584</v>
       </c>
@@ -10275,7 +10287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>587</v>
       </c>
@@ -10295,7 +10307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>450</v>
       </c>
@@ -10315,7 +10327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>592</v>
       </c>
@@ -10335,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>594</v>
       </c>
@@ -10355,7 +10367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>597</v>
       </c>
@@ -10375,7 +10387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>227</v>
       </c>
@@ -10395,7 +10407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>602</v>
       </c>
@@ -10415,7 +10427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>605</v>
       </c>
@@ -10435,7 +10447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>380</v>
       </c>
@@ -10455,7 +10467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>609</v>
       </c>
@@ -10475,7 +10487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>612</v>
       </c>
@@ -10495,7 +10507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>584</v>
       </c>
@@ -10515,7 +10527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>617</v>
       </c>
@@ -10535,7 +10547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>24</v>
       </c>
@@ -10555,7 +10567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>311</v>
       </c>
@@ -10575,7 +10587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>624</v>
       </c>
@@ -10595,7 +10607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>36</v>
       </c>
@@ -10615,7 +10627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>628</v>
       </c>
@@ -10635,7 +10647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>631</v>
       </c>
@@ -10655,7 +10667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>634</v>
       </c>
@@ -10675,7 +10687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>347</v>
       </c>
@@ -10695,7 +10707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>248</v>
       </c>
@@ -10715,7 +10727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>640</v>
       </c>
@@ -10735,7 +10747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>248</v>
       </c>
@@ -10755,7 +10767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>645</v>
       </c>
@@ -10775,7 +10787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>648</v>
       </c>
@@ -10795,7 +10807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>625</v>
       </c>
@@ -10815,7 +10827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>651</v>
       </c>
@@ -10835,7 +10847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>654</v>
       </c>
@@ -10855,7 +10867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>656</v>
       </c>
@@ -10875,7 +10887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>658</v>
       </c>
@@ -10895,7 +10907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>101</v>
       </c>
@@ -10915,7 +10927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>661</v>
       </c>
@@ -10935,7 +10947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>664</v>
       </c>
@@ -10955,7 +10967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>667</v>
       </c>
@@ -10975,7 +10987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>453</v>
       </c>
@@ -10995,7 +11007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>294</v>
       </c>
@@ -11015,7 +11027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>672</v>
       </c>
@@ -11035,7 +11047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>675</v>
       </c>
@@ -11055,7 +11067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>410</v>
       </c>
@@ -11075,7 +11087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>242</v>
       </c>
@@ -11095,7 +11107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>682</v>
       </c>
@@ -11115,7 +11127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>488</v>
       </c>
@@ -11135,7 +11147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>687</v>
       </c>
@@ -11155,7 +11167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>690</v>
       </c>
@@ -11175,7 +11187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>374</v>
       </c>
@@ -11195,7 +11207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>695</v>
       </c>
@@ -11215,7 +11227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>450</v>
       </c>
@@ -11235,7 +11247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>700</v>
       </c>
@@ -11255,7 +11267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>703</v>
       </c>
@@ -11275,7 +11287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>705</v>
       </c>
@@ -11295,7 +11307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>708</v>
       </c>
@@ -11315,7 +11327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>710</v>
       </c>
@@ -11335,7 +11347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>713</v>
       </c>
@@ -11355,7 +11367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>404</v>
       </c>
@@ -11375,7 +11387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>717</v>
       </c>
@@ -11395,7 +11407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>118</v>
       </c>
@@ -11415,7 +11427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
         <v>722</v>
       </c>
@@ -11435,7 +11447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
         <v>625</v>
       </c>
@@ -11455,7 +11467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
         <v>403</v>
       </c>
@@ -11475,7 +11487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>467</v>
       </c>
@@ -11495,7 +11507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>372</v>
       </c>
@@ -11515,7 +11527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>733</v>
       </c>
@@ -11535,7 +11547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
         <v>433</v>
       </c>
@@ -11555,7 +11567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>736</v>
       </c>
@@ -11575,7 +11587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
         <v>739</v>
       </c>
@@ -11595,7 +11607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
         <v>403</v>
       </c>
@@ -11615,7 +11627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
         <v>743</v>
       </c>
@@ -11635,7 +11647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
         <v>251</v>
       </c>
@@ -11655,7 +11667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
         <v>748</v>
       </c>
@@ -11675,7 +11687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
         <v>750</v>
       </c>
@@ -11695,7 +11707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
         <v>753</v>
       </c>
@@ -11715,7 +11727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
         <v>755</v>
       </c>
@@ -11735,7 +11747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
         <v>758</v>
       </c>
@@ -11755,7 +11767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
         <v>562</v>
       </c>
@@ -11775,7 +11787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
         <v>313</v>
       </c>
@@ -11795,7 +11807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
         <v>193</v>
       </c>
@@ -11815,7 +11827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
         <v>767</v>
       </c>
@@ -11835,7 +11847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
         <v>770</v>
       </c>
@@ -11855,7 +11867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
         <v>426</v>
       </c>
@@ -11875,7 +11887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
         <v>775</v>
       </c>
@@ -11895,7 +11907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
         <v>778</v>
       </c>
@@ -11915,7 +11927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
         <v>377</v>
       </c>
@@ -11935,7 +11947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
         <v>423</v>
       </c>
@@ -11955,7 +11967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
         <v>784</v>
       </c>
@@ -11975,7 +11987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
         <v>786</v>
       </c>
@@ -11995,7 +12007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
         <v>568</v>
       </c>
@@ -12015,7 +12027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
         <v>790</v>
       </c>
@@ -12035,7 +12047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -12055,7 +12067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
         <v>793</v>
       </c>
@@ -12075,7 +12087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
         <v>333</v>
       </c>
@@ -12095,7 +12107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
         <v>135</v>
       </c>
@@ -12115,7 +12127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
         <v>797</v>
       </c>
@@ -12135,7 +12147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
         <v>648</v>
       </c>
@@ -12155,7 +12167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
         <v>802</v>
       </c>
@@ -12175,7 +12187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
         <v>311</v>
       </c>
@@ -12195,7 +12207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
         <v>806</v>
       </c>
@@ -12215,7 +12227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
         <v>658</v>
       </c>
@@ -12235,7 +12247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
         <v>534</v>
       </c>
@@ -12255,7 +12267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
         <v>812</v>
       </c>
@@ -12275,7 +12287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
         <v>138</v>
       </c>
@@ -12295,7 +12307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
         <v>157</v>
       </c>
@@ -12315,7 +12327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
         <v>661</v>
       </c>
@@ -12335,7 +12347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
         <v>743</v>
       </c>
@@ -12355,7 +12367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
         <v>819</v>
       </c>
@@ -12375,7 +12387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
         <v>822</v>
       </c>
@@ -12395,7 +12407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
         <v>825</v>
       </c>
@@ -12415,7 +12427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
         <v>827</v>
       </c>
@@ -12435,7 +12447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
         <v>830</v>
       </c>
@@ -12455,7 +12467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
         <v>832</v>
       </c>
@@ -12475,7 +12487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
         <v>835</v>
       </c>
@@ -12495,7 +12507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
         <v>687</v>
       </c>
@@ -12515,7 +12527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
         <v>625</v>
       </c>
@@ -12535,7 +12547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
         <v>843</v>
       </c>
@@ -12555,7 +12567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
         <v>846</v>
       </c>
@@ -12575,7 +12587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
         <v>848</v>
       </c>
@@ -12595,7 +12607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
         <v>851</v>
       </c>
@@ -12615,7 +12627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
         <v>854</v>
       </c>
@@ -12635,7 +12647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
         <v>857</v>
       </c>
@@ -12655,7 +12667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
         <v>860</v>
       </c>
@@ -12675,7 +12687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
         <v>862</v>
       </c>
@@ -12695,7 +12707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
         <v>157</v>
       </c>
@@ -12715,7 +12727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
         <v>865</v>
       </c>
@@ -12735,7 +12747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
         <v>868</v>
       </c>
@@ -12755,7 +12767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
         <v>667</v>
       </c>
@@ -12775,7 +12787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
         <v>538</v>
       </c>
@@ -12795,7 +12807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
         <v>251</v>
       </c>
@@ -12815,7 +12827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
         <v>865</v>
       </c>
@@ -12835,7 +12847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
         <v>877</v>
       </c>
@@ -12855,7 +12867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
         <v>282</v>
       </c>
@@ -12875,7 +12887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
         <v>439</v>
       </c>
@@ -12895,7 +12907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
         <v>220</v>
       </c>
@@ -12915,7 +12927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
         <v>294</v>
       </c>
@@ -12935,7 +12947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
         <v>885</v>
       </c>
@@ -12955,7 +12967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
         <v>304</v>
       </c>
@@ -12975,7 +12987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
         <v>889</v>
       </c>
@@ -12995,7 +13007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
         <v>450</v>
       </c>
@@ -13015,7 +13027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
         <v>893</v>
       </c>
@@ -13035,7 +13047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
         <v>708</v>
       </c>
@@ -13055,7 +13067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
         <v>572</v>
       </c>
@@ -13075,7 +13087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
         <v>899</v>
       </c>
@@ -13095,7 +13107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
         <v>854</v>
       </c>
@@ -13115,7 +13127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
         <v>903</v>
       </c>
@@ -13135,7 +13147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
         <v>905</v>
       </c>
@@ -13155,7 +13167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
         <v>907</v>
       </c>
@@ -13175,7 +13187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A345" t="s">
         <v>910</v>
       </c>
@@ -13195,7 +13207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A346" t="s">
         <v>913</v>
       </c>
@@ -13215,7 +13227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A347" t="s">
         <v>916</v>
       </c>
@@ -13235,7 +13247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A348" t="s">
         <v>918</v>
       </c>
@@ -13255,7 +13267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
         <v>843</v>
       </c>
@@ -13275,7 +13287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
         <v>770</v>
       </c>
@@ -13295,7 +13307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
         <v>594</v>
       </c>
@@ -13315,7 +13327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
         <v>924</v>
       </c>
@@ -13335,7 +13347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
         <v>584</v>
       </c>
@@ -13355,7 +13367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
         <v>628</v>
       </c>
@@ -13375,7 +13387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
         <v>572</v>
       </c>
@@ -13395,7 +13407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
         <v>932</v>
       </c>
@@ -13415,7 +13427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
         <v>152</v>
       </c>
@@ -13435,7 +13447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A358" t="s">
         <v>935</v>
       </c>
@@ -13455,7 +13467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
         <v>622</v>
       </c>
@@ -13475,7 +13487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
         <v>403</v>
       </c>
@@ -13495,7 +13507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
         <v>236</v>
       </c>
@@ -13515,7 +13527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
         <v>942</v>
       </c>
@@ -13535,7 +13547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
         <v>945</v>
       </c>
@@ -13555,7 +13567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A364" t="s">
         <v>170</v>
       </c>
@@ -13575,7 +13587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A365" t="s">
         <v>700</v>
       </c>
@@ -13595,7 +13607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A366" t="s">
         <v>733</v>
       </c>
@@ -13615,7 +13627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
         <v>954</v>
       </c>
@@ -13635,7 +13647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A368" t="s">
         <v>285</v>
       </c>
@@ -13655,7 +13667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A369" t="s">
         <v>959</v>
       </c>
@@ -13675,7 +13687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
         <v>69</v>
       </c>
@@ -13695,7 +13707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
         <v>964</v>
       </c>
@@ -13715,7 +13727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
         <v>174</v>
       </c>
@@ -13735,7 +13747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
         <v>458</v>
       </c>
@@ -13755,7 +13767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A374" t="s">
         <v>968</v>
       </c>
@@ -13775,7 +13787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A375" t="s">
         <v>664</v>
       </c>
@@ -13795,7 +13807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A376" t="s">
         <v>139</v>
       </c>
@@ -13815,7 +13827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A377" t="s">
         <v>973</v>
       </c>
@@ -13835,7 +13847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A378" t="s">
         <v>889</v>
       </c>
@@ -13855,7 +13867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A379" t="s">
         <v>198</v>
       </c>
@@ -13875,7 +13887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A380" t="s">
         <v>700</v>
       </c>
@@ -13895,7 +13907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A381" t="s">
         <v>851</v>
       </c>
@@ -13915,7 +13927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A382" t="s">
         <v>82</v>
       </c>
@@ -13935,7 +13947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A383" t="s">
         <v>982</v>
       </c>
@@ -13955,7 +13967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A384" t="s">
         <v>110</v>
       </c>
@@ -13975,7 +13987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A385" t="s">
         <v>748</v>
       </c>
@@ -13995,7 +14007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A386" t="s">
         <v>968</v>
       </c>
@@ -14015,7 +14027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A387" t="s">
         <v>893</v>
       </c>
@@ -14035,7 +14047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A388" t="s">
         <v>680</v>
       </c>
@@ -14055,7 +14067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A389" t="s">
         <v>994</v>
       </c>
@@ -14075,7 +14087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A390" t="s">
         <v>830</v>
       </c>
@@ -14095,7 +14107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A391" t="s">
         <v>410</v>
       </c>
@@ -14115,7 +14127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A392" t="s">
         <v>594</v>
       </c>
@@ -14135,7 +14147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A393" t="s">
         <v>737</v>
       </c>
@@ -14155,7 +14167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A394" t="s">
         <v>832</v>
       </c>
@@ -14175,7 +14187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A395" t="s">
         <v>634</v>
       </c>
@@ -14195,7 +14207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A396" t="s">
         <v>1005</v>
       </c>
@@ -14215,7 +14227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A397" t="s">
         <v>1008</v>
       </c>
@@ -14235,7 +14247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A398" t="s">
         <v>404</v>
       </c>
@@ -14255,7 +14267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A399" t="s">
         <v>1013</v>
       </c>
@@ -14275,7 +14287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A400" t="s">
         <v>825</v>
       </c>
@@ -14295,7 +14307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A401" t="s">
         <v>1017</v>
       </c>
@@ -14315,7 +14327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A402" t="s">
         <v>94</v>
       </c>
@@ -14335,7 +14347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A403" t="s">
         <v>994</v>
       </c>
@@ -14355,7 +14367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A404" t="s">
         <v>1024</v>
       </c>
@@ -14375,7 +14387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A405" t="s">
         <v>498</v>
       </c>
@@ -14395,7 +14407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A406" t="s">
         <v>264</v>
       </c>
@@ -14415,7 +14427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A407" t="s">
         <v>1028</v>
       </c>
@@ -14435,7 +14447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A408" t="s">
         <v>122</v>
       </c>
@@ -14455,7 +14467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A409" t="s">
         <v>1032</v>
       </c>
@@ -14475,7 +14487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A410" t="s">
         <v>201</v>
       </c>
@@ -14495,7 +14507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A411" t="s">
         <v>612</v>
       </c>
@@ -14515,7 +14527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A412" t="s">
         <v>1038</v>
       </c>
@@ -14535,7 +14547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A413" t="s">
         <v>1041</v>
       </c>
@@ -14555,7 +14567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A414" t="s">
         <v>924</v>
       </c>
@@ -14575,7 +14587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A415" t="s">
         <v>1045</v>
       </c>
@@ -14595,7 +14607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A416" t="s">
         <v>942</v>
       </c>
@@ -14615,7 +14627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A417" t="s">
         <v>687</v>
       </c>
@@ -14635,7 +14647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A418" t="s">
         <v>786</v>
       </c>
@@ -14655,7 +14667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A419" t="s">
         <v>387</v>
       </c>
@@ -14675,7 +14687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A420" t="s">
         <v>935</v>
       </c>
@@ -14695,7 +14707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A421" t="s">
         <v>819</v>
       </c>
@@ -14715,7 +14727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A422" t="s">
         <v>1056</v>
       </c>
@@ -14735,7 +14747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A423" t="s">
         <v>307</v>
       </c>
@@ -14755,7 +14767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A424" t="s">
         <v>396</v>
       </c>
@@ -14775,7 +14787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A425" t="s">
         <v>347</v>
       </c>
@@ -14795,7 +14807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A426" t="s">
         <v>1063</v>
       </c>
@@ -14815,7 +14827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A427" t="s">
         <v>1064</v>
       </c>
@@ -14835,7 +14847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A428" t="s">
         <v>487</v>
       </c>
@@ -14855,7 +14867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A429" t="s">
         <v>1067</v>
       </c>
@@ -14875,7 +14887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A430" t="s">
         <v>1070</v>
       </c>
@@ -14895,7 +14907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A431" t="s">
         <v>640</v>
       </c>
@@ -14915,7 +14927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A432" t="s">
         <v>347</v>
       </c>
@@ -14935,7 +14947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A433" t="s">
         <v>651</v>
       </c>
@@ -14955,7 +14967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A434" t="s">
         <v>1075</v>
       </c>
@@ -14975,7 +14987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A435" t="s">
         <v>843</v>
       </c>
@@ -14995,7 +15007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A436" t="s">
         <v>220</v>
       </c>
@@ -15015,7 +15027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A437" t="s">
         <v>1013</v>
       </c>
@@ -15035,7 +15047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A438" t="s">
         <v>495</v>
       </c>
@@ -15055,7 +15067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A439" t="s">
         <v>1086</v>
       </c>
@@ -15075,7 +15087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A440" t="s">
         <v>488</v>
       </c>
@@ -15095,7 +15107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A441" t="s">
         <v>742</v>
       </c>
@@ -15115,7 +15127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A442" t="s">
         <v>364</v>
       </c>
@@ -15135,7 +15147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A443" t="s">
         <v>854</v>
       </c>
@@ -15155,7 +15167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A444" t="s">
         <v>1094</v>
       </c>
@@ -15175,7 +15187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A445" t="s">
         <v>368</v>
       </c>
@@ -15195,7 +15207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A446" t="s">
         <v>1097</v>
       </c>
@@ -15215,7 +15227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A447" t="s">
         <v>822</v>
       </c>
@@ -15235,7 +15247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A448" t="s">
         <v>865</v>
       </c>
@@ -15255,7 +15267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A449" t="s">
         <v>830</v>
       </c>
@@ -15275,7 +15287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A450" t="s">
         <v>1103</v>
       </c>
@@ -15295,7 +15307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A451" t="s">
         <v>634</v>
       </c>
@@ -15315,7 +15327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A452" t="s">
         <v>1107</v>
       </c>
@@ -15335,7 +15347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A453" t="s">
         <v>755</v>
       </c>
@@ -15355,7 +15367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A454" t="s">
         <v>304</v>
       </c>
@@ -15375,7 +15387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A455" t="s">
         <v>1114</v>
       </c>
@@ -15395,7 +15407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A456" t="s">
         <v>195</v>
       </c>
@@ -15415,7 +15427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A457" t="s">
         <v>224</v>
       </c>
@@ -15435,7 +15447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A458" t="s">
         <v>1120</v>
       </c>
@@ -15455,7 +15467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A459" t="s">
         <v>236</v>
       </c>
@@ -15475,7 +15487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A460" t="s">
         <v>624</v>
       </c>
@@ -15495,7 +15507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A461" t="s">
         <v>717</v>
       </c>
@@ -15515,7 +15527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A462" t="s">
         <v>1032</v>
       </c>
@@ -15535,7 +15547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A463" t="s">
         <v>1127</v>
       </c>
@@ -15555,7 +15567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A464" t="s">
         <v>964</v>
       </c>
@@ -15575,7 +15587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A465" t="s">
         <v>1131</v>
       </c>
@@ -15595,7 +15607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A466" t="s">
         <v>1134</v>
       </c>
@@ -15615,7 +15627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A467" t="s">
         <v>195</v>
       </c>
@@ -15635,7 +15647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A468" t="s">
         <v>1138</v>
       </c>
@@ -15655,7 +15667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A469" t="s">
         <v>1140</v>
       </c>
@@ -15675,7 +15687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A470" t="s">
         <v>328</v>
       </c>
@@ -15695,7 +15707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A471" t="s">
         <v>802</v>
       </c>
@@ -15715,7 +15727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A472" t="s">
         <v>594</v>
       </c>
@@ -15735,7 +15747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A473" t="s">
         <v>364</v>
       </c>
@@ -15755,7 +15767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A474" t="s">
         <v>1146</v>
       </c>
@@ -15775,7 +15787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A475" t="s">
         <v>634</v>
       </c>
@@ -15795,7 +15807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A476" t="s">
         <v>209</v>
       </c>
@@ -15815,7 +15827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A477" t="s">
         <v>114</v>
       </c>
@@ -15835,7 +15847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A478" t="s">
         <v>344</v>
       </c>
@@ -15855,7 +15867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A479" t="s">
         <v>32</v>
       </c>
@@ -15875,7 +15887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A480" t="s">
         <v>114</v>
       </c>
@@ -15895,7 +15907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A481" t="s">
         <v>705</v>
       </c>
@@ -15915,7 +15927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A482" t="s">
         <v>102</v>
       </c>
@@ -15935,7 +15947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A483" t="s">
         <v>1157</v>
       </c>
@@ -15955,7 +15967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A484" t="s">
         <v>40</v>
       </c>
@@ -15975,7 +15987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A485" t="s">
         <v>1070</v>
       </c>
@@ -15995,7 +16007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A486" t="s">
         <v>1163</v>
       </c>
@@ -16015,7 +16027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A487" t="s">
         <v>159</v>
       </c>
@@ -16035,7 +16047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A488" t="s">
         <v>695</v>
       </c>
@@ -16055,7 +16067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A489" t="s">
         <v>313</v>
       </c>
@@ -16075,7 +16087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A490" t="s">
         <v>982</v>
       </c>
@@ -16095,7 +16107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A491" t="s">
         <v>1171</v>
       </c>
@@ -16115,7 +16127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A492" t="s">
         <v>171</v>
       </c>
@@ -16135,7 +16147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A493" t="s">
         <v>631</v>
       </c>
@@ -16155,7 +16167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A494" t="s">
         <v>1176</v>
       </c>
@@ -16175,7 +16187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A495" t="s">
         <v>201</v>
       </c>
@@ -16195,7 +16207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A496" t="s">
         <v>905</v>
       </c>
@@ -16215,7 +16227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A497" t="s">
         <v>793</v>
       </c>
@@ -16235,7 +16247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A498" t="s">
         <v>204</v>
       </c>
@@ -16255,7 +16267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A499" t="s">
         <v>822</v>
       </c>
@@ -16275,7 +16287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A500" t="s">
         <v>1134</v>
       </c>
@@ -16295,7 +16307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A501" t="s">
         <v>1188</v>
       </c>
@@ -16315,7 +16327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A502" t="s">
         <v>361</v>
       </c>
@@ -16335,7 +16347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A503" t="s">
         <v>1190</v>
       </c>
@@ -16355,7 +16367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A504" t="s">
         <v>1192</v>
       </c>
@@ -16375,7 +16387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A505" t="s">
         <v>851</v>
       </c>
@@ -16395,7 +16407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A506" t="s">
         <v>285</v>
       </c>
@@ -16415,7 +16427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A507" t="s">
         <v>846</v>
       </c>
@@ -16435,7 +16447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A508" t="s">
         <v>1199</v>
       </c>
@@ -16455,7 +16467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A509" t="s">
         <v>1201</v>
       </c>
@@ -16475,7 +16487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A510" t="s">
         <v>1041</v>
       </c>
@@ -16495,7 +16507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A511" t="s">
         <v>307</v>
       </c>
@@ -16515,7 +16527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A512" t="s">
         <v>131</v>
       </c>
@@ -16535,7 +16547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A513" t="s">
         <v>1208</v>
       </c>
@@ -16555,7 +16567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A514" t="s">
         <v>581</v>
       </c>
@@ -16575,7 +16587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A515" t="s">
         <v>572</v>
       </c>
@@ -16595,7 +16607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A516" t="s">
         <v>1214</v>
       </c>
@@ -16615,7 +16627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A517" t="s">
         <v>270</v>
       </c>
@@ -16635,7 +16647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A518" t="s">
         <v>936</v>
       </c>
@@ -16655,7 +16667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A519" t="s">
         <v>1038</v>
       </c>
@@ -16675,7 +16687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A520" t="s">
         <v>703</v>
       </c>
@@ -16695,7 +16707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A521" t="s">
         <v>1219</v>
       </c>
@@ -16715,7 +16727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A522" t="s">
         <v>82</v>
       </c>
@@ -16735,7 +16747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A523" t="s">
         <v>526</v>
       </c>
@@ -16755,7 +16767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A524" t="s">
         <v>122</v>
       </c>
@@ -16775,7 +16787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A525" t="s">
         <v>713</v>
       </c>
@@ -16795,7 +16807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A526" t="s">
         <v>1227</v>
       </c>
@@ -16815,7 +16827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A527" t="s">
         <v>551</v>
       </c>
@@ -16835,7 +16847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A528" t="s">
         <v>1134</v>
       </c>
@@ -16855,7 +16867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A529" t="s">
         <v>703</v>
       </c>
@@ -16875,7 +16887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A530" t="s">
         <v>753</v>
       </c>
@@ -16895,7 +16907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A531" t="s">
         <v>1235</v>
       </c>
@@ -16915,7 +16927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A532" t="s">
         <v>1238</v>
       </c>
@@ -16935,7 +16947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A533" t="s">
         <v>1240</v>
       </c>
@@ -16955,7 +16967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A534" t="s">
         <v>1242</v>
       </c>
@@ -16975,7 +16987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A535" t="s">
         <v>1244</v>
       </c>
@@ -16995,7 +17007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A536" t="s">
         <v>1247</v>
       </c>
@@ -17015,7 +17027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A537" t="s">
         <v>570</v>
       </c>
@@ -17035,7 +17047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A538" t="s">
         <v>812</v>
       </c>
@@ -17055,7 +17067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A539" t="s">
         <v>1075</v>
       </c>
@@ -17075,7 +17087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A540" t="s">
         <v>1251</v>
       </c>
@@ -17095,7 +17107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A541" t="s">
         <v>1120</v>
       </c>
@@ -17115,7 +17127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A542" t="s">
         <v>387</v>
       </c>
@@ -17135,7 +17147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A543" t="s">
         <v>495</v>
       </c>
@@ -17155,7 +17167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A544" t="s">
         <v>1259</v>
       </c>
@@ -17175,7 +17187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A545" t="s">
         <v>444</v>
       </c>
@@ -17195,7 +17207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A546" t="s">
         <v>1086</v>
       </c>
@@ -17215,7 +17227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A547" t="s">
         <v>1265</v>
       </c>
@@ -17235,7 +17247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A548" t="s">
         <v>171</v>
       </c>
@@ -17255,7 +17267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A549" t="s">
         <v>473</v>
       </c>
@@ -17275,7 +17287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A550" t="s">
         <v>1269</v>
       </c>
@@ -17295,7 +17307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A551" t="s">
         <v>790</v>
       </c>
@@ -17315,7 +17327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A552" t="s">
         <v>488</v>
       </c>
@@ -17335,7 +17347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A553" t="s">
         <v>118</v>
       </c>
@@ -17355,7 +17367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A554" t="s">
         <v>959</v>
       </c>
@@ -17375,7 +17387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A555" t="s">
         <v>193</v>
       </c>
@@ -17395,7 +17407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A556" t="s">
         <v>28</v>
       </c>
@@ -17415,7 +17427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A557" t="s">
         <v>1283</v>
       </c>
@@ -17435,7 +17447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A558" t="s">
         <v>1286</v>
       </c>
@@ -17455,7 +17467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A559" t="s">
         <v>368</v>
       </c>
@@ -17475,7 +17487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A560" t="s">
         <v>1289</v>
       </c>
@@ -17495,7 +17507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A561" t="s">
         <v>739</v>
       </c>
@@ -17515,7 +17527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A562" t="s">
         <v>1204</v>
       </c>
@@ -17535,7 +17547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A563" t="s">
         <v>290</v>
       </c>
@@ -17555,7 +17567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A564" t="s">
         <v>1295</v>
       </c>
@@ -17575,7 +17587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A565" t="s">
         <v>358</v>
       </c>
@@ -17595,7 +17607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A566" t="s">
         <v>1298</v>
       </c>
@@ -17615,7 +17627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A567" t="s">
         <v>118</v>
       </c>
@@ -17635,7 +17647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A568" t="s">
         <v>420</v>
       </c>
@@ -17655,7 +17667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A569" t="s">
         <v>654</v>
       </c>
@@ -17675,7 +17687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A570" t="s">
         <v>959</v>
       </c>
@@ -17695,7 +17707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A571" t="s">
         <v>1144</v>
       </c>
@@ -17715,7 +17727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A572" t="s">
         <v>1308</v>
       </c>
@@ -17735,7 +17747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A573" t="s">
         <v>477</v>
       </c>
@@ -17755,7 +17767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A574" t="s">
         <v>713</v>
       </c>
@@ -17775,7 +17787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A575" t="s">
         <v>822</v>
       </c>
@@ -17795,7 +17807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A576" t="s">
         <v>1314</v>
       </c>
@@ -17815,7 +17827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A577" t="s">
         <v>1316</v>
       </c>
@@ -17835,7 +17847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A578" t="s">
         <v>157</v>
       </c>
@@ -17855,7 +17867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A579" t="s">
         <v>1319</v>
       </c>
@@ -17875,7 +17887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A580" t="s">
         <v>430</v>
       </c>
@@ -17895,7 +17907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A581" t="s">
         <v>1286</v>
       </c>
@@ -17915,7 +17927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A582" t="s">
         <v>1289</v>
       </c>
@@ -17935,7 +17947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A583" t="s">
         <v>488</v>
       </c>
@@ -17955,7 +17967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A584" t="s">
         <v>1327</v>
       </c>
@@ -17975,7 +17987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A585" t="s">
         <v>1330</v>
       </c>
@@ -17995,7 +18007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A586" t="s">
         <v>526</v>
       </c>
@@ -18015,7 +18027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A587" t="s">
         <v>36</v>
       </c>
@@ -18035,7 +18047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A588" t="s">
         <v>242</v>
       </c>
@@ -18055,7 +18067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A589" t="s">
         <v>713</v>
       </c>
@@ -18075,7 +18087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A590" t="s">
         <v>159</v>
       </c>
@@ -18095,7 +18107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A591" t="s">
         <v>1339</v>
       </c>
@@ -18115,7 +18127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A592" t="s">
         <v>1265</v>
       </c>
@@ -18135,7 +18147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A593" t="s">
         <v>1342</v>
       </c>
@@ -18155,7 +18167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A594" t="s">
         <v>1344</v>
       </c>
@@ -18175,7 +18187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A595" t="s">
         <v>1103</v>
       </c>
@@ -18195,7 +18207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A596" t="s">
         <v>1235</v>
       </c>
@@ -18215,7 +18227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A597" t="s">
         <v>1349</v>
       </c>
@@ -18235,7 +18247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A598" t="s">
         <v>1351</v>
       </c>
@@ -18255,7 +18267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A599" t="s">
         <v>1353</v>
       </c>
@@ -18275,7 +18287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A600" t="s">
         <v>848</v>
       </c>
@@ -18295,7 +18307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A601" t="s">
         <v>344</v>
       </c>
@@ -18315,7 +18327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A602" t="s">
         <v>1358</v>
       </c>
@@ -18335,7 +18347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A603" t="s">
         <v>61</v>
       </c>
@@ -18355,7 +18367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A604" t="s">
         <v>893</v>
       </c>
@@ -18375,7 +18387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A605" t="s">
         <v>1363</v>
       </c>
@@ -18395,7 +18407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A606" t="s">
         <v>899</v>
       </c>
@@ -18415,7 +18427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A607" t="s">
         <v>183</v>
       </c>
@@ -18435,7 +18447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A608" t="s">
         <v>1367</v>
       </c>
@@ -18455,7 +18467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A609" t="s">
         <v>1370</v>
       </c>
@@ -18475,7 +18487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A610" t="s">
         <v>1286</v>
       </c>
@@ -18495,7 +18507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A611" t="s">
         <v>1374</v>
       </c>
@@ -18515,7 +18527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A612" t="s">
         <v>1375</v>
       </c>
@@ -18535,7 +18547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A613" t="s">
         <v>549</v>
       </c>
@@ -18555,7 +18567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A614" t="s">
         <v>473</v>
       </c>
@@ -18575,7 +18587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A615" t="s">
         <v>1381</v>
       </c>
@@ -18595,7 +18607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A616" t="s">
         <v>1251</v>
       </c>
@@ -18615,7 +18627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A617" t="s">
         <v>889</v>
       </c>
@@ -18635,7 +18647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A618" t="s">
         <v>899</v>
       </c>
@@ -18655,7 +18667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A619" t="s">
         <v>82</v>
       </c>
@@ -18675,7 +18687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A620" t="s">
         <v>1388</v>
       </c>
@@ -18695,7 +18707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A621" t="s">
         <v>710</v>
       </c>
@@ -18715,7 +18727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A622" t="s">
         <v>514</v>
       </c>
@@ -18735,7 +18747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A623" t="s">
         <v>316</v>
       </c>
@@ -18755,7 +18767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A624" t="s">
         <v>1392</v>
       </c>
@@ -18775,7 +18787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A625" t="s">
         <v>1394</v>
       </c>
@@ -18795,7 +18807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A626" t="s">
         <v>1397</v>
       </c>
@@ -18815,7 +18827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A627" t="s">
         <v>40</v>
       </c>
@@ -18835,7 +18847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A628" t="s">
         <v>1351</v>
       </c>
@@ -18855,7 +18867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A629" t="s">
         <v>682</v>
       </c>
@@ -18875,7 +18887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A630" t="s">
         <v>1402</v>
       </c>
@@ -18895,7 +18907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A631" t="s">
         <v>32</v>
       </c>
@@ -18915,7 +18927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A632" t="s">
         <v>122</v>
       </c>
@@ -18935,7 +18947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A633" t="s">
         <v>439</v>
       </c>
@@ -18955,7 +18967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A634" t="s">
         <v>1208</v>
       </c>
@@ -18975,7 +18987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A635" t="s">
         <v>1351</v>
       </c>
@@ -18995,7 +19007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A636" t="s">
         <v>17</v>
       </c>
@@ -19015,7 +19027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A637" t="s">
         <v>390</v>
       </c>
@@ -19035,7 +19047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A638" t="s">
         <v>331</v>
       </c>
@@ -19055,7 +19067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A639" t="s">
         <v>102</v>
       </c>
@@ -19075,7 +19087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A640" t="s">
         <v>1064</v>
       </c>
@@ -19095,7 +19107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A641" t="s">
         <v>1416</v>
       </c>
@@ -19115,7 +19127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A642" t="s">
         <v>1418</v>
       </c>
@@ -19135,7 +19147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A643" t="s">
         <v>1421</v>
       </c>
@@ -19155,7 +19167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A644" t="s">
         <v>708</v>
       </c>
@@ -19175,7 +19187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A645" t="s">
         <v>551</v>
       </c>
@@ -19195,7 +19207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A646" t="s">
         <v>551</v>
       </c>
@@ -19215,7 +19227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A647" t="s">
         <v>380</v>
       </c>
@@ -19235,7 +19247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A648" t="s">
         <v>24</v>
       </c>
@@ -19255,7 +19267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A649" t="s">
         <v>236</v>
       </c>
@@ -19275,7 +19287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A650" t="s">
         <v>1045</v>
       </c>
@@ -19295,7 +19307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A651" t="s">
         <v>1432</v>
       </c>
@@ -19315,7 +19327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A652" t="s">
         <v>1433</v>
       </c>
@@ -19335,7 +19347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A653" t="s">
         <v>1434</v>
       </c>
@@ -19355,7 +19367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A654" t="s">
         <v>1190</v>
       </c>
@@ -19375,7 +19387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A655" t="s">
         <v>1436</v>
       </c>
@@ -19395,7 +19407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A656" t="s">
         <v>1438</v>
       </c>
@@ -19415,7 +19427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A657" t="s">
         <v>372</v>
       </c>
@@ -19435,7 +19447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A658" t="s">
         <v>78</v>
       </c>
@@ -19455,7 +19467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A659" t="s">
         <v>903</v>
       </c>
@@ -19475,7 +19487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A660" t="s">
         <v>94</v>
       </c>
@@ -19495,7 +19507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A661" t="s">
         <v>211</v>
       </c>
@@ -19515,7 +19527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A662" t="s">
         <v>885</v>
       </c>
@@ -19535,7 +19547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A663" t="s">
         <v>377</v>
       </c>
@@ -19555,7 +19567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A664" t="s">
         <v>1064</v>
       </c>
@@ -19575,7 +19587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A665" t="s">
         <v>901</v>
       </c>
@@ -19595,7 +19607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A666" t="s">
         <v>1454</v>
       </c>
@@ -19615,7 +19627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A667" t="s">
         <v>297</v>
       </c>
@@ -19635,7 +19647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A668" t="s">
         <v>1457</v>
       </c>
@@ -19655,7 +19667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A669" t="s">
         <v>146</v>
       </c>
@@ -19675,7 +19687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A670" t="s">
         <v>1460</v>
       </c>
@@ -19695,7 +19707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A671" t="s">
         <v>584</v>
       </c>
@@ -19715,7 +19727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A672" t="s">
         <v>377</v>
       </c>
@@ -19735,7 +19747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A673" t="s">
         <v>1438</v>
       </c>
@@ -19755,7 +19767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A674" t="s">
         <v>1468</v>
       </c>
@@ -19775,7 +19787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A675" t="s">
         <v>21</v>
       </c>
@@ -19795,7 +19807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A676" t="s">
         <v>1473</v>
       </c>
@@ -19815,7 +19827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A677" t="s">
         <v>1475</v>
       </c>
@@ -19835,7 +19847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A678" t="s">
         <v>1476</v>
       </c>
@@ -19855,7 +19867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A679" t="s">
         <v>1478</v>
       </c>
@@ -19875,7 +19887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A680" t="s">
         <v>935</v>
       </c>
@@ -19895,7 +19907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A681" t="s">
         <v>1358</v>
       </c>
@@ -19915,7 +19927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A682" t="s">
         <v>710</v>
       </c>
@@ -19935,7 +19947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A683" t="s">
         <v>1485</v>
       </c>
@@ -19955,7 +19967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A684" t="s">
         <v>201</v>
       </c>
@@ -19975,7 +19987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A685" t="s">
         <v>1432</v>
       </c>
@@ -19995,7 +20007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A686" t="s">
         <v>1242</v>
       </c>
@@ -20015,7 +20027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A687" t="s">
         <v>578</v>
       </c>
@@ -20035,7 +20047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A688" t="s">
         <v>691</v>
       </c>
@@ -20055,7 +20067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A689" t="s">
         <v>549</v>
       </c>
@@ -20075,7 +20087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A690" t="s">
         <v>1496</v>
       </c>
@@ -20095,7 +20107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A691" t="s">
         <v>1499</v>
       </c>
@@ -20115,7 +20127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A692" t="s">
         <v>514</v>
       </c>
@@ -20135,7 +20147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A693" t="s">
         <v>743</v>
       </c>
@@ -20155,7 +20167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A694" t="s">
         <v>672</v>
       </c>
@@ -20175,7 +20187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A695" t="s">
         <v>587</v>
       </c>
@@ -20195,7 +20207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A696" t="s">
         <v>128</v>
       </c>
@@ -20215,7 +20227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A697" t="s">
         <v>1103</v>
       </c>
@@ -20235,7 +20247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A698" t="s">
         <v>1140</v>
       </c>
@@ -20255,7 +20267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A699" t="s">
         <v>1064</v>
       </c>
@@ -20275,7 +20287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A700" t="s">
         <v>1512</v>
       </c>
@@ -20295,7 +20307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A701" t="s">
         <v>1460</v>
       </c>
@@ -20315,7 +20327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A702" t="s">
         <v>251</v>
       </c>
@@ -20335,7 +20347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A703" t="s">
         <v>1005</v>
       </c>
@@ -20355,7 +20367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A704" t="s">
         <v>290</v>
       </c>
@@ -20375,7 +20387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A705" t="s">
         <v>1521</v>
       </c>
@@ -20395,7 +20407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A706" t="s">
         <v>233</v>
       </c>
@@ -20415,7 +20427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A707" t="s">
         <v>1397</v>
       </c>
@@ -20435,7 +20447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A708" t="s">
         <v>1526</v>
       </c>
@@ -20455,7 +20467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A709" t="s">
         <v>1529</v>
       </c>
@@ -20475,7 +20487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A710" t="s">
         <v>903</v>
       </c>
@@ -20495,7 +20507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A711" t="s">
         <v>259</v>
       </c>
@@ -20515,7 +20527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A712" t="s">
         <v>654</v>
       </c>
@@ -20535,7 +20547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A713" t="s">
         <v>21</v>
       </c>
@@ -20555,7 +20567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A714" t="s">
         <v>761</v>
       </c>
@@ -20575,7 +20587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A715" t="s">
         <v>793</v>
       </c>
@@ -20595,7 +20607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A716" t="s">
         <v>183</v>
       </c>
@@ -20615,7 +20627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A717" t="s">
         <v>159</v>
       </c>
@@ -20635,7 +20647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A718" t="s">
         <v>865</v>
       </c>
@@ -20655,7 +20667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A719" t="s">
         <v>138</v>
       </c>
@@ -20675,7 +20687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A720" t="s">
         <v>149</v>
       </c>
@@ -20695,7 +20707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A721" t="s">
         <v>531</v>
       </c>
@@ -20715,7 +20727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A722" t="s">
         <v>372</v>
       </c>
@@ -20735,7 +20747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A723" t="s">
         <v>171</v>
       </c>
@@ -20755,7 +20767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A724" t="s">
         <v>1316</v>
       </c>
@@ -20775,7 +20787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A725" t="s">
         <v>110</v>
       </c>
@@ -20795,7 +20807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A726" t="s">
         <v>1269</v>
       </c>
@@ -20815,7 +20827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A727" t="s">
         <v>1134</v>
       </c>
@@ -20835,7 +20847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A728" t="s">
         <v>685</v>
       </c>
@@ -20855,7 +20867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A729" t="s">
         <v>1442</v>
       </c>
@@ -20875,7 +20887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A730" t="s">
         <v>1265</v>
       </c>
@@ -20895,7 +20907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A731" t="s">
         <v>13</v>
       </c>
@@ -20915,7 +20927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A732" t="s">
         <v>1558</v>
       </c>
@@ -20935,7 +20947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A733" t="s">
         <v>186</v>
       </c>
@@ -20955,7 +20967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A734" t="s">
         <v>1005</v>
       </c>
@@ -20975,7 +20987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A735" t="s">
         <v>1563</v>
       </c>
@@ -20995,7 +21007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A736" t="s">
         <v>1160</v>
       </c>
@@ -21015,7 +21027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A737" t="s">
         <v>913</v>
       </c>
@@ -21035,7 +21047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A738" t="s">
         <v>128</v>
       </c>
@@ -21055,7 +21067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A739" t="s">
         <v>430</v>
       </c>
@@ -21075,7 +21087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A740" t="s">
         <v>905</v>
       </c>
@@ -21095,7 +21107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A741" t="s">
         <v>1572</v>
       </c>
@@ -21115,7 +21127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A742" t="s">
         <v>102</v>
       </c>
@@ -21135,7 +21147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A743" t="s">
         <v>78</v>
       </c>
@@ -21155,7 +21167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A744" t="s">
         <v>1578</v>
       </c>
@@ -21175,7 +21187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A745" t="s">
         <v>387</v>
       </c>
@@ -21195,7 +21207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A746" t="s">
         <v>1578</v>
       </c>
@@ -21215,7 +21227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A747" t="s">
         <v>1107</v>
       </c>
@@ -21235,7 +21247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A748" t="s">
         <v>294</v>
       </c>
@@ -21255,7 +21267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A749" t="s">
         <v>528</v>
       </c>
@@ -21275,7 +21287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A750" t="s">
         <v>453</v>
       </c>
@@ -21295,7 +21307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A751" t="s">
         <v>1067</v>
       </c>
@@ -21315,7 +21327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A752" t="s">
         <v>710</v>
       </c>
@@ -21335,7 +21347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A753" t="s">
         <v>1590</v>
       </c>
@@ -21355,7 +21367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A754" t="s">
         <v>1242</v>
       </c>
@@ -21375,7 +21387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A755" t="s">
         <v>534</v>
       </c>
@@ -21395,7 +21407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A756" t="s">
         <v>806</v>
       </c>
@@ -21415,7 +21427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A757" t="s">
         <v>1594</v>
       </c>
@@ -21435,7 +21447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A758" t="s">
         <v>905</v>
       </c>
@@ -21455,7 +21467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A759" t="s">
         <v>672</v>
       </c>
@@ -21475,7 +21487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A760" t="s">
         <v>568</v>
       </c>
@@ -21495,7 +21507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A761" t="s">
         <v>705</v>
       </c>
@@ -21515,7 +21527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A762" t="s">
         <v>1601</v>
       </c>
@@ -21535,7 +21547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A763" t="s">
         <v>351</v>
       </c>
@@ -21555,7 +21567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A764" t="s">
         <v>685</v>
       </c>
@@ -21575,7 +21587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A765" t="s">
         <v>885</v>
       </c>
@@ -21595,7 +21607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A766" t="s">
         <v>703</v>
       </c>
@@ -21615,7 +21627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A767" t="s">
         <v>1608</v>
       </c>
@@ -21635,7 +21647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A768" t="s">
         <v>1140</v>
       </c>
@@ -21655,7 +21667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A769" t="s">
         <v>680</v>
       </c>
@@ -21675,7 +21687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A770" t="s">
         <v>1614</v>
       </c>
@@ -21695,7 +21707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A771" t="s">
         <v>156</v>
       </c>
@@ -21715,7 +21727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A772" t="s">
         <v>733</v>
       </c>
@@ -21735,7 +21747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A773" t="s">
         <v>1381</v>
       </c>
@@ -21755,7 +21767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A774" t="s">
         <v>61</v>
       </c>
@@ -21775,7 +21787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A775" t="s">
         <v>592</v>
       </c>
@@ -21795,7 +21807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A776" t="s">
         <v>1468</v>
       </c>
@@ -21815,7 +21827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A777" t="s">
         <v>61</v>
       </c>
@@ -21835,7 +21847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A778" t="s">
         <v>300</v>
       </c>
@@ -21855,7 +21867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A779" t="s">
         <v>1209</v>
       </c>
@@ -21875,7 +21887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A780" t="s">
         <v>1629</v>
       </c>
@@ -21895,7 +21907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A781" t="s">
         <v>869</v>
       </c>
@@ -21915,7 +21927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A782" t="s">
         <v>1594</v>
       </c>
@@ -21935,7 +21947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A783" t="s">
         <v>201</v>
       </c>
@@ -21955,7 +21967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A784" t="s">
         <v>321</v>
       </c>
@@ -21975,7 +21987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A785" t="s">
         <v>1201</v>
       </c>
@@ -21995,7 +22007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A786" t="s">
         <v>916</v>
       </c>
@@ -22015,7 +22027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A787" t="s">
         <v>913</v>
       </c>
@@ -22035,7 +22047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A788" t="s">
         <v>21</v>
       </c>
@@ -22055,7 +22067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A789" t="s">
         <v>1640</v>
       </c>
@@ -22075,7 +22087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A790" t="s">
         <v>1563</v>
       </c>
@@ -22095,7 +22107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A791" t="s">
         <v>761</v>
       </c>
@@ -22115,7 +22127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A792" t="s">
         <v>793</v>
       </c>
@@ -22135,7 +22147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A793" t="s">
         <v>1473</v>
       </c>
@@ -22155,7 +22167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A794" t="s">
         <v>713</v>
       </c>
@@ -22175,7 +22187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A795" t="s">
         <v>1649</v>
       </c>
@@ -22195,7 +22207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A796" t="s">
         <v>1652</v>
       </c>
@@ -22215,7 +22227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A797" t="s">
         <v>1045</v>
       </c>
@@ -22235,7 +22247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A798" t="s">
         <v>1418</v>
       </c>
@@ -22255,7 +22267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A799" t="s">
         <v>21</v>
       </c>
@@ -22275,7 +22287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A800" t="s">
         <v>190</v>
       </c>
@@ -22295,7 +22307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A801" t="s">
         <v>1658</v>
       </c>
@@ -22315,7 +22327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A802" t="s">
         <v>347</v>
       </c>
@@ -22335,7 +22347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A803" t="s">
         <v>786</v>
       </c>
@@ -22355,7 +22367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A804" t="s">
         <v>1661</v>
       </c>
@@ -22375,7 +22387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A805" t="s">
         <v>236</v>
       </c>
@@ -22395,7 +22407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A806" t="s">
         <v>1214</v>
       </c>
@@ -22415,7 +22427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A807" t="s">
         <v>1666</v>
       </c>
@@ -22435,7 +22447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A808" t="s">
         <v>358</v>
       </c>
@@ -22455,7 +22467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A809" t="s">
         <v>1669</v>
       </c>
@@ -22475,7 +22487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A810" t="s">
         <v>128</v>
       </c>
@@ -22495,7 +22507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A811" t="s">
         <v>806</v>
       </c>
@@ -22515,7 +22527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A812" t="s">
         <v>848</v>
       </c>
@@ -22535,7 +22547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A813" t="s">
         <v>433</v>
       </c>
@@ -22555,7 +22567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A814" t="s">
         <v>690</v>
       </c>
@@ -22575,7 +22587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A815" t="s">
         <v>656</v>
       </c>
@@ -22595,7 +22607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A816" t="s">
         <v>1674</v>
       </c>
@@ -22615,7 +22627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A817" t="s">
         <v>307</v>
       </c>
@@ -22635,7 +22647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A818" t="s">
         <v>453</v>
       </c>
@@ -22655,7 +22667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A819" t="s">
         <v>1190</v>
       </c>
@@ -22675,7 +22687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A820" t="s">
         <v>179</v>
       </c>
@@ -22695,7 +22707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A821" t="s">
         <v>651</v>
       </c>
@@ -22715,7 +22727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A822" t="s">
         <v>568</v>
       </c>
@@ -22735,7 +22747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A823" t="s">
         <v>1680</v>
       </c>
@@ -22755,7 +22767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A824" t="s">
         <v>1682</v>
       </c>
@@ -22775,7 +22787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A825" t="s">
         <v>458</v>
       </c>
@@ -22795,7 +22807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A826" t="s">
         <v>1103</v>
       </c>
@@ -22815,7 +22827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A827" t="s">
         <v>364</v>
       </c>
@@ -22835,7 +22847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A828" t="s">
         <v>843</v>
       </c>
@@ -22855,7 +22867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A829" t="s">
         <v>531</v>
       </c>
@@ -22875,7 +22887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A830" t="s">
         <v>717</v>
       </c>
@@ -22895,7 +22907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A831" t="s">
         <v>1127</v>
       </c>
@@ -22915,7 +22927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A832" t="s">
         <v>1363</v>
       </c>
@@ -22935,7 +22947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A833" t="s">
         <v>1375</v>
       </c>
@@ -22955,7 +22967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A834" t="s">
         <v>1295</v>
       </c>
@@ -22975,7 +22987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A835" t="s">
         <v>982</v>
       </c>
@@ -22995,7 +23007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A836" t="s">
         <v>1131</v>
       </c>
@@ -23015,7 +23027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A837" t="s">
         <v>245</v>
       </c>
@@ -23035,7 +23047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A838" t="s">
         <v>1702</v>
       </c>
@@ -23055,7 +23067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A839" t="s">
         <v>936</v>
       </c>
@@ -23075,7 +23087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A840" t="s">
         <v>973</v>
       </c>
@@ -23095,7 +23107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A841" t="s">
         <v>945</v>
       </c>
@@ -23115,7 +23127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A842" t="s">
         <v>786</v>
       </c>
@@ -23135,7 +23147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A843" t="s">
         <v>713</v>
       </c>
@@ -23155,7 +23167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A844" t="s">
         <v>265</v>
       </c>
@@ -23175,7 +23187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A845" t="s">
         <v>533</v>
       </c>
@@ -23195,7 +23207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A846" t="s">
         <v>1226</v>
       </c>
@@ -23215,7 +23227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A847" t="s">
         <v>1146</v>
       </c>
@@ -23235,7 +23247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A848" t="s">
         <v>1711</v>
       </c>
@@ -23255,7 +23267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A849" t="s">
         <v>1521</v>
       </c>
@@ -23275,7 +23287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A850" t="s">
         <v>1024</v>
       </c>
@@ -23295,7 +23307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A851" t="s">
         <v>594</v>
       </c>
@@ -23315,7 +23327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A852" t="s">
         <v>1674</v>
       </c>
@@ -23335,7 +23347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A853" t="s">
         <v>1418</v>
       </c>
@@ -23355,7 +23367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A854" t="s">
         <v>179</v>
       </c>
@@ -23375,7 +23387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A855" t="s">
         <v>458</v>
       </c>
@@ -23395,7 +23407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A856" t="s">
         <v>487</v>
       </c>
@@ -23415,7 +23427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A857" t="s">
         <v>1247</v>
       </c>
@@ -23435,7 +23447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A858" t="s">
         <v>1718</v>
       </c>
@@ -23455,7 +23467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A859" t="s">
         <v>526</v>
       </c>
@@ -23475,7 +23487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A860" t="s">
         <v>62</v>
       </c>
@@ -23495,7 +23507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A861" t="s">
         <v>1192</v>
       </c>
@@ -23515,7 +23527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A862" t="s">
         <v>0</v>
       </c>
@@ -23535,7 +23547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A863" t="s">
         <v>1724</v>
       </c>
@@ -23555,7 +23567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A864" t="s">
         <v>1017</v>
       </c>
@@ -23575,7 +23587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A865" t="s">
         <v>464</v>
       </c>
@@ -23595,7 +23607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A866" t="s">
         <v>444</v>
       </c>
@@ -23615,7 +23627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A867" t="s">
         <v>1199</v>
       </c>
@@ -23635,7 +23647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A868" t="s">
         <v>128</v>
       </c>
@@ -23655,7 +23667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A869" t="s">
         <v>361</v>
       </c>
@@ -23675,7 +23687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A870" t="s">
         <v>828</v>
       </c>
@@ -23695,7 +23707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A871" t="s">
         <v>224</v>
       </c>
@@ -23715,7 +23727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A872" t="s">
         <v>369</v>
       </c>
@@ -23735,7 +23747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A873" t="s">
         <v>786</v>
       </c>
@@ -23755,7 +23767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A874" t="s">
         <v>135</v>
       </c>
@@ -23775,7 +23787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A875" t="s">
         <v>862</v>
       </c>
@@ -23795,7 +23807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A876" t="s">
         <v>1024</v>
       </c>
@@ -23815,7 +23827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A877" t="s">
         <v>1652</v>
       </c>
@@ -23835,7 +23847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A878" t="s">
         <v>631</v>
       </c>
@@ -23855,7 +23867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A879" t="s">
         <v>220</v>
       </c>
@@ -23875,7 +23887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A880" t="s">
         <v>654</v>
       </c>
@@ -23895,7 +23907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A881" t="s">
         <v>519</v>
       </c>
@@ -23915,7 +23927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A882" t="s">
         <v>13</v>
       </c>
@@ -23935,7 +23947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A883" t="s">
         <v>1226</v>
       </c>
@@ -23955,7 +23967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A884" t="s">
         <v>1752</v>
       </c>
@@ -23975,7 +23987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A885" t="s">
         <v>828</v>
       </c>
@@ -23995,7 +24007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A886" t="s">
         <v>534</v>
       </c>
@@ -24015,7 +24027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A887" t="s">
         <v>1388</v>
       </c>
@@ -24035,7 +24047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A888" t="s">
         <v>1757</v>
       </c>
@@ -24055,7 +24067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A889" t="s">
         <v>1759</v>
       </c>
@@ -24075,7 +24087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A890" t="s">
         <v>453</v>
       </c>
@@ -24095,7 +24107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A891" t="s">
         <v>1171</v>
       </c>
@@ -24115,7 +24127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A892" t="s">
         <v>1226</v>
       </c>
@@ -24135,7 +24147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A893" t="s">
         <v>316</v>
       </c>
@@ -24155,7 +24167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A894" t="s">
         <v>94</v>
       </c>
@@ -24175,7 +24187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A895" t="s">
         <v>877</v>
       </c>
@@ -24195,7 +24207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A896" t="s">
         <v>1769</v>
       </c>
@@ -24215,7 +24227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A897" t="s">
         <v>383</v>
       </c>
@@ -24235,7 +24247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A898" t="s">
         <v>570</v>
       </c>
@@ -24255,7 +24267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A899" t="s">
         <v>748</v>
       </c>
@@ -24275,7 +24287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A900" t="s">
         <v>1160</v>
       </c>
@@ -24295,7 +24307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A901" t="s">
         <v>1702</v>
       </c>
@@ -24315,7 +24327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A902" t="s">
         <v>331</v>
       </c>
@@ -24335,7 +24347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A903" t="s">
         <v>1204</v>
       </c>
@@ -24355,7 +24367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A904" t="s">
         <v>390</v>
       </c>
@@ -24375,7 +24387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A905" t="s">
         <v>1235</v>
       </c>
@@ -24395,7 +24407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A906" t="s">
         <v>722</v>
       </c>
@@ -24415,7 +24427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A907" t="s">
         <v>1190</v>
       </c>
@@ -24435,7 +24447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A908" t="s">
         <v>1295</v>
       </c>
@@ -24455,7 +24467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A909" t="s">
         <v>1787</v>
       </c>
@@ -24475,7 +24487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A910" t="s">
         <v>131</v>
       </c>
@@ -24495,7 +24507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A911" t="s">
         <v>464</v>
       </c>
@@ -24515,7 +24527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A912" t="s">
         <v>1005</v>
       </c>
@@ -24535,7 +24547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A913" t="s">
         <v>261</v>
       </c>
@@ -24555,7 +24567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A914" t="s">
         <v>1640</v>
       </c>
@@ -24575,7 +24587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A915" t="s">
         <v>570</v>
       </c>
@@ -24595,7 +24607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A916" t="s">
         <v>135</v>
       </c>
@@ -24615,7 +24627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A917" t="s">
         <v>1388</v>
       </c>
@@ -24635,7 +24647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A918" t="s">
         <v>285</v>
       </c>
@@ -24655,7 +24667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A919" t="s">
         <v>28</v>
       </c>
@@ -24675,7 +24687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A920" t="s">
         <v>53</v>
       </c>
@@ -24695,7 +24707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A921" t="s">
         <v>1803</v>
       </c>
@@ -24715,7 +24727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A922" t="s">
         <v>473</v>
       </c>
@@ -24735,7 +24747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A923" t="s">
         <v>526</v>
       </c>
@@ -24755,7 +24767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A924" t="s">
         <v>1807</v>
       </c>
@@ -24775,7 +24787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A925" t="s">
         <v>227</v>
       </c>
@@ -24795,7 +24807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A926" t="s">
         <v>830</v>
       </c>
@@ -24815,7 +24827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A927" t="s">
         <v>1349</v>
       </c>
@@ -24835,7 +24847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A928" t="s">
         <v>17</v>
       </c>
@@ -24855,7 +24867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A929" t="s">
         <v>664</v>
       </c>
@@ -24875,7 +24887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A930" t="s">
         <v>336</v>
       </c>
@@ -24895,7 +24907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A931" t="s">
         <v>1070</v>
       </c>
@@ -24915,7 +24927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A932" t="s">
         <v>661</v>
       </c>
@@ -24935,7 +24947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A933" t="s">
         <v>387</v>
       </c>
@@ -24955,7 +24967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A934" t="s">
         <v>468</v>
       </c>
@@ -24975,7 +24987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A935" t="s">
         <v>602</v>
       </c>
@@ -24995,7 +25007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A936" t="s">
         <v>1251</v>
       </c>
@@ -25015,7 +25027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A937" t="s">
         <v>1394</v>
       </c>
@@ -25035,7 +25047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A938" t="s">
         <v>1818</v>
       </c>
@@ -25055,7 +25067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A939" t="s">
         <v>1107</v>
       </c>
@@ -25075,7 +25087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A940" t="s">
         <v>1529</v>
       </c>
@@ -25095,7 +25107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A941" t="s">
         <v>748</v>
       </c>
@@ -25115,7 +25127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A942" t="s">
         <v>265</v>
       </c>
@@ -25135,7 +25147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A943" t="s">
         <v>1825</v>
       </c>
@@ -25155,7 +25167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A944" t="s">
         <v>1601</v>
       </c>
@@ -25175,7 +25187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A945" t="s">
         <v>1434</v>
       </c>
@@ -25195,7 +25207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A946" t="s">
         <v>781</v>
       </c>
@@ -25215,7 +25227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A947" t="s">
         <v>1769</v>
       </c>
@@ -25235,7 +25247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A948" t="s">
         <v>1286</v>
       </c>
@@ -25255,7 +25267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A949" t="s">
         <v>282</v>
       </c>
@@ -25275,7 +25287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A950" t="s">
         <v>1563</v>
       </c>
@@ -25295,7 +25307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A951" t="s">
         <v>935</v>
       </c>
@@ -25315,7 +25327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A952" t="s">
         <v>1381</v>
       </c>
@@ -25335,7 +25347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A953" t="s">
         <v>1658</v>
       </c>
@@ -25355,7 +25367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A954" t="s">
         <v>1558</v>
       </c>
@@ -25375,7 +25387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A955" t="s">
         <v>1558</v>
       </c>
@@ -25395,7 +25407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A956" t="s">
         <v>1601</v>
       </c>
@@ -25415,7 +25427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A957" t="s">
         <v>511</v>
       </c>
@@ -25435,7 +25447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A958" t="s">
         <v>1370</v>
       </c>
@@ -25455,7 +25467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A959" t="s">
         <v>1825</v>
       </c>
@@ -25475,7 +25487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A960" t="s">
         <v>860</v>
       </c>
@@ -25495,7 +25507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A961" t="s">
         <v>1843</v>
       </c>
@@ -25515,7 +25527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A962" t="s">
         <v>935</v>
       </c>
@@ -25535,7 +25547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A963" t="s">
         <v>380</v>
       </c>
@@ -25555,7 +25567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A964" t="s">
         <v>746</v>
       </c>
@@ -25575,7 +25587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A965" t="s">
         <v>390</v>
       </c>
@@ -25595,7 +25607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A966" t="s">
         <v>918</v>
       </c>
@@ -25615,7 +25627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A967" t="s">
         <v>1851</v>
       </c>
@@ -25635,7 +25647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A968" t="s">
         <v>423</v>
       </c>
@@ -25655,7 +25667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A969" t="s">
         <v>1787</v>
       </c>
@@ -25675,7 +25687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A970" t="s">
         <v>556</v>
       </c>
@@ -25695,7 +25707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A971" t="s">
         <v>838</v>
       </c>
@@ -25715,7 +25727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A972" t="s">
         <v>1226</v>
       </c>
@@ -25735,7 +25747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="973" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A973" t="s">
         <v>1269</v>
       </c>
@@ -25755,7 +25767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A974" t="s">
         <v>1521</v>
       </c>
@@ -25775,7 +25787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A975" t="s">
         <v>770</v>
       </c>
@@ -25795,7 +25807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A976" t="s">
         <v>511</v>
       </c>
@@ -25815,7 +25827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A977" t="s">
         <v>1259</v>
       </c>
@@ -25835,7 +25847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A978" t="s">
         <v>1669</v>
       </c>
@@ -25855,7 +25867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A979" t="s">
         <v>982</v>
       </c>
@@ -25875,7 +25887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A980" t="s">
         <v>1866</v>
       </c>
@@ -25895,7 +25907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A981" t="s">
         <v>53</v>
       </c>
@@ -25915,7 +25927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A982" t="s">
         <v>857</v>
       </c>
@@ -25935,7 +25947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A983" t="s">
         <v>1558</v>
       </c>
@@ -25955,7 +25967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A984" t="s">
         <v>166</v>
       </c>
@@ -25975,7 +25987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="985" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A985" t="s">
         <v>1875</v>
       </c>
@@ -25995,7 +26007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A986" t="s">
         <v>62</v>
       </c>
@@ -26015,7 +26027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A987" t="s">
         <v>1190</v>
       </c>
@@ -26035,7 +26047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="988" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A988" t="s">
         <v>368</v>
       </c>
@@ -26055,7 +26067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A989" t="s">
         <v>1882</v>
       </c>
@@ -26075,7 +26087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="990" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A990" t="s">
         <v>374</v>
       </c>
@@ -26095,7 +26107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="991" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A991" t="s">
         <v>656</v>
       </c>
@@ -26115,7 +26127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A992" t="s">
         <v>1590</v>
       </c>
@@ -26135,7 +26147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A993" t="s">
         <v>1269</v>
       </c>
@@ -26155,7 +26167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="994" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A994" t="s">
         <v>447</v>
       </c>
@@ -26175,7 +26187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A995" t="s">
         <v>1640</v>
       </c>
@@ -26195,7 +26207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="996" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A996" t="s">
         <v>240</v>
       </c>
@@ -26215,7 +26227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="997" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A997" t="s">
         <v>1070</v>
       </c>
@@ -26235,7 +26247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A998" t="s">
         <v>1521</v>
       </c>
@@ -26255,7 +26267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A999" t="s">
         <v>1759</v>
       </c>
@@ -26275,7 +26287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1000" t="s">
         <v>822</v>
       </c>
@@ -26295,7 +26307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1001" t="s">
         <v>1367</v>
       </c>
@@ -26323,20 +26335,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCABBEE2-3395-47C2-9626-C3684E3ED960}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.15234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.69140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3828125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -26353,7 +26367,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -26370,7 +26384,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>44</v>
       </c>
@@ -26387,7 +26401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>68</v>
       </c>
@@ -26404,7 +26418,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>73</v>
       </c>
@@ -26419,6 +26433,23 @@
       </c>
       <c r="E5" s="6">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>854</v>
+      </c>
+      <c r="B6" t="s">
+        <v>855</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E6" s="6">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -26431,18 +26462,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1851D91F-DA7C-4EA5-959B-DCDBAE8FBF58}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="2.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.3046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="2.15234375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1908</v>
       </c>
@@ -26456,7 +26487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>1909</v>
       </c>
@@ -26470,7 +26501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1910</v>
       </c>
@@ -26484,7 +26515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>1911</v>
       </c>
@@ -26498,7 +26529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>1912</v>
       </c>
@@ -26512,7 +26543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>1913</v>
       </c>
@@ -26526,7 +26557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>1914</v>
       </c>
@@ -26540,7 +26571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>1915</v>
       </c>
@@ -26554,7 +26585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>1916</v>
       </c>
@@ -26568,7 +26599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>1917</v>
       </c>
@@ -26582,7 +26613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>1918</v>
       </c>
@@ -26596,7 +26627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>1919</v>
       </c>
@@ -26610,7 +26641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>1920</v>
       </c>
@@ -26624,7 +26655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>1921</v>
       </c>
@@ -26638,7 +26669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>1922</v>
       </c>
@@ -26652,7 +26683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>1923</v>
       </c>
@@ -26666,7 +26697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>1954</v>
       </c>
@@ -26680,7 +26711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>1924</v>
       </c>
@@ -26694,7 +26725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>1925</v>
       </c>
@@ -26708,7 +26739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>1926</v>
       </c>
@@ -26722,7 +26753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>1955</v>
       </c>
@@ -26736,7 +26767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>1927</v>
       </c>
@@ -26750,7 +26781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>1928</v>
       </c>
@@ -26764,7 +26795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>1929</v>
       </c>
@@ -26778,7 +26809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>1930</v>
       </c>
@@ -26792,7 +26823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>1931</v>
       </c>
@@ -26806,7 +26837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>1932</v>
       </c>
@@ -26820,7 +26851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>1933</v>
       </c>
@@ -26834,7 +26865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
         <v>1934</v>
       </c>
@@ -26848,7 +26879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
         <v>1935</v>
       </c>
@@ -26862,7 +26893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>1936</v>
       </c>
@@ -26876,7 +26907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>1937</v>
       </c>
@@ -26890,7 +26921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
         <v>1938</v>
       </c>
@@ -26904,7 +26935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>1939</v>
       </c>
@@ -26918,7 +26949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>1940</v>
       </c>
@@ -26932,7 +26963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
         <v>1941</v>
       </c>
@@ -26946,7 +26977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>1942</v>
       </c>
@@ -26960,7 +26991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
         <v>1956</v>
       </c>
@@ -26974,7 +27005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
         <v>1943</v>
       </c>
@@ -26988,7 +27019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>1944</v>
       </c>
@@ -27002,7 +27033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
         <v>1945</v>
       </c>
@@ -27016,7 +27047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
         <v>1946</v>
       </c>
@@ -27030,7 +27061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
         <v>1947</v>
       </c>
@@ -27044,7 +27075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
         <v>1948</v>
       </c>
@@ -27058,7 +27089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
         <v>1949</v>
       </c>
@@ -27072,7 +27103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>1957</v>
       </c>
@@ -27086,7 +27117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
         <v>1950</v>
       </c>
@@ -27100,7 +27131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
         <v>1951</v>
       </c>
@@ -27114,7 +27145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
         <v>1952</v>
       </c>
@@ -27128,7 +27159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>1953</v>
       </c>
@@ -27153,14 +27184,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3828125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3046875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3046875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -27171,7 +27202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -27182,11 +27213,11 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
@@ -27203,12 +27234,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="2">
         <v>1</v>
       </c>

--- a/src/loader_package/big_pre_load.xlsx
+++ b/src/loader_package/big_pre_load.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://poce-my.sharepoint.com/personal/charles_perold_edu_ece_fr/Documents/ING 3/Informatique - Java/_Projet Gui S5/_Projet GUI_Fork/java_project_desautel_pellen_perold/src/loader_package/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\java_project_desautel_pellen_perold\src\loader_package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{2A97B4EA-A192-43BB-9E09-B9A2939F16BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3BC19E71-265D-4A4B-A135-39D7141E2354}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03CD7B1-1DBE-4ADD-850C-B0D3A5D792E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elector" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5081" uniqueCount="1966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5081" uniqueCount="1917">
   <si>
     <t>Charles</t>
   </si>
@@ -5764,156 +5764,6 @@
     <t>kim</t>
   </si>
   <si>
-    <t> Alabama</t>
-  </si>
-  <si>
-    <t> Alaska</t>
-  </si>
-  <si>
-    <t> Arizona</t>
-  </si>
-  <si>
-    <t> Arkansas</t>
-  </si>
-  <si>
-    <t> California</t>
-  </si>
-  <si>
-    <t> Colorado</t>
-  </si>
-  <si>
-    <t> Connecticut</t>
-  </si>
-  <si>
-    <t> Delaware</t>
-  </si>
-  <si>
-    <t> Florida</t>
-  </si>
-  <si>
-    <t> Georgia</t>
-  </si>
-  <si>
-    <t> Hawaii</t>
-  </si>
-  <si>
-    <t> Idaho</t>
-  </si>
-  <si>
-    <t> Illinois</t>
-  </si>
-  <si>
-    <t> Indiana</t>
-  </si>
-  <si>
-    <t> Iowa</t>
-  </si>
-  <si>
-    <t> Kansas</t>
-  </si>
-  <si>
-    <t> Louisiana</t>
-  </si>
-  <si>
-    <t> Maine</t>
-  </si>
-  <si>
-    <t> Maryland</t>
-  </si>
-  <si>
-    <t> Michigan</t>
-  </si>
-  <si>
-    <t> Minnesota</t>
-  </si>
-  <si>
-    <t> Mississippi</t>
-  </si>
-  <si>
-    <t> Missouri</t>
-  </si>
-  <si>
-    <t> Montana</t>
-  </si>
-  <si>
-    <t> Nebraska</t>
-  </si>
-  <si>
-    <t> Nevada</t>
-  </si>
-  <si>
-    <t> New Hampshire</t>
-  </si>
-  <si>
-    <t> New Jersey</t>
-  </si>
-  <si>
-    <t> New Mexico</t>
-  </si>
-  <si>
-    <t> New York</t>
-  </si>
-  <si>
-    <t> North Carolina</t>
-  </si>
-  <si>
-    <t> North Dakota</t>
-  </si>
-  <si>
-    <t> Ohio</t>
-  </si>
-  <si>
-    <t> Oklahoma</t>
-  </si>
-  <si>
-    <t> Oregon</t>
-  </si>
-  <si>
-    <t> Rhode Island</t>
-  </si>
-  <si>
-    <t> South Carolina</t>
-  </si>
-  <si>
-    <t> South Dakota</t>
-  </si>
-  <si>
-    <t> Tennessee</t>
-  </si>
-  <si>
-    <t> Texas</t>
-  </si>
-  <si>
-    <t> Utah</t>
-  </si>
-  <si>
-    <t> Vermont</t>
-  </si>
-  <si>
-    <t> Washington</t>
-  </si>
-  <si>
-    <t> West Virginia</t>
-  </si>
-  <si>
-    <t> Wisconsin</t>
-  </si>
-  <si>
-    <t> Wyoming</t>
-  </si>
-  <si>
-    <t> Kentucky</t>
-  </si>
-  <si>
-    <t> Massachusetts</t>
-  </si>
-  <si>
-    <t> Pennsylvania</t>
-  </si>
-  <si>
-    <t> Virginia</t>
-  </si>
-  <si>
     <t>Clementine</t>
   </si>
   <si>
@@ -5936,6 +5786,9 @@
   </si>
   <si>
     <t>CHARLIE</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
   </si>
 </sst>
 </file>
@@ -6287,8 +6140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6303,19 +6156,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1960</v>
+        <v>1910</v>
       </c>
       <c r="B1" t="s">
-        <v>1961</v>
+        <v>1911</v>
       </c>
       <c r="C1" t="s">
-        <v>1962</v>
+        <v>1912</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F1">
         <v>0</v>
@@ -6375,7 +6228,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6495,7 +6348,7 @@
         <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6563,7 +6416,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1964</v>
+        <v>1914</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
@@ -6583,7 +6436,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1965</v>
+        <v>1915</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -6595,7 +6448,7 @@
         <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -6715,7 +6568,7 @@
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -7235,7 +7088,7 @@
         <v>134</v>
       </c>
       <c r="E47" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -7655,7 +7508,7 @@
         <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -8135,7 +7988,7 @@
         <v>48</v>
       </c>
       <c r="E92" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -8575,7 +8428,7 @@
         <v>20</v>
       </c>
       <c r="E114" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -8995,7 +8848,7 @@
         <v>81</v>
       </c>
       <c r="E135" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -9475,7 +9328,7 @@
         <v>386</v>
       </c>
       <c r="E159" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -9775,7 +9628,7 @@
         <v>20</v>
       </c>
       <c r="E174" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -10315,7 +10168,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -10795,7 +10648,7 @@
         <v>64</v>
       </c>
       <c r="E225" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -11215,7 +11068,7 @@
         <v>56</v>
       </c>
       <c r="E246" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -11455,7 +11308,7 @@
         <v>726</v>
       </c>
       <c r="E258" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -11695,7 +11548,7 @@
         <v>293</v>
       </c>
       <c r="E270" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -11875,7 +11728,7 @@
         <v>81</v>
       </c>
       <c r="E279" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -12115,7 +11968,7 @@
         <v>720</v>
       </c>
       <c r="E291" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -12355,7 +12208,7 @@
         <v>189</v>
       </c>
       <c r="E303" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -12595,7 +12448,7 @@
         <v>56</v>
       </c>
       <c r="E315" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -12895,7 +12748,7 @@
         <v>48</v>
       </c>
       <c r="E330" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -13135,7 +12988,7 @@
         <v>100</v>
       </c>
       <c r="E342" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -13315,7 +13168,7 @@
         <v>113</v>
       </c>
       <c r="E351" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -13675,7 +13528,7 @@
         <v>39</v>
       </c>
       <c r="E369" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -13855,7 +13708,7 @@
         <v>39</v>
       </c>
       <c r="E378" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -14095,7 +13948,7 @@
         <v>100</v>
       </c>
       <c r="E390" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -14395,7 +14248,7 @@
         <v>419</v>
       </c>
       <c r="E405" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F405">
         <v>0</v>
@@ -14635,7 +14488,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F417">
         <v>0</v>
@@ -14875,7 +14728,7 @@
         <v>350</v>
       </c>
       <c r="E429" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F429">
         <v>0</v>
@@ -15055,7 +14908,7 @@
         <v>72</v>
       </c>
       <c r="E438" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F438">
         <v>0</v>
@@ -15355,7 +15208,7 @@
         <v>134</v>
       </c>
       <c r="E453" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F453">
         <v>0</v>
@@ -15655,7 +15508,7 @@
         <v>64</v>
       </c>
       <c r="E468" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F468">
         <v>0</v>
@@ -16015,7 +15868,7 @@
         <v>113</v>
       </c>
       <c r="E486" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F486">
         <v>0</v>
@@ -16315,7 +16168,7 @@
         <v>121</v>
       </c>
       <c r="E501" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F501">
         <v>0</v>
@@ -16675,7 +16528,7 @@
         <v>720</v>
       </c>
       <c r="E519" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F519">
         <v>0</v>
@@ -17035,7 +16888,7 @@
         <v>189</v>
       </c>
       <c r="E537" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F537">
         <v>0</v>
@@ -17395,7 +17248,7 @@
         <v>155</v>
       </c>
       <c r="E555" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F555">
         <v>0</v>
@@ -17695,7 +17548,7 @@
         <v>165</v>
       </c>
       <c r="E570" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F570">
         <v>0</v>
@@ -18175,7 +18028,7 @@
         <v>350</v>
       </c>
       <c r="E594" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F594">
         <v>0</v>
@@ -18535,7 +18388,7 @@
         <v>56</v>
       </c>
       <c r="E612" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F612">
         <v>0</v>
@@ -18895,7 +18748,7 @@
         <v>117</v>
       </c>
       <c r="E630" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F630">
         <v>0</v>
@@ -19255,7 +19108,7 @@
         <v>254</v>
       </c>
       <c r="E648" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F648">
         <v>0</v>
@@ -19735,7 +19588,7 @@
         <v>81</v>
       </c>
       <c r="E672" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F672">
         <v>0</v>
@@ -20215,7 +20068,7 @@
         <v>343</v>
       </c>
       <c r="E696" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F696">
         <v>0</v>
@@ -20695,7 +20548,7 @@
         <v>100</v>
       </c>
       <c r="E720" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F720">
         <v>0</v>
@@ -21115,7 +20968,7 @@
         <v>64</v>
       </c>
       <c r="E741" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F741">
         <v>0</v>
@@ -21655,7 +21508,7 @@
         <v>56</v>
       </c>
       <c r="E768" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F768">
         <v>0</v>
@@ -22255,7 +22108,7 @@
         <v>293</v>
       </c>
       <c r="E798" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F798">
         <v>0</v>
@@ -22555,7 +22408,7 @@
         <v>350</v>
       </c>
       <c r="E813" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F813">
         <v>0</v>
@@ -22855,7 +22708,7 @@
         <v>20</v>
       </c>
       <c r="E828" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F828">
         <v>0</v>
@@ -23095,7 +22948,7 @@
         <v>117</v>
       </c>
       <c r="E840" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F840">
         <v>0</v>
@@ -23335,7 +23188,7 @@
         <v>599</v>
       </c>
       <c r="E852" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F852">
         <v>0</v>
@@ -23575,7 +23428,7 @@
         <v>35</v>
       </c>
       <c r="E864" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F864">
         <v>0</v>
@@ -23815,7 +23668,7 @@
         <v>4</v>
       </c>
       <c r="E876" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F876">
         <v>0</v>
@@ -23995,7 +23848,7 @@
         <v>368</v>
       </c>
       <c r="E885" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F885">
         <v>0</v>
@@ -24175,7 +24028,7 @@
         <v>840</v>
       </c>
       <c r="E894" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F894">
         <v>0</v>
@@ -24415,7 +24268,7 @@
         <v>155</v>
       </c>
       <c r="E906" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F906">
         <v>0</v>
@@ -24595,7 +24448,7 @@
         <v>77</v>
       </c>
       <c r="E915" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F915">
         <v>0</v>
@@ -24855,7 +24708,7 @@
         <v>720</v>
       </c>
       <c r="E928" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F928">
         <v>0</v>
@@ -25175,7 +25028,7 @@
         <v>6</v>
       </c>
       <c r="E944" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F944">
         <v>0</v>
@@ -25715,7 +25568,7 @@
         <v>100</v>
       </c>
       <c r="E971" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="F971">
         <v>0</v>
@@ -26443,8 +26296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1851D91F-DA7C-4EA5-959B-DCDBAE8FBF58}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26456,7 +26309,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1908</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1">
         <v>10</v>
@@ -26470,7 +26323,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1909</v>
+        <v>67</v>
       </c>
       <c r="B2" s="5">
         <v>10</v>
@@ -26484,7 +26337,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>1910</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5">
         <v>10</v>
@@ -26498,7 +26351,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1911</v>
+        <v>134</v>
       </c>
       <c r="B4" s="5">
         <v>10</v>
@@ -26512,7 +26365,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1912</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5">
         <v>10</v>
@@ -26526,7 +26379,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1913</v>
+        <v>368</v>
       </c>
       <c r="B6" s="5">
         <v>10</v>
@@ -26540,7 +26393,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>1914</v>
+        <v>173</v>
       </c>
       <c r="B7" s="5">
         <v>10</v>
@@ -26554,7 +26407,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>1915</v>
+        <v>72</v>
       </c>
       <c r="B8" s="5">
         <v>10</v>
@@ -26568,7 +26421,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1916</v>
+        <v>182</v>
       </c>
       <c r="B9" s="5">
         <v>10</v>
@@ -26582,7 +26435,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1917</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5">
         <v>10</v>
@@ -26596,7 +26449,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1918</v>
+        <v>293</v>
       </c>
       <c r="B11" s="5">
         <v>10</v>
@@ -26610,7 +26463,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>1919</v>
+        <v>87</v>
       </c>
       <c r="B12" s="5">
         <v>10</v>
@@ -26624,7 +26477,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>1920</v>
+        <v>81</v>
       </c>
       <c r="B13" s="5">
         <v>10</v>
@@ -26638,7 +26491,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>1921</v>
+        <v>303</v>
       </c>
       <c r="B14" s="5">
         <v>10</v>
@@ -26652,7 +26505,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>1922</v>
+        <v>52</v>
       </c>
       <c r="B15" s="5">
         <v>10</v>
@@ -26666,7 +26519,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>1923</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -26680,7 +26533,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>1954</v>
+        <v>43</v>
       </c>
       <c r="B17" s="5">
         <v>10</v>
@@ -26694,7 +26547,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>1924</v>
+        <v>169</v>
       </c>
       <c r="B18" s="5">
         <v>10</v>
@@ -26708,7 +26561,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>1925</v>
+        <v>189</v>
       </c>
       <c r="B19" s="5">
         <v>10</v>
@@ -26722,7 +26575,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>1926</v>
+        <v>443</v>
       </c>
       <c r="B20" s="5">
         <v>10</v>
@@ -26736,7 +26589,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>1955</v>
+        <v>350</v>
       </c>
       <c r="B21" s="5">
         <v>10</v>
@@ -26750,7 +26603,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>1927</v>
+        <v>4</v>
       </c>
       <c r="B22" s="5">
         <v>10</v>
@@ -26764,7 +26617,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>1928</v>
+        <v>343</v>
       </c>
       <c r="B23" s="5">
         <v>10</v>
@@ -26778,7 +26631,7 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>1929</v>
+        <v>599</v>
       </c>
       <c r="B24" s="5">
         <v>10</v>
@@ -26792,7 +26645,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>1930</v>
+        <v>20</v>
       </c>
       <c r="B25" s="5">
         <v>10</v>
@@ -26806,7 +26659,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>1931</v>
+        <v>60</v>
       </c>
       <c r="B26" s="5">
         <v>10</v>
@@ -26820,7 +26673,7 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>1932</v>
+        <v>100</v>
       </c>
       <c r="B27" s="5">
         <v>10</v>
@@ -26834,7 +26687,7 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>1933</v>
+        <v>155</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -26848,7 +26701,7 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>1934</v>
+        <v>16</v>
       </c>
       <c r="B29" s="5">
         <v>10</v>
@@ -26862,7 +26715,7 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>1935</v>
+        <v>419</v>
       </c>
       <c r="B30" s="5">
         <v>10</v>
@@ -26876,7 +26729,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>1936</v>
+        <v>720</v>
       </c>
       <c r="B31" s="5">
         <v>10</v>
@@ -26890,7 +26743,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>1937</v>
+        <v>840</v>
       </c>
       <c r="B32" s="5">
         <v>10</v>
@@ -26904,7 +26757,7 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>1938</v>
+        <v>141</v>
       </c>
       <c r="B33" s="5">
         <v>10</v>
@@ -26918,7 +26771,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>1939</v>
+        <v>97</v>
       </c>
       <c r="B34" s="5">
         <v>10</v>
@@ -26932,7 +26785,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>1940</v>
+        <v>39</v>
       </c>
       <c r="B35" s="5">
         <v>10</v>
@@ -26946,7 +26799,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>1941</v>
+        <v>145</v>
       </c>
       <c r="B36" s="5">
         <v>10</v>
@@ -26960,7 +26813,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>1942</v>
+        <v>113</v>
       </c>
       <c r="B37" s="5">
         <v>10</v>
@@ -26974,7 +26827,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>1956</v>
+        <v>121</v>
       </c>
       <c r="B38" s="5">
         <v>10</v>
@@ -26988,7 +26841,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>1943</v>
+        <v>1916</v>
       </c>
       <c r="B39" s="5">
         <v>10</v>
@@ -27002,7 +26855,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>1944</v>
+        <v>726</v>
       </c>
       <c r="B40" s="5">
         <v>10</v>
@@ -27016,7 +26869,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>1945</v>
+        <v>223</v>
       </c>
       <c r="B41" s="5">
         <v>10</v>
@@ -27030,7 +26883,7 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>1946</v>
+        <v>117</v>
       </c>
       <c r="B42" s="5">
         <v>10</v>
@@ -27044,7 +26897,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>1947</v>
+        <v>165</v>
       </c>
       <c r="B43" s="5">
         <v>10</v>
@@ -27058,7 +26911,7 @@
     </row>
     <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>1948</v>
+        <v>77</v>
       </c>
       <c r="B44" s="5">
         <v>10</v>
@@ -27072,7 +26925,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>1949</v>
+        <v>254</v>
       </c>
       <c r="B45" s="5">
         <v>10</v>
@@ -27086,7 +26939,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>1957</v>
+        <v>1</v>
       </c>
       <c r="B46" s="5">
         <v>10</v>
@@ -27100,7 +26953,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>1950</v>
+        <v>6</v>
       </c>
       <c r="B47" s="5">
         <v>10</v>
@@ -27114,7 +26967,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>1951</v>
+        <v>386</v>
       </c>
       <c r="B48" s="5">
         <v>10</v>
@@ -27128,7 +26981,7 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>1952</v>
+        <v>35</v>
       </c>
       <c r="B49" s="5">
         <v>10</v>
@@ -27142,7 +26995,7 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>1953</v>
+        <v>226</v>
       </c>
       <c r="B50" s="5">
         <v>10</v>
@@ -27188,10 +27041,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1958</v>
+        <v>1908</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1959</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/loader_package/big_pre_load.xlsx
+++ b/src/loader_package/big_pre_load.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\java_project_desautel_pellen_perold\src\loader_package\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://poce-my.sharepoint.com/personal/charles_perold_edu_ece_fr/Documents/ING 3/Informatique - Java/_Projet Gui S5/_Projet GUI_Fork/java_project_desautel_pellen_perold/src/loader_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03CD7B1-1DBE-4ADD-850C-B0D3A5D792E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{98FF40E4-15C5-4A52-A284-CC7E93127EF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="27977" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elector" sheetId="1" r:id="rId1"/>
@@ -6140,21 +6140,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3828125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.15234375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1910</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>1914</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>1915</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>118</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>135</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>138</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>149</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>156</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>159</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>162</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>166</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>170</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>174</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>125</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>179</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>183</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>186</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>190</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>193</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>195</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>198</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>201</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>40</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>209</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>211</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>214</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>217</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>220</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>224</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>227</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>230</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>233</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>236</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>239</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>242</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>245</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>248</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>251</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>255</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>258</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>261</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>264</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>267</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>270</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>273</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>276</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>279</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>282</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>285</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>287</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>290</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>294</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>297</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>300</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>304</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>307</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>310</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>313</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>316</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>318</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>321</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>171</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>297</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>328</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>248</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>333</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>336</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>273</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>316</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>344</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>347</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>351</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>224</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>62</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>358</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>361</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>364</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>166</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>369</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>372</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>374</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>377</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>380</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>383</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>387</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>390</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>393</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>396</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>358</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>227</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>403</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>313</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>162</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>410</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>152</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>307</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>318</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>420</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>423</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>217</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>53</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>430</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>433</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>436</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>171</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>242</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>444</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>447</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>450</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>453</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>456</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>458</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>461</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>464</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>467</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>470</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>473</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>36</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>477</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>480</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>483</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>211</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>487</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>490</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>255</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>495</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>498</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>240</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>502</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>504</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>336</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>509</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>511</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>513</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>516</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>519</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>259</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>390</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>526</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>528</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>531</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>533</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>233</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>538</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>541</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>544</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>546</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>549</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>551</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>307</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>556</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>559</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>328</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>562</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>230</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>410</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>568</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>570</v>
       </c>
@@ -10014,7 +10014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>572</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>264</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>344</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>578</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>581</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>584</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>587</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>450</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>592</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>594</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>597</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>227</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>602</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>605</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>380</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>609</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>612</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>584</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>617</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>24</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>311</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>624</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>36</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>628</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>631</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>634</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>347</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>248</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>640</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>248</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>645</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>648</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>625</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>651</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>654</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>656</v>
       </c>
@@ -10734,7 +10734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>658</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>101</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>661</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>664</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>667</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>453</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>294</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>672</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>675</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>410</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>242</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>682</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>488</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>687</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>690</v>
       </c>
@@ -11034,7 +11034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>374</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>695</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>450</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>700</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>703</v>
       </c>
@@ -11134,7 +11134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>705</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>708</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>710</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>713</v>
       </c>
@@ -11214,7 +11214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>404</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>717</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>118</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
         <v>722</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
         <v>625</v>
       </c>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
         <v>403</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>467</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>372</v>
       </c>
@@ -11374,7 +11374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>733</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
         <v>433</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>736</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
         <v>739</v>
       </c>
@@ -11454,7 +11454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
         <v>403</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
         <v>743</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
         <v>251</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
         <v>748</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
         <v>750</v>
       </c>
@@ -11554,7 +11554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
         <v>753</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
         <v>755</v>
       </c>
@@ -11594,7 +11594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
         <v>758</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
         <v>562</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
         <v>313</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
         <v>193</v>
       </c>
@@ -11674,7 +11674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
         <v>767</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
         <v>770</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
         <v>426</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
         <v>775</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
         <v>778</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
         <v>377</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
         <v>423</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
         <v>784</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
         <v>786</v>
       </c>
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
         <v>568</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
         <v>790</v>
       </c>
@@ -11894,7 +11894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
         <v>793</v>
       </c>
@@ -11934,7 +11934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
         <v>333</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
         <v>135</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
         <v>797</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
         <v>648</v>
       </c>
@@ -12014,7 +12014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
         <v>802</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
         <v>311</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
         <v>806</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
         <v>658</v>
       </c>
@@ -12094,7 +12094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
         <v>534</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
         <v>812</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
         <v>138</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
         <v>157</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
         <v>661</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
         <v>743</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
         <v>819</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
         <v>822</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
         <v>825</v>
       </c>
@@ -12274,7 +12274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
         <v>827</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
         <v>830</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
         <v>832</v>
       </c>
@@ -12334,7 +12334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
         <v>835</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
         <v>687</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
         <v>625</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
         <v>843</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
         <v>846</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
         <v>848</v>
       </c>
@@ -12454,7 +12454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
         <v>851</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
         <v>854</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
         <v>857</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
         <v>860</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
         <v>862</v>
       </c>
@@ -12554,7 +12554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
         <v>157</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
         <v>865</v>
       </c>
@@ -12594,7 +12594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
         <v>868</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
         <v>667</v>
       </c>
@@ -12634,7 +12634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
         <v>538</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
         <v>251</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
         <v>865</v>
       </c>
@@ -12694,7 +12694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
         <v>877</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
         <v>282</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
         <v>439</v>
       </c>
@@ -12754,7 +12754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
         <v>220</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
         <v>294</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
         <v>885</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
         <v>304</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
         <v>889</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
         <v>450</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
         <v>893</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
         <v>708</v>
       </c>
@@ -12914,7 +12914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
         <v>572</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
         <v>899</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
         <v>854</v>
       </c>
@@ -12974,7 +12974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
         <v>903</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
         <v>905</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
         <v>907</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A345" t="s">
         <v>910</v>
       </c>
@@ -13054,7 +13054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A346" t="s">
         <v>913</v>
       </c>
@@ -13074,7 +13074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A347" t="s">
         <v>916</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A348" t="s">
         <v>918</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
         <v>843</v>
       </c>
@@ -13134,7 +13134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
         <v>770</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
         <v>594</v>
       </c>
@@ -13174,7 +13174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
         <v>924</v>
       </c>
@@ -13194,7 +13194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
         <v>584</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
         <v>628</v>
       </c>
@@ -13234,7 +13234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
         <v>572</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
         <v>932</v>
       </c>
@@ -13274,7 +13274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
         <v>152</v>
       </c>
@@ -13294,7 +13294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A358" t="s">
         <v>935</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
         <v>622</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
         <v>403</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
         <v>236</v>
       </c>
@@ -13374,7 +13374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
         <v>942</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
         <v>945</v>
       </c>
@@ -13414,7 +13414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A364" t="s">
         <v>170</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A365" t="s">
         <v>700</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A366" t="s">
         <v>733</v>
       </c>
@@ -13474,7 +13474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
         <v>954</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A368" t="s">
         <v>285</v>
       </c>
@@ -13514,7 +13514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A369" t="s">
         <v>959</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
         <v>69</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
         <v>964</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
         <v>174</v>
       </c>
@@ -13594,7 +13594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
         <v>458</v>
       </c>
@@ -13614,7 +13614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A374" t="s">
         <v>968</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A375" t="s">
         <v>664</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A376" t="s">
         <v>139</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A377" t="s">
         <v>973</v>
       </c>
@@ -13694,7 +13694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A378" t="s">
         <v>889</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A379" t="s">
         <v>198</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A380" t="s">
         <v>700</v>
       </c>
@@ -13754,7 +13754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A381" t="s">
         <v>851</v>
       </c>
@@ -13774,7 +13774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A382" t="s">
         <v>82</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A383" t="s">
         <v>982</v>
       </c>
@@ -13814,7 +13814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A384" t="s">
         <v>110</v>
       </c>
@@ -13834,7 +13834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A385" t="s">
         <v>748</v>
       </c>
@@ -13854,7 +13854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A386" t="s">
         <v>968</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A387" t="s">
         <v>893</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A388" t="s">
         <v>680</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A389" t="s">
         <v>994</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A390" t="s">
         <v>830</v>
       </c>
@@ -13954,7 +13954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A391" t="s">
         <v>410</v>
       </c>
@@ -13974,7 +13974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A392" t="s">
         <v>594</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A393" t="s">
         <v>737</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A394" t="s">
         <v>832</v>
       </c>
@@ -14034,7 +14034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A395" t="s">
         <v>634</v>
       </c>
@@ -14054,7 +14054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A396" t="s">
         <v>1005</v>
       </c>
@@ -14074,7 +14074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A397" t="s">
         <v>1008</v>
       </c>
@@ -14094,7 +14094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A398" t="s">
         <v>404</v>
       </c>
@@ -14114,7 +14114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A399" t="s">
         <v>1013</v>
       </c>
@@ -14134,7 +14134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A400" t="s">
         <v>825</v>
       </c>
@@ -14154,7 +14154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A401" t="s">
         <v>1017</v>
       </c>
@@ -14174,7 +14174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A402" t="s">
         <v>94</v>
       </c>
@@ -14194,7 +14194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A403" t="s">
         <v>994</v>
       </c>
@@ -14214,7 +14214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A404" t="s">
         <v>1024</v>
       </c>
@@ -14234,7 +14234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A405" t="s">
         <v>498</v>
       </c>
@@ -14254,7 +14254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A406" t="s">
         <v>264</v>
       </c>
@@ -14274,7 +14274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A407" t="s">
         <v>1028</v>
       </c>
@@ -14294,7 +14294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A408" t="s">
         <v>122</v>
       </c>
@@ -14314,7 +14314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A409" t="s">
         <v>1032</v>
       </c>
@@ -14334,7 +14334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A410" t="s">
         <v>201</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A411" t="s">
         <v>612</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A412" t="s">
         <v>1038</v>
       </c>
@@ -14394,7 +14394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A413" t="s">
         <v>1041</v>
       </c>
@@ -14414,7 +14414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A414" t="s">
         <v>924</v>
       </c>
@@ -14434,7 +14434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A415" t="s">
         <v>1045</v>
       </c>
@@ -14454,7 +14454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A416" t="s">
         <v>942</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A417" t="s">
         <v>687</v>
       </c>
@@ -14494,7 +14494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A418" t="s">
         <v>786</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A419" t="s">
         <v>387</v>
       </c>
@@ -14534,7 +14534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A420" t="s">
         <v>935</v>
       </c>
@@ -14554,7 +14554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A421" t="s">
         <v>819</v>
       </c>
@@ -14574,7 +14574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A422" t="s">
         <v>1056</v>
       </c>
@@ -14594,7 +14594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A423" t="s">
         <v>307</v>
       </c>
@@ -14614,7 +14614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A424" t="s">
         <v>396</v>
       </c>
@@ -14634,7 +14634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A425" t="s">
         <v>347</v>
       </c>
@@ -14654,7 +14654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A426" t="s">
         <v>1063</v>
       </c>
@@ -14674,7 +14674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A427" t="s">
         <v>1064</v>
       </c>
@@ -14694,7 +14694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A428" t="s">
         <v>487</v>
       </c>
@@ -14714,7 +14714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A429" t="s">
         <v>1067</v>
       </c>
@@ -14734,7 +14734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A430" t="s">
         <v>1070</v>
       </c>
@@ -14754,7 +14754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A431" t="s">
         <v>640</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A432" t="s">
         <v>347</v>
       </c>
@@ -14794,7 +14794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A433" t="s">
         <v>651</v>
       </c>
@@ -14814,7 +14814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A434" t="s">
         <v>1075</v>
       </c>
@@ -14834,7 +14834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A435" t="s">
         <v>843</v>
       </c>
@@ -14854,7 +14854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A436" t="s">
         <v>220</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A437" t="s">
         <v>1013</v>
       </c>
@@ -14894,7 +14894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A438" t="s">
         <v>495</v>
       </c>
@@ -14914,7 +14914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A439" t="s">
         <v>1086</v>
       </c>
@@ -14934,7 +14934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A440" t="s">
         <v>488</v>
       </c>
@@ -14954,7 +14954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A441" t="s">
         <v>742</v>
       </c>
@@ -14974,7 +14974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A442" t="s">
         <v>364</v>
       </c>
@@ -14994,7 +14994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A443" t="s">
         <v>854</v>
       </c>
@@ -15014,7 +15014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A444" t="s">
         <v>1094</v>
       </c>
@@ -15034,7 +15034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A445" t="s">
         <v>368</v>
       </c>
@@ -15054,7 +15054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A446" t="s">
         <v>1097</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A447" t="s">
         <v>822</v>
       </c>
@@ -15094,7 +15094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A448" t="s">
         <v>865</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A449" t="s">
         <v>830</v>
       </c>
@@ -15134,7 +15134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A450" t="s">
         <v>1103</v>
       </c>
@@ -15154,7 +15154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A451" t="s">
         <v>634</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A452" t="s">
         <v>1107</v>
       </c>
@@ -15194,7 +15194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A453" t="s">
         <v>755</v>
       </c>
@@ -15214,7 +15214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A454" t="s">
         <v>304</v>
       </c>
@@ -15234,7 +15234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A455" t="s">
         <v>1114</v>
       </c>
@@ -15254,7 +15254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A456" t="s">
         <v>195</v>
       </c>
@@ -15274,7 +15274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A457" t="s">
         <v>224</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A458" t="s">
         <v>1120</v>
       </c>
@@ -15314,7 +15314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A459" t="s">
         <v>236</v>
       </c>
@@ -15334,7 +15334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A460" t="s">
         <v>624</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A461" t="s">
         <v>717</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A462" t="s">
         <v>1032</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A463" t="s">
         <v>1127</v>
       </c>
@@ -15414,7 +15414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A464" t="s">
         <v>964</v>
       </c>
@@ -15434,7 +15434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A465" t="s">
         <v>1131</v>
       </c>
@@ -15454,7 +15454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A466" t="s">
         <v>1134</v>
       </c>
@@ -15474,7 +15474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A467" t="s">
         <v>195</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A468" t="s">
         <v>1138</v>
       </c>
@@ -15514,7 +15514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A469" t="s">
         <v>1140</v>
       </c>
@@ -15534,7 +15534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A470" t="s">
         <v>328</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A471" t="s">
         <v>802</v>
       </c>
@@ -15574,7 +15574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A472" t="s">
         <v>594</v>
       </c>
@@ -15594,7 +15594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A473" t="s">
         <v>364</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A474" t="s">
         <v>1146</v>
       </c>
@@ -15634,7 +15634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A475" t="s">
         <v>634</v>
       </c>
@@ -15654,7 +15654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A476" t="s">
         <v>209</v>
       </c>
@@ -15674,7 +15674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A477" t="s">
         <v>114</v>
       </c>
@@ -15694,7 +15694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A478" t="s">
         <v>344</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A479" t="s">
         <v>32</v>
       </c>
@@ -15734,7 +15734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A480" t="s">
         <v>114</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A481" t="s">
         <v>705</v>
       </c>
@@ -15774,7 +15774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A482" t="s">
         <v>102</v>
       </c>
@@ -15794,7 +15794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A483" t="s">
         <v>1157</v>
       </c>
@@ -15814,7 +15814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A484" t="s">
         <v>40</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A485" t="s">
         <v>1070</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A486" t="s">
         <v>1163</v>
       </c>
@@ -15874,7 +15874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A487" t="s">
         <v>159</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A488" t="s">
         <v>695</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A489" t="s">
         <v>313</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A490" t="s">
         <v>982</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A491" t="s">
         <v>1171</v>
       </c>
@@ -15974,7 +15974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A492" t="s">
         <v>171</v>
       </c>
@@ -15994,7 +15994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A493" t="s">
         <v>631</v>
       </c>
@@ -16014,7 +16014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A494" t="s">
         <v>1176</v>
       </c>
@@ -16034,7 +16034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A495" t="s">
         <v>201</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A496" t="s">
         <v>905</v>
       </c>
@@ -16074,7 +16074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A497" t="s">
         <v>793</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A498" t="s">
         <v>204</v>
       </c>
@@ -16114,7 +16114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A499" t="s">
         <v>822</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A500" t="s">
         <v>1134</v>
       </c>
@@ -16154,7 +16154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A501" t="s">
         <v>1188</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A502" t="s">
         <v>361</v>
       </c>
@@ -16194,7 +16194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A503" t="s">
         <v>1190</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A504" t="s">
         <v>1192</v>
       </c>
@@ -16234,7 +16234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A505" t="s">
         <v>851</v>
       </c>
@@ -16254,7 +16254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A506" t="s">
         <v>285</v>
       </c>
@@ -16274,7 +16274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A507" t="s">
         <v>846</v>
       </c>
@@ -16294,7 +16294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A508" t="s">
         <v>1199</v>
       </c>
@@ -16314,7 +16314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A509" t="s">
         <v>1201</v>
       </c>
@@ -16334,7 +16334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A510" t="s">
         <v>1041</v>
       </c>
@@ -16354,7 +16354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A511" t="s">
         <v>307</v>
       </c>
@@ -16374,7 +16374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A512" t="s">
         <v>131</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A513" t="s">
         <v>1208</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A514" t="s">
         <v>581</v>
       </c>
@@ -16434,7 +16434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A515" t="s">
         <v>572</v>
       </c>
@@ -16454,7 +16454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A516" t="s">
         <v>1214</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A517" t="s">
         <v>270</v>
       </c>
@@ -16494,7 +16494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A518" t="s">
         <v>936</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A519" t="s">
         <v>1038</v>
       </c>
@@ -16534,7 +16534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A520" t="s">
         <v>703</v>
       </c>
@@ -16554,7 +16554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A521" t="s">
         <v>1219</v>
       </c>
@@ -16574,7 +16574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A522" t="s">
         <v>82</v>
       </c>
@@ -16594,7 +16594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A523" t="s">
         <v>526</v>
       </c>
@@ -16614,7 +16614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A524" t="s">
         <v>122</v>
       </c>
@@ -16634,7 +16634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A525" t="s">
         <v>713</v>
       </c>
@@ -16654,7 +16654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A526" t="s">
         <v>1227</v>
       </c>
@@ -16674,7 +16674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A527" t="s">
         <v>551</v>
       </c>
@@ -16694,7 +16694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A528" t="s">
         <v>1134</v>
       </c>
@@ -16714,7 +16714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A529" t="s">
         <v>703</v>
       </c>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A530" t="s">
         <v>753</v>
       </c>
@@ -16754,7 +16754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A531" t="s">
         <v>1235</v>
       </c>
@@ -16774,7 +16774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A532" t="s">
         <v>1238</v>
       </c>
@@ -16794,7 +16794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A533" t="s">
         <v>1240</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A534" t="s">
         <v>1242</v>
       </c>
@@ -16834,7 +16834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A535" t="s">
         <v>1244</v>
       </c>
@@ -16854,7 +16854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A536" t="s">
         <v>1247</v>
       </c>
@@ -16874,7 +16874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A537" t="s">
         <v>570</v>
       </c>
@@ -16894,7 +16894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A538" t="s">
         <v>812</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A539" t="s">
         <v>1075</v>
       </c>
@@ -16934,7 +16934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A540" t="s">
         <v>1251</v>
       </c>
@@ -16954,7 +16954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A541" t="s">
         <v>1120</v>
       </c>
@@ -16974,7 +16974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A542" t="s">
         <v>387</v>
       </c>
@@ -16994,7 +16994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A543" t="s">
         <v>495</v>
       </c>
@@ -17014,7 +17014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A544" t="s">
         <v>1259</v>
       </c>
@@ -17034,7 +17034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A545" t="s">
         <v>444</v>
       </c>
@@ -17054,7 +17054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A546" t="s">
         <v>1086</v>
       </c>
@@ -17074,7 +17074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A547" t="s">
         <v>1265</v>
       </c>
@@ -17094,7 +17094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A548" t="s">
         <v>171</v>
       </c>
@@ -17114,7 +17114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A549" t="s">
         <v>473</v>
       </c>
@@ -17134,7 +17134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A550" t="s">
         <v>1269</v>
       </c>
@@ -17154,7 +17154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A551" t="s">
         <v>790</v>
       </c>
@@ -17174,7 +17174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A552" t="s">
         <v>488</v>
       </c>
@@ -17194,7 +17194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A553" t="s">
         <v>118</v>
       </c>
@@ -17214,7 +17214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A554" t="s">
         <v>959</v>
       </c>
@@ -17234,7 +17234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A555" t="s">
         <v>193</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A556" t="s">
         <v>28</v>
       </c>
@@ -17274,7 +17274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A557" t="s">
         <v>1283</v>
       </c>
@@ -17294,7 +17294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A558" t="s">
         <v>1286</v>
       </c>
@@ -17314,7 +17314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A559" t="s">
         <v>368</v>
       </c>
@@ -17334,7 +17334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A560" t="s">
         <v>1289</v>
       </c>
@@ -17354,7 +17354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A561" t="s">
         <v>739</v>
       </c>
@@ -17374,7 +17374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A562" t="s">
         <v>1204</v>
       </c>
@@ -17394,7 +17394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A563" t="s">
         <v>290</v>
       </c>
@@ -17414,7 +17414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A564" t="s">
         <v>1295</v>
       </c>
@@ -17434,7 +17434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A565" t="s">
         <v>358</v>
       </c>
@@ -17454,7 +17454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A566" t="s">
         <v>1298</v>
       </c>
@@ -17474,7 +17474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A567" t="s">
         <v>118</v>
       </c>
@@ -17494,7 +17494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A568" t="s">
         <v>420</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A569" t="s">
         <v>654</v>
       </c>
@@ -17534,7 +17534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A570" t="s">
         <v>959</v>
       </c>
@@ -17554,7 +17554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A571" t="s">
         <v>1144</v>
       </c>
@@ -17574,7 +17574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A572" t="s">
         <v>1308</v>
       </c>
@@ -17594,7 +17594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A573" t="s">
         <v>477</v>
       </c>
@@ -17614,7 +17614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A574" t="s">
         <v>713</v>
       </c>
@@ -17634,7 +17634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A575" t="s">
         <v>822</v>
       </c>
@@ -17654,7 +17654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A576" t="s">
         <v>1314</v>
       </c>
@@ -17674,7 +17674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A577" t="s">
         <v>1316</v>
       </c>
@@ -17694,7 +17694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A578" t="s">
         <v>157</v>
       </c>
@@ -17714,7 +17714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A579" t="s">
         <v>1319</v>
       </c>
@@ -17734,7 +17734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A580" t="s">
         <v>430</v>
       </c>
@@ -17754,7 +17754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A581" t="s">
         <v>1286</v>
       </c>
@@ -17774,7 +17774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A582" t="s">
         <v>1289</v>
       </c>
@@ -17794,7 +17794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A583" t="s">
         <v>488</v>
       </c>
@@ -17814,7 +17814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A584" t="s">
         <v>1327</v>
       </c>
@@ -17834,7 +17834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A585" t="s">
         <v>1330</v>
       </c>
@@ -17854,7 +17854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A586" t="s">
         <v>526</v>
       </c>
@@ -17874,7 +17874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A587" t="s">
         <v>36</v>
       </c>
@@ -17894,7 +17894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A588" t="s">
         <v>242</v>
       </c>
@@ -17914,7 +17914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A589" t="s">
         <v>713</v>
       </c>
@@ -17934,7 +17934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A590" t="s">
         <v>159</v>
       </c>
@@ -17954,7 +17954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A591" t="s">
         <v>1339</v>
       </c>
@@ -17974,7 +17974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A592" t="s">
         <v>1265</v>
       </c>
@@ -17994,7 +17994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A593" t="s">
         <v>1342</v>
       </c>
@@ -18014,7 +18014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A594" t="s">
         <v>1344</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A595" t="s">
         <v>1103</v>
       </c>
@@ -18054,7 +18054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A596" t="s">
         <v>1235</v>
       </c>
@@ -18074,7 +18074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A597" t="s">
         <v>1349</v>
       </c>
@@ -18094,7 +18094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A598" t="s">
         <v>1351</v>
       </c>
@@ -18114,7 +18114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A599" t="s">
         <v>1353</v>
       </c>
@@ -18134,7 +18134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A600" t="s">
         <v>848</v>
       </c>
@@ -18154,7 +18154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A601" t="s">
         <v>344</v>
       </c>
@@ -18174,7 +18174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A602" t="s">
         <v>1358</v>
       </c>
@@ -18194,7 +18194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A603" t="s">
         <v>61</v>
       </c>
@@ -18214,7 +18214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A604" t="s">
         <v>893</v>
       </c>
@@ -18234,7 +18234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A605" t="s">
         <v>1363</v>
       </c>
@@ -18254,7 +18254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A606" t="s">
         <v>899</v>
       </c>
@@ -18274,7 +18274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A607" t="s">
         <v>183</v>
       </c>
@@ -18294,7 +18294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A608" t="s">
         <v>1367</v>
       </c>
@@ -18314,7 +18314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A609" t="s">
         <v>1370</v>
       </c>
@@ -18334,7 +18334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A610" t="s">
         <v>1286</v>
       </c>
@@ -18354,7 +18354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A611" t="s">
         <v>1374</v>
       </c>
@@ -18374,7 +18374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A612" t="s">
         <v>1375</v>
       </c>
@@ -18394,7 +18394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A613" t="s">
         <v>549</v>
       </c>
@@ -18414,7 +18414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A614" t="s">
         <v>473</v>
       </c>
@@ -18434,7 +18434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A615" t="s">
         <v>1381</v>
       </c>
@@ -18454,7 +18454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A616" t="s">
         <v>1251</v>
       </c>
@@ -18474,7 +18474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A617" t="s">
         <v>889</v>
       </c>
@@ -18494,7 +18494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A618" t="s">
         <v>899</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A619" t="s">
         <v>82</v>
       </c>
@@ -18534,7 +18534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A620" t="s">
         <v>1388</v>
       </c>
@@ -18554,7 +18554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A621" t="s">
         <v>710</v>
       </c>
@@ -18574,7 +18574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A622" t="s">
         <v>514</v>
       </c>
@@ -18594,7 +18594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A623" t="s">
         <v>316</v>
       </c>
@@ -18614,7 +18614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A624" t="s">
         <v>1392</v>
       </c>
@@ -18634,7 +18634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A625" t="s">
         <v>1394</v>
       </c>
@@ -18654,7 +18654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A626" t="s">
         <v>1397</v>
       </c>
@@ -18674,7 +18674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A627" t="s">
         <v>40</v>
       </c>
@@ -18694,7 +18694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A628" t="s">
         <v>1351</v>
       </c>
@@ -18714,7 +18714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A629" t="s">
         <v>682</v>
       </c>
@@ -18734,7 +18734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A630" t="s">
         <v>1402</v>
       </c>
@@ -18754,7 +18754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A631" t="s">
         <v>32</v>
       </c>
@@ -18774,7 +18774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A632" t="s">
         <v>122</v>
       </c>
@@ -18794,7 +18794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A633" t="s">
         <v>439</v>
       </c>
@@ -18814,7 +18814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A634" t="s">
         <v>1208</v>
       </c>
@@ -18834,7 +18834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A635" t="s">
         <v>1351</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A636" t="s">
         <v>17</v>
       </c>
@@ -18874,7 +18874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A637" t="s">
         <v>390</v>
       </c>
@@ -18894,7 +18894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A638" t="s">
         <v>331</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A639" t="s">
         <v>102</v>
       </c>
@@ -18934,7 +18934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A640" t="s">
         <v>1064</v>
       </c>
@@ -18954,7 +18954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A641" t="s">
         <v>1416</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A642" t="s">
         <v>1418</v>
       </c>
@@ -18994,7 +18994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A643" t="s">
         <v>1421</v>
       </c>
@@ -19014,7 +19014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A644" t="s">
         <v>708</v>
       </c>
@@ -19034,7 +19034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A645" t="s">
         <v>551</v>
       </c>
@@ -19054,7 +19054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A646" t="s">
         <v>551</v>
       </c>
@@ -19074,7 +19074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A647" t="s">
         <v>380</v>
       </c>
@@ -19094,7 +19094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A648" t="s">
         <v>24</v>
       </c>
@@ -19114,7 +19114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A649" t="s">
         <v>236</v>
       </c>
@@ -19134,7 +19134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A650" t="s">
         <v>1045</v>
       </c>
@@ -19154,7 +19154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A651" t="s">
         <v>1432</v>
       </c>
@@ -19174,7 +19174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A652" t="s">
         <v>1433</v>
       </c>
@@ -19194,7 +19194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A653" t="s">
         <v>1434</v>
       </c>
@@ -19214,7 +19214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A654" t="s">
         <v>1190</v>
       </c>
@@ -19234,7 +19234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A655" t="s">
         <v>1436</v>
       </c>
@@ -19254,7 +19254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A656" t="s">
         <v>1438</v>
       </c>
@@ -19274,7 +19274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A657" t="s">
         <v>372</v>
       </c>
@@ -19294,7 +19294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A658" t="s">
         <v>78</v>
       </c>
@@ -19314,7 +19314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A659" t="s">
         <v>903</v>
       </c>
@@ -19334,7 +19334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A660" t="s">
         <v>94</v>
       </c>
@@ -19354,7 +19354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A661" t="s">
         <v>211</v>
       </c>
@@ -19374,7 +19374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A662" t="s">
         <v>885</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A663" t="s">
         <v>377</v>
       </c>
@@ -19414,7 +19414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A664" t="s">
         <v>1064</v>
       </c>
@@ -19434,7 +19434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A665" t="s">
         <v>901</v>
       </c>
@@ -19454,7 +19454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A666" t="s">
         <v>1454</v>
       </c>
@@ -19474,7 +19474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A667" t="s">
         <v>297</v>
       </c>
@@ -19494,7 +19494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A668" t="s">
         <v>1457</v>
       </c>
@@ -19514,7 +19514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A669" t="s">
         <v>146</v>
       </c>
@@ -19534,7 +19534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A670" t="s">
         <v>1460</v>
       </c>
@@ -19554,7 +19554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A671" t="s">
         <v>584</v>
       </c>
@@ -19574,7 +19574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A672" t="s">
         <v>377</v>
       </c>
@@ -19594,7 +19594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A673" t="s">
         <v>1438</v>
       </c>
@@ -19614,7 +19614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A674" t="s">
         <v>1468</v>
       </c>
@@ -19634,7 +19634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A675" t="s">
         <v>21</v>
       </c>
@@ -19654,7 +19654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A676" t="s">
         <v>1473</v>
       </c>
@@ -19674,7 +19674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A677" t="s">
         <v>1475</v>
       </c>
@@ -19694,7 +19694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A678" t="s">
         <v>1476</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A679" t="s">
         <v>1478</v>
       </c>
@@ -19734,7 +19734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A680" t="s">
         <v>935</v>
       </c>
@@ -19754,7 +19754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A681" t="s">
         <v>1358</v>
       </c>
@@ -19774,7 +19774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A682" t="s">
         <v>710</v>
       </c>
@@ -19794,7 +19794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A683" t="s">
         <v>1485</v>
       </c>
@@ -19814,7 +19814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A684" t="s">
         <v>201</v>
       </c>
@@ -19834,7 +19834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A685" t="s">
         <v>1432</v>
       </c>
@@ -19854,7 +19854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A686" t="s">
         <v>1242</v>
       </c>
@@ -19874,7 +19874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A687" t="s">
         <v>578</v>
       </c>
@@ -19894,7 +19894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A688" t="s">
         <v>691</v>
       </c>
@@ -19914,7 +19914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A689" t="s">
         <v>549</v>
       </c>
@@ -19934,7 +19934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A690" t="s">
         <v>1496</v>
       </c>
@@ -19954,7 +19954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A691" t="s">
         <v>1499</v>
       </c>
@@ -19974,7 +19974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A692" t="s">
         <v>514</v>
       </c>
@@ -19994,7 +19994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A693" t="s">
         <v>743</v>
       </c>
@@ -20014,7 +20014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A694" t="s">
         <v>672</v>
       </c>
@@ -20034,7 +20034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A695" t="s">
         <v>587</v>
       </c>
@@ -20054,7 +20054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A696" t="s">
         <v>128</v>
       </c>
@@ -20074,7 +20074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A697" t="s">
         <v>1103</v>
       </c>
@@ -20094,7 +20094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A698" t="s">
         <v>1140</v>
       </c>
@@ -20114,7 +20114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A699" t="s">
         <v>1064</v>
       </c>
@@ -20134,7 +20134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A700" t="s">
         <v>1512</v>
       </c>
@@ -20154,7 +20154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A701" t="s">
         <v>1460</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A702" t="s">
         <v>251</v>
       </c>
@@ -20194,7 +20194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A703" t="s">
         <v>1005</v>
       </c>
@@ -20214,7 +20214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A704" t="s">
         <v>290</v>
       </c>
@@ -20234,7 +20234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A705" t="s">
         <v>1521</v>
       </c>
@@ -20254,7 +20254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A706" t="s">
         <v>233</v>
       </c>
@@ -20274,7 +20274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A707" t="s">
         <v>1397</v>
       </c>
@@ -20294,7 +20294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A708" t="s">
         <v>1526</v>
       </c>
@@ -20314,7 +20314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A709" t="s">
         <v>1529</v>
       </c>
@@ -20334,7 +20334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A710" t="s">
         <v>903</v>
       </c>
@@ -20354,7 +20354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A711" t="s">
         <v>259</v>
       </c>
@@ -20374,7 +20374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A712" t="s">
         <v>654</v>
       </c>
@@ -20394,7 +20394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A713" t="s">
         <v>21</v>
       </c>
@@ -20414,7 +20414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A714" t="s">
         <v>761</v>
       </c>
@@ -20434,7 +20434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A715" t="s">
         <v>793</v>
       </c>
@@ -20454,7 +20454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A716" t="s">
         <v>183</v>
       </c>
@@ -20474,7 +20474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A717" t="s">
         <v>159</v>
       </c>
@@ -20494,7 +20494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A718" t="s">
         <v>865</v>
       </c>
@@ -20514,7 +20514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A719" t="s">
         <v>138</v>
       </c>
@@ -20534,7 +20534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A720" t="s">
         <v>149</v>
       </c>
@@ -20554,7 +20554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A721" t="s">
         <v>531</v>
       </c>
@@ -20574,7 +20574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A722" t="s">
         <v>372</v>
       </c>
@@ -20594,7 +20594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A723" t="s">
         <v>171</v>
       </c>
@@ -20614,7 +20614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A724" t="s">
         <v>1316</v>
       </c>
@@ -20634,7 +20634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A725" t="s">
         <v>110</v>
       </c>
@@ -20654,7 +20654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A726" t="s">
         <v>1269</v>
       </c>
@@ -20674,7 +20674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A727" t="s">
         <v>1134</v>
       </c>
@@ -20694,7 +20694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A728" t="s">
         <v>685</v>
       </c>
@@ -20714,7 +20714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A729" t="s">
         <v>1442</v>
       </c>
@@ -20734,7 +20734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A730" t="s">
         <v>1265</v>
       </c>
@@ -20754,7 +20754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A731" t="s">
         <v>13</v>
       </c>
@@ -20774,7 +20774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A732" t="s">
         <v>1558</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A733" t="s">
         <v>186</v>
       </c>
@@ -20814,7 +20814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A734" t="s">
         <v>1005</v>
       </c>
@@ -20834,7 +20834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A735" t="s">
         <v>1563</v>
       </c>
@@ -20854,7 +20854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A736" t="s">
         <v>1160</v>
       </c>
@@ -20874,7 +20874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A737" t="s">
         <v>913</v>
       </c>
@@ -20894,7 +20894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A738" t="s">
         <v>128</v>
       </c>
@@ -20914,7 +20914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A739" t="s">
         <v>430</v>
       </c>
@@ -20934,7 +20934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A740" t="s">
         <v>905</v>
       </c>
@@ -20954,7 +20954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A741" t="s">
         <v>1572</v>
       </c>
@@ -20974,7 +20974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A742" t="s">
         <v>102</v>
       </c>
@@ -20994,7 +20994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A743" t="s">
         <v>78</v>
       </c>
@@ -21014,7 +21014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A744" t="s">
         <v>1578</v>
       </c>
@@ -21034,7 +21034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A745" t="s">
         <v>387</v>
       </c>
@@ -21054,7 +21054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A746" t="s">
         <v>1578</v>
       </c>
@@ -21074,7 +21074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A747" t="s">
         <v>1107</v>
       </c>
@@ -21094,7 +21094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A748" t="s">
         <v>294</v>
       </c>
@@ -21114,7 +21114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A749" t="s">
         <v>528</v>
       </c>
@@ -21134,7 +21134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A750" t="s">
         <v>453</v>
       </c>
@@ -21154,7 +21154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A751" t="s">
         <v>1067</v>
       </c>
@@ -21174,7 +21174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A752" t="s">
         <v>710</v>
       </c>
@@ -21194,7 +21194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A753" t="s">
         <v>1590</v>
       </c>
@@ -21214,7 +21214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A754" t="s">
         <v>1242</v>
       </c>
@@ -21234,7 +21234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A755" t="s">
         <v>534</v>
       </c>
@@ -21254,7 +21254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A756" t="s">
         <v>806</v>
       </c>
@@ -21274,7 +21274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A757" t="s">
         <v>1594</v>
       </c>
@@ -21294,7 +21294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A758" t="s">
         <v>905</v>
       </c>
@@ -21314,7 +21314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A759" t="s">
         <v>672</v>
       </c>
@@ -21334,7 +21334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A760" t="s">
         <v>568</v>
       </c>
@@ -21354,7 +21354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A761" t="s">
         <v>705</v>
       </c>
@@ -21374,7 +21374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A762" t="s">
         <v>1601</v>
       </c>
@@ -21394,7 +21394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A763" t="s">
         <v>351</v>
       </c>
@@ -21414,7 +21414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A764" t="s">
         <v>685</v>
       </c>
@@ -21434,7 +21434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A765" t="s">
         <v>885</v>
       </c>
@@ -21454,7 +21454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A766" t="s">
         <v>703</v>
       </c>
@@ -21474,7 +21474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A767" t="s">
         <v>1608</v>
       </c>
@@ -21494,7 +21494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A768" t="s">
         <v>1140</v>
       </c>
@@ -21514,7 +21514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A769" t="s">
         <v>680</v>
       </c>
@@ -21534,7 +21534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A770" t="s">
         <v>1614</v>
       </c>
@@ -21554,7 +21554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A771" t="s">
         <v>156</v>
       </c>
@@ -21574,7 +21574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A772" t="s">
         <v>733</v>
       </c>
@@ -21594,7 +21594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A773" t="s">
         <v>1381</v>
       </c>
@@ -21614,7 +21614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A774" t="s">
         <v>61</v>
       </c>
@@ -21634,7 +21634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A775" t="s">
         <v>592</v>
       </c>
@@ -21654,7 +21654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A776" t="s">
         <v>1468</v>
       </c>
@@ -21674,7 +21674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A777" t="s">
         <v>61</v>
       </c>
@@ -21694,7 +21694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A778" t="s">
         <v>300</v>
       </c>
@@ -21714,7 +21714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A779" t="s">
         <v>1209</v>
       </c>
@@ -21734,7 +21734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A780" t="s">
         <v>1629</v>
       </c>
@@ -21754,7 +21754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A781" t="s">
         <v>869</v>
       </c>
@@ -21774,7 +21774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A782" t="s">
         <v>1594</v>
       </c>
@@ -21794,7 +21794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A783" t="s">
         <v>201</v>
       </c>
@@ -21814,7 +21814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A784" t="s">
         <v>321</v>
       </c>
@@ -21834,7 +21834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A785" t="s">
         <v>1201</v>
       </c>
@@ -21854,7 +21854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A786" t="s">
         <v>916</v>
       </c>
@@ -21874,7 +21874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A787" t="s">
         <v>913</v>
       </c>
@@ -21894,7 +21894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A788" t="s">
         <v>21</v>
       </c>
@@ -21914,7 +21914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A789" t="s">
         <v>1640</v>
       </c>
@@ -21934,7 +21934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A790" t="s">
         <v>1563</v>
       </c>
@@ -21954,7 +21954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A791" t="s">
         <v>761</v>
       </c>
@@ -21974,7 +21974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A792" t="s">
         <v>793</v>
       </c>
@@ -21994,7 +21994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A793" t="s">
         <v>1473</v>
       </c>
@@ -22014,7 +22014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A794" t="s">
         <v>713</v>
       </c>
@@ -22034,7 +22034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A795" t="s">
         <v>1649</v>
       </c>
@@ -22054,7 +22054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A796" t="s">
         <v>1652</v>
       </c>
@@ -22074,7 +22074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A797" t="s">
         <v>1045</v>
       </c>
@@ -22094,7 +22094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A798" t="s">
         <v>1418</v>
       </c>
@@ -22114,7 +22114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A799" t="s">
         <v>21</v>
       </c>
@@ -22134,7 +22134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A800" t="s">
         <v>190</v>
       </c>
@@ -22154,7 +22154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A801" t="s">
         <v>1658</v>
       </c>
@@ -22174,7 +22174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A802" t="s">
         <v>347</v>
       </c>
@@ -22194,7 +22194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A803" t="s">
         <v>786</v>
       </c>
@@ -22214,7 +22214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A804" t="s">
         <v>1661</v>
       </c>
@@ -22234,7 +22234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A805" t="s">
         <v>236</v>
       </c>
@@ -22254,7 +22254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A806" t="s">
         <v>1214</v>
       </c>
@@ -22274,7 +22274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A807" t="s">
         <v>1666</v>
       </c>
@@ -22294,7 +22294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A808" t="s">
         <v>358</v>
       </c>
@@ -22314,7 +22314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A809" t="s">
         <v>1669</v>
       </c>
@@ -22334,7 +22334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A810" t="s">
         <v>128</v>
       </c>
@@ -22354,7 +22354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A811" t="s">
         <v>806</v>
       </c>
@@ -22374,7 +22374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A812" t="s">
         <v>848</v>
       </c>
@@ -22394,7 +22394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A813" t="s">
         <v>433</v>
       </c>
@@ -22414,7 +22414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A814" t="s">
         <v>690</v>
       </c>
@@ -22434,7 +22434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A815" t="s">
         <v>656</v>
       </c>
@@ -22454,7 +22454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A816" t="s">
         <v>1674</v>
       </c>
@@ -22474,7 +22474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A817" t="s">
         <v>307</v>
       </c>
@@ -22494,7 +22494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A818" t="s">
         <v>453</v>
       </c>
@@ -22514,7 +22514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A819" t="s">
         <v>1190</v>
       </c>
@@ -22534,7 +22534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A820" t="s">
         <v>179</v>
       </c>
@@ -22554,7 +22554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A821" t="s">
         <v>651</v>
       </c>
@@ -22574,7 +22574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A822" t="s">
         <v>568</v>
       </c>
@@ -22594,7 +22594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A823" t="s">
         <v>1680</v>
       </c>
@@ -22614,7 +22614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A824" t="s">
         <v>1682</v>
       </c>
@@ -22634,7 +22634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A825" t="s">
         <v>458</v>
       </c>
@@ -22654,7 +22654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A826" t="s">
         <v>1103</v>
       </c>
@@ -22674,7 +22674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A827" t="s">
         <v>364</v>
       </c>
@@ -22694,7 +22694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A828" t="s">
         <v>843</v>
       </c>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A829" t="s">
         <v>531</v>
       </c>
@@ -22734,7 +22734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A830" t="s">
         <v>717</v>
       </c>
@@ -22754,7 +22754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A831" t="s">
         <v>1127</v>
       </c>
@@ -22774,7 +22774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A832" t="s">
         <v>1363</v>
       </c>
@@ -22794,7 +22794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A833" t="s">
         <v>1375</v>
       </c>
@@ -22814,7 +22814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A834" t="s">
         <v>1295</v>
       </c>
@@ -22834,7 +22834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A835" t="s">
         <v>982</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A836" t="s">
         <v>1131</v>
       </c>
@@ -22874,7 +22874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A837" t="s">
         <v>245</v>
       </c>
@@ -22894,7 +22894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A838" t="s">
         <v>1702</v>
       </c>
@@ -22914,7 +22914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A839" t="s">
         <v>936</v>
       </c>
@@ -22934,7 +22934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A840" t="s">
         <v>973</v>
       </c>
@@ -22954,7 +22954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A841" t="s">
         <v>945</v>
       </c>
@@ -22974,7 +22974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A842" t="s">
         <v>786</v>
       </c>
@@ -22994,7 +22994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A843" t="s">
         <v>713</v>
       </c>
@@ -23014,7 +23014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A844" t="s">
         <v>265</v>
       </c>
@@ -23034,7 +23034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A845" t="s">
         <v>533</v>
       </c>
@@ -23054,7 +23054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A846" t="s">
         <v>1226</v>
       </c>
@@ -23074,7 +23074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A847" t="s">
         <v>1146</v>
       </c>
@@ -23094,7 +23094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A848" t="s">
         <v>1711</v>
       </c>
@@ -23114,7 +23114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A849" t="s">
         <v>1521</v>
       </c>
@@ -23134,7 +23134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A850" t="s">
         <v>1024</v>
       </c>
@@ -23154,7 +23154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A851" t="s">
         <v>594</v>
       </c>
@@ -23174,7 +23174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A852" t="s">
         <v>1674</v>
       </c>
@@ -23194,7 +23194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A853" t="s">
         <v>1418</v>
       </c>
@@ -23214,7 +23214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A854" t="s">
         <v>179</v>
       </c>
@@ -23234,7 +23234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A855" t="s">
         <v>458</v>
       </c>
@@ -23254,7 +23254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A856" t="s">
         <v>487</v>
       </c>
@@ -23274,7 +23274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A857" t="s">
         <v>1247</v>
       </c>
@@ -23294,7 +23294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A858" t="s">
         <v>1718</v>
       </c>
@@ -23314,7 +23314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A859" t="s">
         <v>526</v>
       </c>
@@ -23334,7 +23334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A860" t="s">
         <v>62</v>
       </c>
@@ -23354,7 +23354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A861" t="s">
         <v>1192</v>
       </c>
@@ -23374,7 +23374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A862" t="s">
         <v>0</v>
       </c>
@@ -23394,7 +23394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A863" t="s">
         <v>1724</v>
       </c>
@@ -23414,7 +23414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A864" t="s">
         <v>1017</v>
       </c>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A865" t="s">
         <v>464</v>
       </c>
@@ -23454,7 +23454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A866" t="s">
         <v>444</v>
       </c>
@@ -23474,7 +23474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A867" t="s">
         <v>1199</v>
       </c>
@@ -23494,7 +23494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A868" t="s">
         <v>128</v>
       </c>
@@ -23514,7 +23514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A869" t="s">
         <v>361</v>
       </c>
@@ -23534,7 +23534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A870" t="s">
         <v>828</v>
       </c>
@@ -23554,7 +23554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A871" t="s">
         <v>224</v>
       </c>
@@ -23574,7 +23574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A872" t="s">
         <v>369</v>
       </c>
@@ -23594,7 +23594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A873" t="s">
         <v>786</v>
       </c>
@@ -23614,7 +23614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A874" t="s">
         <v>135</v>
       </c>
@@ -23634,7 +23634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A875" t="s">
         <v>862</v>
       </c>
@@ -23654,7 +23654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A876" t="s">
         <v>1024</v>
       </c>
@@ -23674,7 +23674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A877" t="s">
         <v>1652</v>
       </c>
@@ -23694,7 +23694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A878" t="s">
         <v>631</v>
       </c>
@@ -23714,7 +23714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A879" t="s">
         <v>220</v>
       </c>
@@ -23734,7 +23734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A880" t="s">
         <v>654</v>
       </c>
@@ -23754,7 +23754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A881" t="s">
         <v>519</v>
       </c>
@@ -23774,7 +23774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A882" t="s">
         <v>13</v>
       </c>
@@ -23794,7 +23794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A883" t="s">
         <v>1226</v>
       </c>
@@ -23814,7 +23814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A884" t="s">
         <v>1752</v>
       </c>
@@ -23834,7 +23834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A885" t="s">
         <v>828</v>
       </c>
@@ -23854,7 +23854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A886" t="s">
         <v>534</v>
       </c>
@@ -23874,7 +23874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A887" t="s">
         <v>1388</v>
       </c>
@@ -23894,7 +23894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A888" t="s">
         <v>1757</v>
       </c>
@@ -23914,7 +23914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A889" t="s">
         <v>1759</v>
       </c>
@@ -23934,7 +23934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A890" t="s">
         <v>453</v>
       </c>
@@ -23954,7 +23954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A891" t="s">
         <v>1171</v>
       </c>
@@ -23974,7 +23974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A892" t="s">
         <v>1226</v>
       </c>
@@ -23994,7 +23994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A893" t="s">
         <v>316</v>
       </c>
@@ -24014,7 +24014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A894" t="s">
         <v>94</v>
       </c>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A895" t="s">
         <v>877</v>
       </c>
@@ -24054,7 +24054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A896" t="s">
         <v>1769</v>
       </c>
@@ -24074,7 +24074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A897" t="s">
         <v>383</v>
       </c>
@@ -24094,7 +24094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A898" t="s">
         <v>570</v>
       </c>
@@ -24114,7 +24114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A899" t="s">
         <v>748</v>
       </c>
@@ -24134,7 +24134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A900" t="s">
         <v>1160</v>
       </c>
@@ -24154,7 +24154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A901" t="s">
         <v>1702</v>
       </c>
@@ -24174,7 +24174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A902" t="s">
         <v>331</v>
       </c>
@@ -24194,7 +24194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A903" t="s">
         <v>1204</v>
       </c>
@@ -24214,7 +24214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A904" t="s">
         <v>390</v>
       </c>
@@ -24234,7 +24234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A905" t="s">
         <v>1235</v>
       </c>
@@ -24254,7 +24254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A906" t="s">
         <v>722</v>
       </c>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A907" t="s">
         <v>1190</v>
       </c>
@@ -24294,7 +24294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A908" t="s">
         <v>1295</v>
       </c>
@@ -24314,7 +24314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A909" t="s">
         <v>1787</v>
       </c>
@@ -24334,7 +24334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A910" t="s">
         <v>131</v>
       </c>
@@ -24354,7 +24354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A911" t="s">
         <v>464</v>
       </c>
@@ -24374,7 +24374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A912" t="s">
         <v>1005</v>
       </c>
@@ -24394,7 +24394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A913" t="s">
         <v>261</v>
       </c>
@@ -24414,7 +24414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A914" t="s">
         <v>1640</v>
       </c>
@@ -24434,7 +24434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A915" t="s">
         <v>570</v>
       </c>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A916" t="s">
         <v>135</v>
       </c>
@@ -24474,7 +24474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A917" t="s">
         <v>1388</v>
       </c>
@@ -24494,7 +24494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A918" t="s">
         <v>285</v>
       </c>
@@ -24514,7 +24514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A919" t="s">
         <v>28</v>
       </c>
@@ -24534,7 +24534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A920" t="s">
         <v>53</v>
       </c>
@@ -24554,7 +24554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A921" t="s">
         <v>1803</v>
       </c>
@@ -24574,7 +24574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A922" t="s">
         <v>473</v>
       </c>
@@ -24594,7 +24594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A923" t="s">
         <v>526</v>
       </c>
@@ -24614,7 +24614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A924" t="s">
         <v>1807</v>
       </c>
@@ -24634,7 +24634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A925" t="s">
         <v>227</v>
       </c>
@@ -24654,7 +24654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A926" t="s">
         <v>830</v>
       </c>
@@ -24674,7 +24674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A927" t="s">
         <v>1349</v>
       </c>
@@ -24694,7 +24694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A928" t="s">
         <v>17</v>
       </c>
@@ -24714,7 +24714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A929" t="s">
         <v>664</v>
       </c>
@@ -24734,7 +24734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A930" t="s">
         <v>336</v>
       </c>
@@ -24754,7 +24754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A931" t="s">
         <v>1070</v>
       </c>
@@ -24774,7 +24774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A932" t="s">
         <v>661</v>
       </c>
@@ -24794,7 +24794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A933" t="s">
         <v>387</v>
       </c>
@@ -24814,7 +24814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A934" t="s">
         <v>468</v>
       </c>
@@ -24834,7 +24834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A935" t="s">
         <v>602</v>
       </c>
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A936" t="s">
         <v>1251</v>
       </c>
@@ -24874,7 +24874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A937" t="s">
         <v>1394</v>
       </c>
@@ -24894,7 +24894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A938" t="s">
         <v>1818</v>
       </c>
@@ -24914,7 +24914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A939" t="s">
         <v>1107</v>
       </c>
@@ -24934,7 +24934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A940" t="s">
         <v>1529</v>
       </c>
@@ -24954,7 +24954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A941" t="s">
         <v>748</v>
       </c>
@@ -24974,7 +24974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A942" t="s">
         <v>265</v>
       </c>
@@ -24994,7 +24994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A943" t="s">
         <v>1825</v>
       </c>
@@ -25014,7 +25014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A944" t="s">
         <v>1601</v>
       </c>
@@ -25034,7 +25034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A945" t="s">
         <v>1434</v>
       </c>
@@ -25054,7 +25054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A946" t="s">
         <v>781</v>
       </c>
@@ -25074,7 +25074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A947" t="s">
         <v>1769</v>
       </c>
@@ -25094,7 +25094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A948" t="s">
         <v>1286</v>
       </c>
@@ -25114,7 +25114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A949" t="s">
         <v>282</v>
       </c>
@@ -25134,7 +25134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A950" t="s">
         <v>1563</v>
       </c>
@@ -25154,7 +25154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A951" t="s">
         <v>935</v>
       </c>
@@ -25174,7 +25174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A952" t="s">
         <v>1381</v>
       </c>
@@ -25194,7 +25194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A953" t="s">
         <v>1658</v>
       </c>
@@ -25214,7 +25214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A954" t="s">
         <v>1558</v>
       </c>
@@ -25234,7 +25234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A955" t="s">
         <v>1558</v>
       </c>
@@ -25254,7 +25254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A956" t="s">
         <v>1601</v>
       </c>
@@ -25274,7 +25274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A957" t="s">
         <v>511</v>
       </c>
@@ -25294,7 +25294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A958" t="s">
         <v>1370</v>
       </c>
@@ -25314,7 +25314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A959" t="s">
         <v>1825</v>
       </c>
@@ -25334,7 +25334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A960" t="s">
         <v>860</v>
       </c>
@@ -25354,7 +25354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A961" t="s">
         <v>1843</v>
       </c>
@@ -25374,7 +25374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A962" t="s">
         <v>935</v>
       </c>
@@ -25394,7 +25394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A963" t="s">
         <v>380</v>
       </c>
@@ -25414,7 +25414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A964" t="s">
         <v>746</v>
       </c>
@@ -25434,7 +25434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A965" t="s">
         <v>390</v>
       </c>
@@ -25454,7 +25454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A966" t="s">
         <v>918</v>
       </c>
@@ -25474,7 +25474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A967" t="s">
         <v>1851</v>
       </c>
@@ -25494,7 +25494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A968" t="s">
         <v>423</v>
       </c>
@@ -25514,7 +25514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A969" t="s">
         <v>1787</v>
       </c>
@@ -25534,7 +25534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A970" t="s">
         <v>556</v>
       </c>
@@ -25554,7 +25554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A971" t="s">
         <v>838</v>
       </c>
@@ -25574,7 +25574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A972" t="s">
         <v>1226</v>
       </c>
@@ -25594,7 +25594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="973" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A973" t="s">
         <v>1269</v>
       </c>
@@ -25614,7 +25614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A974" t="s">
         <v>1521</v>
       </c>
@@ -25634,7 +25634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A975" t="s">
         <v>770</v>
       </c>
@@ -25654,7 +25654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A976" t="s">
         <v>511</v>
       </c>
@@ -25674,7 +25674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A977" t="s">
         <v>1259</v>
       </c>
@@ -25694,7 +25694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A978" t="s">
         <v>1669</v>
       </c>
@@ -25714,7 +25714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A979" t="s">
         <v>982</v>
       </c>
@@ -25734,7 +25734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A980" t="s">
         <v>1866</v>
       </c>
@@ -25754,7 +25754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A981" t="s">
         <v>53</v>
       </c>
@@ -25774,7 +25774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A982" t="s">
         <v>857</v>
       </c>
@@ -25794,7 +25794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A983" t="s">
         <v>1558</v>
       </c>
@@ -25814,7 +25814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A984" t="s">
         <v>166</v>
       </c>
@@ -25834,7 +25834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="985" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A985" t="s">
         <v>1875</v>
       </c>
@@ -25854,7 +25854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A986" t="s">
         <v>62</v>
       </c>
@@ -25874,7 +25874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A987" t="s">
         <v>1190</v>
       </c>
@@ -25894,7 +25894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="988" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A988" t="s">
         <v>368</v>
       </c>
@@ -25914,7 +25914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A989" t="s">
         <v>1882</v>
       </c>
@@ -25934,7 +25934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="990" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A990" t="s">
         <v>374</v>
       </c>
@@ -25954,7 +25954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="991" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A991" t="s">
         <v>656</v>
       </c>
@@ -25974,7 +25974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A992" t="s">
         <v>1590</v>
       </c>
@@ -25994,7 +25994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A993" t="s">
         <v>1269</v>
       </c>
@@ -26014,7 +26014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="994" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A994" t="s">
         <v>447</v>
       </c>
@@ -26034,7 +26034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A995" t="s">
         <v>1640</v>
       </c>
@@ -26054,7 +26054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="996" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A996" t="s">
         <v>240</v>
       </c>
@@ -26074,7 +26074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="997" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A997" t="s">
         <v>1070</v>
       </c>
@@ -26094,7 +26094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A998" t="s">
         <v>1521</v>
       </c>
@@ -26114,7 +26114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A999" t="s">
         <v>1759</v>
       </c>
@@ -26134,7 +26134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1000" t="s">
         <v>822</v>
       </c>
@@ -26154,7 +26154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1001" t="s">
         <v>1367</v>
       </c>
@@ -26188,16 +26188,16 @@
       <selection activeCell="E1" sqref="E1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.15234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.69140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3828125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -26214,7 +26214,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -26231,7 +26231,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>44</v>
       </c>
@@ -26248,7 +26248,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>68</v>
       </c>
@@ -26265,7 +26265,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>73</v>
       </c>
@@ -26282,7 +26282,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6"/>
       <c r="B6"/>
     </row>
@@ -26296,18 +26296,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1851D91F-DA7C-4EA5-959B-DCDBAE8FBF58}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="2.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.3046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="2.15234375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -26321,7 +26321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>67</v>
       </c>
@@ -26335,7 +26335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>64</v>
       </c>
@@ -26349,7 +26349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>134</v>
       </c>
@@ -26363,7 +26363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -26377,7 +26377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>368</v>
       </c>
@@ -26391,7 +26391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>72</v>
       </c>
@@ -26419,7 +26419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>182</v>
       </c>
@@ -26433,7 +26433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
@@ -26447,7 +26447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>293</v>
       </c>
@@ -26461,7 +26461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>87</v>
       </c>
@@ -26475,7 +26475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>81</v>
       </c>
@@ -26489,7 +26489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>303</v>
       </c>
@@ -26503,7 +26503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -26517,7 +26517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>56</v>
       </c>
@@ -26531,7 +26531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
@@ -26545,7 +26545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>169</v>
       </c>
@@ -26559,7 +26559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>189</v>
       </c>
@@ -26573,7 +26573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>443</v>
       </c>
@@ -26587,7 +26587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>350</v>
       </c>
@@ -26601,7 +26601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
@@ -26615,7 +26615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>343</v>
       </c>
@@ -26629,7 +26629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>599</v>
       </c>
@@ -26643,7 +26643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
@@ -26657,7 +26657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>60</v>
       </c>
@@ -26671,7 +26671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>100</v>
       </c>
@@ -26685,7 +26685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>155</v>
       </c>
@@ -26699,7 +26699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
         <v>16</v>
       </c>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
         <v>419</v>
       </c>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>720</v>
       </c>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>840</v>
       </c>
@@ -26755,7 +26755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
         <v>141</v>
       </c>
@@ -26769,7 +26769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>97</v>
       </c>
@@ -26783,7 +26783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
@@ -26797,7 +26797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
         <v>145</v>
       </c>
@@ -26811,7 +26811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>113</v>
       </c>
@@ -26825,7 +26825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
         <v>121</v>
       </c>
@@ -26839,7 +26839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
         <v>1916</v>
       </c>
@@ -26853,7 +26853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>726</v>
       </c>
@@ -26867,7 +26867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
         <v>223</v>
       </c>
@@ -26881,7 +26881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
         <v>117</v>
       </c>
@@ -26895,7 +26895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
         <v>165</v>
       </c>
@@ -26909,7 +26909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
         <v>77</v>
       </c>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
         <v>254</v>
       </c>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>1</v>
       </c>
@@ -26951,7 +26951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
         <v>6</v>
       </c>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
         <v>386</v>
       </c>
@@ -26979,7 +26979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
         <v>35</v>
       </c>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>226</v>
       </c>
@@ -27018,14 +27018,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3828125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3046875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3046875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -27036,7 +27036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -27047,11 +27047,11 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
@@ -27068,12 +27068,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="2">
         <v>1</v>
       </c>

--- a/src/loader_package/big_pre_load.xlsx
+++ b/src/loader_package/big_pre_load.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\ING3\Informatique\Projet\java_project_desautel_pellen_perold\src\loader_package\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://poce-my.sharepoint.com/personal/charles_perold_edu_ece_fr/Documents/ING 3/Informatique - Java/_Projet Gui S5/_Projet GUI_Fork/java_project_desautel_pellen_perold/src/loader_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B8F142-003D-42CC-89A6-5378714AAC24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{4560B6F7-C561-409F-9E40-3EAEB2945EBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="27977" windowHeight="18120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elector" sheetId="1" r:id="rId1"/>
@@ -6149,21 +6149,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.4609375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.07421875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>1910</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>1914</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>1915</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>69</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>74</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>78</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>82</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>61</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>88</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>91</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>94</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>101</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>104</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>107</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
         <v>110</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
         <v>114</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
         <v>118</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>122</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>125</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
         <v>128</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
         <v>131</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>135</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
         <v>138</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>142</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
         <v>146</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
         <v>149</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>152</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
         <v>156</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
         <v>159</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
         <v>162</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
         <v>166</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
         <v>170</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>174</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
         <v>125</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
         <v>179</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
         <v>183</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>186</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
         <v>190</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
         <v>193</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
         <v>195</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
         <v>198</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
         <v>201</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
         <v>204</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="5" t="s">
         <v>40</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="s">
         <v>209</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="5" t="s">
         <v>211</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
         <v>214</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
         <v>217</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
         <v>220</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="5" t="s">
         <v>224</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
         <v>227</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="5" t="s">
         <v>230</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="5" t="s">
         <v>233</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="5" t="s">
         <v>236</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="5" t="s">
         <v>239</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="5" t="s">
         <v>242</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="5" t="s">
         <v>245</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="5" t="s">
         <v>248</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="5" t="s">
         <v>251</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="5" t="s">
         <v>255</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="5" t="s">
         <v>258</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="5" t="s">
         <v>261</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="5" t="s">
         <v>264</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="5" t="s">
         <v>267</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="5" t="s">
         <v>270</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="5" t="s">
         <v>273</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="5" t="s">
         <v>276</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="5" t="s">
         <v>279</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="5" t="s">
         <v>282</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="5" t="s">
         <v>285</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="5" t="s">
         <v>287</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="5" t="s">
         <v>290</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="5" t="s">
         <v>294</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="5" t="s">
         <v>297</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="5" t="s">
         <v>300</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="5" t="s">
         <v>304</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="5" t="s">
         <v>307</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="5" t="s">
         <v>310</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="5" t="s">
         <v>313</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="5" t="s">
         <v>316</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="5" t="s">
         <v>318</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="5" t="s">
         <v>321</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="5" t="s">
         <v>171</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="5" t="s">
         <v>297</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="5" t="s">
         <v>328</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="5" t="s">
         <v>248</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="5" t="s">
         <v>333</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="5" t="s">
         <v>336</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="5" t="s">
         <v>273</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="5" t="s">
         <v>316</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="5" t="s">
         <v>344</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="5" t="s">
         <v>347</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="5" t="s">
         <v>351</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="5" t="s">
         <v>224</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="5" t="s">
         <v>62</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="5" t="s">
         <v>114</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="5" t="s">
         <v>358</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="5" t="s">
         <v>361</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="5" t="s">
         <v>364</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="5" t="s">
         <v>166</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="5" t="s">
         <v>369</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="5" t="s">
         <v>372</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="5" t="s">
         <v>374</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="5" t="s">
         <v>377</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="5" t="s">
         <v>380</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="5" t="s">
         <v>383</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="5" t="s">
         <v>387</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="5" t="s">
         <v>390</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="5" t="s">
         <v>393</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="5" t="s">
         <v>396</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="5" t="s">
         <v>358</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="5" t="s">
         <v>227</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="5" t="s">
         <v>403</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="5" t="s">
         <v>313</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="5" t="s">
         <v>162</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="5" t="s">
         <v>410</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="5" t="s">
         <v>152</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="5" t="s">
         <v>307</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="5" t="s">
         <v>318</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="5" t="s">
         <v>420</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="5" t="s">
         <v>423</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="5" t="s">
         <v>217</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="5" t="s">
         <v>53</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="5" t="s">
         <v>430</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="5" t="s">
         <v>433</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="5" t="s">
         <v>436</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="5" t="s">
         <v>171</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="5" t="s">
         <v>242</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="5" t="s">
         <v>444</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="5" t="s">
         <v>447</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="5" t="s">
         <v>450</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="5" t="s">
         <v>453</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="5" t="s">
         <v>456</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="5" t="s">
         <v>458</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="5" t="s">
         <v>461</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="5" t="s">
         <v>464</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="5" t="s">
         <v>467</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="5" t="s">
         <v>470</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="5" t="s">
         <v>473</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" s="5" t="s">
         <v>36</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" s="5" t="s">
         <v>477</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" s="5" t="s">
         <v>480</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="5" t="s">
         <v>483</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" s="5" t="s">
         <v>211</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" s="5" t="s">
         <v>487</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" s="5" t="s">
         <v>490</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" s="5" t="s">
         <v>255</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" s="5" t="s">
         <v>495</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" s="5" t="s">
         <v>498</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" s="5" t="s">
         <v>240</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" s="5" t="s">
         <v>502</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" s="5" t="s">
         <v>504</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" s="5" t="s">
         <v>336</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" s="5" t="s">
         <v>509</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168" s="5" t="s">
         <v>511</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" s="5" t="s">
         <v>513</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170" s="5" t="s">
         <v>516</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A171" s="5" t="s">
         <v>519</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A172" s="5" t="s">
         <v>259</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173" s="5" t="s">
         <v>390</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A174" s="5" t="s">
         <v>526</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A175" s="5" t="s">
         <v>528</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A176" s="5" t="s">
         <v>531</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A177" s="5" t="s">
         <v>533</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A178" s="5" t="s">
         <v>233</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A179" s="5" t="s">
         <v>538</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A180" s="5" t="s">
         <v>541</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A181" s="5" t="s">
         <v>544</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A182" s="5" t="s">
         <v>546</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A183" s="5" t="s">
         <v>549</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A184" s="5" t="s">
         <v>551</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A185" s="5" t="s">
         <v>307</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A186" s="5" t="s">
         <v>556</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A187" s="5" t="s">
         <v>559</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A188" s="5" t="s">
         <v>328</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A189" s="5" t="s">
         <v>562</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A190" s="5" t="s">
         <v>230</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A191" s="5" t="s">
         <v>410</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A192" s="5" t="s">
         <v>568</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A193" s="5" t="s">
         <v>570</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A194" s="5" t="s">
         <v>572</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A195" s="5" t="s">
         <v>264</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A196" s="5" t="s">
         <v>344</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A197" s="5" t="s">
         <v>578</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A198" s="5" t="s">
         <v>581</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A199" s="5" t="s">
         <v>584</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A200" s="5" t="s">
         <v>587</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A201" s="5" t="s">
         <v>450</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A202" s="5" t="s">
         <v>592</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A203" s="5" t="s">
         <v>594</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A204" s="5" t="s">
         <v>597</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A205" s="5" t="s">
         <v>227</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A206" s="5" t="s">
         <v>602</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A207" s="5" t="s">
         <v>605</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A208" s="5" t="s">
         <v>380</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A209" s="5" t="s">
         <v>609</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A210" s="5" t="s">
         <v>612</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A211" s="5" t="s">
         <v>584</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A212" s="5" t="s">
         <v>617</v>
       </c>
@@ -10403,7 +10403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A213" s="5" t="s">
         <v>24</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A214" s="5" t="s">
         <v>311</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215" s="5" t="s">
         <v>624</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A216" s="5" t="s">
         <v>36</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A217" s="5" t="s">
         <v>628</v>
       </c>
@@ -10503,7 +10503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A218" s="5" t="s">
         <v>631</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219" s="5" t="s">
         <v>634</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A220" s="5" t="s">
         <v>347</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A221" s="5" t="s">
         <v>248</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A222" s="5" t="s">
         <v>640</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A223" s="5" t="s">
         <v>248</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A224" s="5" t="s">
         <v>645</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A225" s="5" t="s">
         <v>648</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A226" s="5" t="s">
         <v>625</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A227" s="5" t="s">
         <v>651</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A228" s="5" t="s">
         <v>654</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A229" s="5" t="s">
         <v>656</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A230" s="5" t="s">
         <v>658</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A231" s="5" t="s">
         <v>101</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A232" s="5" t="s">
         <v>661</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A233" s="5" t="s">
         <v>664</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A234" s="5" t="s">
         <v>667</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A235" s="5" t="s">
         <v>453</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A236" s="5" t="s">
         <v>294</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A237" s="5" t="s">
         <v>672</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A238" s="5" t="s">
         <v>675</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A239" s="5" t="s">
         <v>410</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A240" s="5" t="s">
         <v>242</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A241" s="5" t="s">
         <v>682</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A242" s="5" t="s">
         <v>488</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A243" s="5" t="s">
         <v>687</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A244" s="5" t="s">
         <v>690</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A245" s="5" t="s">
         <v>374</v>
       </c>
@@ -11063,7 +11063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A246" s="5" t="s">
         <v>695</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A247" s="5" t="s">
         <v>450</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A248" s="5" t="s">
         <v>700</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A249" s="5" t="s">
         <v>703</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A250" s="5" t="s">
         <v>705</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A251" s="5" t="s">
         <v>708</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A252" s="5" t="s">
         <v>710</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A253" s="5" t="s">
         <v>713</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A254" s="5" t="s">
         <v>404</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A255" s="5" t="s">
         <v>717</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A256" s="5" t="s">
         <v>118</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A257" s="5" t="s">
         <v>722</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A258" s="5" t="s">
         <v>625</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A259" s="5" t="s">
         <v>403</v>
       </c>
@@ -11343,7 +11343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A260" s="5" t="s">
         <v>467</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A261" s="5" t="s">
         <v>372</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A262" s="5" t="s">
         <v>733</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A263" s="5" t="s">
         <v>433</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A264" s="5" t="s">
         <v>736</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A265" s="5" t="s">
         <v>739</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A266" s="5" t="s">
         <v>403</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A267" s="5" t="s">
         <v>743</v>
       </c>
@@ -11503,7 +11503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A268" s="5" t="s">
         <v>251</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A269" s="5" t="s">
         <v>748</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A270" s="5" t="s">
         <v>750</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A271" s="5" t="s">
         <v>753</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A272" s="5" t="s">
         <v>755</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A273" s="5" t="s">
         <v>758</v>
       </c>
@@ -11623,7 +11623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A274" s="5" t="s">
         <v>562</v>
       </c>
@@ -11643,7 +11643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A275" s="5" t="s">
         <v>313</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A276" s="5" t="s">
         <v>193</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A277" s="5" t="s">
         <v>767</v>
       </c>
@@ -11703,7 +11703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A278" s="5" t="s">
         <v>770</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A279" s="5" t="s">
         <v>426</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A280" s="5" t="s">
         <v>775</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A281" s="5" t="s">
         <v>778</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A282" s="5" t="s">
         <v>377</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A283" s="5" t="s">
         <v>423</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A284" s="5" t="s">
         <v>784</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A285" s="5" t="s">
         <v>786</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A286" s="5" t="s">
         <v>568</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A287" s="5" t="s">
         <v>790</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A288" s="5" t="s">
         <v>313</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A289" s="5" t="s">
         <v>793</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A290" s="5" t="s">
         <v>333</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A291" s="5" t="s">
         <v>135</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A292" s="5" t="s">
         <v>797</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A293" s="5" t="s">
         <v>648</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A294" s="5" t="s">
         <v>802</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A295" s="5" t="s">
         <v>311</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A296" s="5" t="s">
         <v>806</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A297" s="5" t="s">
         <v>658</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A298" s="5" t="s">
         <v>534</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A299" s="5" t="s">
         <v>812</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A300" s="5" t="s">
         <v>138</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A301" s="5" t="s">
         <v>157</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A302" s="5" t="s">
         <v>661</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A303" s="5" t="s">
         <v>743</v>
       </c>
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A304" s="5" t="s">
         <v>819</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A305" s="5" t="s">
         <v>822</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A306" s="5" t="s">
         <v>825</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A307" s="5" t="s">
         <v>827</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A308" s="5" t="s">
         <v>830</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A309" s="5" t="s">
         <v>832</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A310" s="5" t="s">
         <v>835</v>
       </c>
@@ -12363,7 +12363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A311" s="5" t="s">
         <v>687</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A312" s="5" t="s">
         <v>625</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A313" s="5" t="s">
         <v>843</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A314" s="5" t="s">
         <v>846</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A315" s="5" t="s">
         <v>848</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A316" s="5" t="s">
         <v>851</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A317" s="5" t="s">
         <v>854</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A318" s="5" t="s">
         <v>857</v>
       </c>
@@ -12523,7 +12523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A319" s="5" t="s">
         <v>860</v>
       </c>
@@ -12543,7 +12543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A320" s="5" t="s">
         <v>862</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A321" s="5" t="s">
         <v>157</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A322" s="5" t="s">
         <v>865</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A323" s="5" t="s">
         <v>868</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A324" s="5" t="s">
         <v>667</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A325" s="5" t="s">
         <v>538</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A326" s="5" t="s">
         <v>251</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A327" s="5" t="s">
         <v>865</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A328" s="5" t="s">
         <v>877</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A329" s="5" t="s">
         <v>282</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A330" s="5" t="s">
         <v>439</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A331" s="5" t="s">
         <v>220</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A332" s="5" t="s">
         <v>294</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A333" s="5" t="s">
         <v>885</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A334" s="5" t="s">
         <v>304</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A335" s="5" t="s">
         <v>889</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A336" s="5" t="s">
         <v>450</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A337" s="5" t="s">
         <v>893</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A338" s="5" t="s">
         <v>708</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A339" s="5" t="s">
         <v>572</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A340" s="5" t="s">
         <v>899</v>
       </c>
@@ -12963,7 +12963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A341" s="5" t="s">
         <v>854</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A342" s="5" t="s">
         <v>903</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A343" s="5" t="s">
         <v>905</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A344" s="5" t="s">
         <v>907</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A345" s="5" t="s">
         <v>910</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A346" s="5" t="s">
         <v>913</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A347" s="5" t="s">
         <v>916</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A348" s="5" t="s">
         <v>918</v>
       </c>
@@ -13123,7 +13123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A349" s="5" t="s">
         <v>843</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A350" s="5" t="s">
         <v>770</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A351" s="5" t="s">
         <v>594</v>
       </c>
@@ -13183,7 +13183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A352" s="5" t="s">
         <v>924</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A353" s="5" t="s">
         <v>584</v>
       </c>
@@ -13223,7 +13223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A354" s="5" t="s">
         <v>628</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A355" s="5" t="s">
         <v>572</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A356" s="5" t="s">
         <v>932</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A357" s="5" t="s">
         <v>152</v>
       </c>
@@ -13303,7 +13303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A358" s="5" t="s">
         <v>935</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A359" s="5" t="s">
         <v>622</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A360" s="5" t="s">
         <v>403</v>
       </c>
@@ -13363,7 +13363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A361" s="5" t="s">
         <v>236</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A362" s="5" t="s">
         <v>942</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A363" s="5" t="s">
         <v>945</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A364" s="5" t="s">
         <v>170</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A365" s="5" t="s">
         <v>700</v>
       </c>
@@ -13463,7 +13463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A366" s="5" t="s">
         <v>733</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A367" s="5" t="s">
         <v>954</v>
       </c>
@@ -13503,7 +13503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A368" s="5" t="s">
         <v>285</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A369" s="5" t="s">
         <v>959</v>
       </c>
@@ -13543,7 +13543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A370" s="5" t="s">
         <v>69</v>
       </c>
@@ -13563,7 +13563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A371" s="5" t="s">
         <v>964</v>
       </c>
@@ -13583,7 +13583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A372" s="5" t="s">
         <v>174</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A373" s="5" t="s">
         <v>458</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A374" s="5" t="s">
         <v>968</v>
       </c>
@@ -13643,7 +13643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A375" s="5" t="s">
         <v>664</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A376" s="5" t="s">
         <v>139</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A377" s="5" t="s">
         <v>973</v>
       </c>
@@ -13703,7 +13703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A378" s="5" t="s">
         <v>889</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A379" s="5" t="s">
         <v>198</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A380" s="5" t="s">
         <v>700</v>
       </c>
@@ -13763,7 +13763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A381" s="5" t="s">
         <v>851</v>
       </c>
@@ -13783,7 +13783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A382" s="5" t="s">
         <v>82</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A383" s="5" t="s">
         <v>982</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A384" s="5" t="s">
         <v>110</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A385" s="5" t="s">
         <v>748</v>
       </c>
@@ -13863,7 +13863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A386" s="5" t="s">
         <v>968</v>
       </c>
@@ -13883,7 +13883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A387" s="5" t="s">
         <v>893</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A388" s="5" t="s">
         <v>680</v>
       </c>
@@ -13923,7 +13923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A389" s="5" t="s">
         <v>994</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A390" s="5" t="s">
         <v>830</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A391" s="5" t="s">
         <v>410</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A392" s="5" t="s">
         <v>594</v>
       </c>
@@ -14003,7 +14003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A393" s="5" t="s">
         <v>737</v>
       </c>
@@ -14023,7 +14023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A394" s="5" t="s">
         <v>832</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A395" s="5" t="s">
         <v>634</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A396" s="5" t="s">
         <v>1005</v>
       </c>
@@ -14083,7 +14083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A397" s="5" t="s">
         <v>1008</v>
       </c>
@@ -14103,7 +14103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A398" s="5" t="s">
         <v>404</v>
       </c>
@@ -14123,7 +14123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A399" s="5" t="s">
         <v>1013</v>
       </c>
@@ -14143,7 +14143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A400" s="5" t="s">
         <v>825</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A401" s="5" t="s">
         <v>1017</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A402" s="5" t="s">
         <v>94</v>
       </c>
@@ -14203,7 +14203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A403" s="5" t="s">
         <v>994</v>
       </c>
@@ -14223,7 +14223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A404" s="5" t="s">
         <v>1024</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A405" s="5" t="s">
         <v>498</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A406" s="5" t="s">
         <v>264</v>
       </c>
@@ -14283,7 +14283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A407" s="5" t="s">
         <v>1028</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A408" s="5" t="s">
         <v>122</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A409" s="5" t="s">
         <v>1032</v>
       </c>
@@ -14343,7 +14343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A410" s="5" t="s">
         <v>201</v>
       </c>
@@ -14363,7 +14363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A411" s="5" t="s">
         <v>612</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A412" s="5" t="s">
         <v>1038</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A413" s="5" t="s">
         <v>1041</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A414" s="5" t="s">
         <v>924</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A415" s="5" t="s">
         <v>1045</v>
       </c>
@@ -14463,7 +14463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A416" s="5" t="s">
         <v>942</v>
       </c>
@@ -14483,7 +14483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A417" s="5" t="s">
         <v>687</v>
       </c>
@@ -14503,7 +14503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A418" s="5" t="s">
         <v>786</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A419" s="5" t="s">
         <v>387</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A420" s="5" t="s">
         <v>935</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A421" s="5" t="s">
         <v>819</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A422" s="5" t="s">
         <v>1056</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A423" s="5" t="s">
         <v>307</v>
       </c>
@@ -14623,7 +14623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A424" s="5" t="s">
         <v>396</v>
       </c>
@@ -14643,7 +14643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A425" s="5" t="s">
         <v>347</v>
       </c>
@@ -14663,7 +14663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A426" s="5" t="s">
         <v>1063</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A427" s="5" t="s">
         <v>1064</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A428" s="5" t="s">
         <v>487</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A429" s="5" t="s">
         <v>1067</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A430" s="5" t="s">
         <v>1070</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A431" s="5" t="s">
         <v>640</v>
       </c>
@@ -14783,7 +14783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A432" s="5" t="s">
         <v>347</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A433" s="5" t="s">
         <v>651</v>
       </c>
@@ -14823,7 +14823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A434" s="5" t="s">
         <v>1075</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A435" s="5" t="s">
         <v>843</v>
       </c>
@@ -14863,7 +14863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A436" s="5" t="s">
         <v>220</v>
       </c>
@@ -14883,7 +14883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A437" s="5" t="s">
         <v>1013</v>
       </c>
@@ -14903,7 +14903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A438" s="5" t="s">
         <v>495</v>
       </c>
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A439" s="5" t="s">
         <v>1086</v>
       </c>
@@ -14943,7 +14943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A440" s="5" t="s">
         <v>488</v>
       </c>
@@ -14963,7 +14963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A441" s="5" t="s">
         <v>742</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A442" s="5" t="s">
         <v>364</v>
       </c>
@@ -15003,7 +15003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A443" s="5" t="s">
         <v>854</v>
       </c>
@@ -15023,7 +15023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A444" s="5" t="s">
         <v>1094</v>
       </c>
@@ -15043,7 +15043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A445" s="5" t="s">
         <v>368</v>
       </c>
@@ -15063,7 +15063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A446" s="5" t="s">
         <v>1097</v>
       </c>
@@ -15083,7 +15083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A447" s="5" t="s">
         <v>822</v>
       </c>
@@ -15103,7 +15103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A448" s="5" t="s">
         <v>865</v>
       </c>
@@ -15123,7 +15123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A449" s="5" t="s">
         <v>830</v>
       </c>
@@ -15143,7 +15143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A450" s="5" t="s">
         <v>1103</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A451" s="5" t="s">
         <v>634</v>
       </c>
@@ -15183,7 +15183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A452" s="5" t="s">
         <v>1107</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A453" s="5" t="s">
         <v>755</v>
       </c>
@@ -15223,7 +15223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A454" s="5" t="s">
         <v>304</v>
       </c>
@@ -15243,7 +15243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A455" s="5" t="s">
         <v>1114</v>
       </c>
@@ -15263,7 +15263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A456" s="5" t="s">
         <v>195</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A457" s="5" t="s">
         <v>224</v>
       </c>
@@ -15303,7 +15303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A458" s="5" t="s">
         <v>1120</v>
       </c>
@@ -15323,7 +15323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A459" s="5" t="s">
         <v>236</v>
       </c>
@@ -15343,7 +15343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A460" s="5" t="s">
         <v>624</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A461" s="5" t="s">
         <v>717</v>
       </c>
@@ -15383,7 +15383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A462" s="5" t="s">
         <v>1032</v>
       </c>
@@ -15403,7 +15403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A463" s="5" t="s">
         <v>1127</v>
       </c>
@@ -15423,7 +15423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A464" s="5" t="s">
         <v>964</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A465" s="5" t="s">
         <v>1131</v>
       </c>
@@ -15463,7 +15463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A466" s="5" t="s">
         <v>1134</v>
       </c>
@@ -15483,7 +15483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A467" s="5" t="s">
         <v>195</v>
       </c>
@@ -15503,7 +15503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A468" s="5" t="s">
         <v>1138</v>
       </c>
@@ -15523,7 +15523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A469" s="5" t="s">
         <v>1140</v>
       </c>
@@ -15543,7 +15543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A470" s="5" t="s">
         <v>328</v>
       </c>
@@ -15563,7 +15563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A471" s="5" t="s">
         <v>802</v>
       </c>
@@ -15583,7 +15583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A472" s="5" t="s">
         <v>594</v>
       </c>
@@ -15603,7 +15603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A473" s="5" t="s">
         <v>364</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A474" s="5" t="s">
         <v>1146</v>
       </c>
@@ -15643,7 +15643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A475" s="5" t="s">
         <v>634</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A476" s="5" t="s">
         <v>209</v>
       </c>
@@ -15683,7 +15683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A477" s="5" t="s">
         <v>114</v>
       </c>
@@ -15703,7 +15703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A478" s="5" t="s">
         <v>344</v>
       </c>
@@ -15723,7 +15723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A479" s="5" t="s">
         <v>32</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A480" s="5" t="s">
         <v>114</v>
       </c>
@@ -15763,7 +15763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A481" s="5" t="s">
         <v>705</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A482" s="5" t="s">
         <v>102</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A483" s="5" t="s">
         <v>1157</v>
       </c>
@@ -15823,7 +15823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A484" s="5" t="s">
         <v>40</v>
       </c>
@@ -15843,7 +15843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A485" s="5" t="s">
         <v>1070</v>
       </c>
@@ -15863,7 +15863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A486" s="5" t="s">
         <v>1163</v>
       </c>
@@ -15883,7 +15883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A487" s="5" t="s">
         <v>159</v>
       </c>
@@ -15903,7 +15903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A488" s="5" t="s">
         <v>695</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A489" s="5" t="s">
         <v>313</v>
       </c>
@@ -15943,7 +15943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A490" s="5" t="s">
         <v>982</v>
       </c>
@@ -15963,7 +15963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A491" s="5" t="s">
         <v>1171</v>
       </c>
@@ -15983,7 +15983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A492" s="5" t="s">
         <v>171</v>
       </c>
@@ -16003,7 +16003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A493" s="5" t="s">
         <v>631</v>
       </c>
@@ -16023,7 +16023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A494" s="5" t="s">
         <v>1176</v>
       </c>
@@ -16043,7 +16043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A495" s="5" t="s">
         <v>201</v>
       </c>
@@ -16063,7 +16063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A496" s="5" t="s">
         <v>905</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A497" s="5" t="s">
         <v>793</v>
       </c>
@@ -16103,7 +16103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A498" s="5" t="s">
         <v>204</v>
       </c>
@@ -16123,7 +16123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A499" s="5" t="s">
         <v>822</v>
       </c>
@@ -16143,7 +16143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A500" s="5" t="s">
         <v>1134</v>
       </c>
@@ -16163,7 +16163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A501" s="5" t="s">
         <v>1188</v>
       </c>
@@ -16183,7 +16183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A502" s="5" t="s">
         <v>361</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A503" s="5" t="s">
         <v>1190</v>
       </c>
@@ -16223,7 +16223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A504" s="5" t="s">
         <v>1192</v>
       </c>
@@ -16243,7 +16243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A505" s="5" t="s">
         <v>851</v>
       </c>
@@ -16263,7 +16263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A506" s="5" t="s">
         <v>285</v>
       </c>
@@ -16283,7 +16283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A507" s="5" t="s">
         <v>846</v>
       </c>
@@ -16303,7 +16303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A508" s="5" t="s">
         <v>1199</v>
       </c>
@@ -16323,7 +16323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A509" s="5" t="s">
         <v>1201</v>
       </c>
@@ -16343,7 +16343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A510" s="5" t="s">
         <v>1041</v>
       </c>
@@ -16363,7 +16363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A511" s="5" t="s">
         <v>307</v>
       </c>
@@ -16383,7 +16383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A512" s="5" t="s">
         <v>131</v>
       </c>
@@ -16403,7 +16403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A513" s="5" t="s">
         <v>1208</v>
       </c>
@@ -16423,7 +16423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A514" s="5" t="s">
         <v>581</v>
       </c>
@@ -16443,7 +16443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A515" s="5" t="s">
         <v>572</v>
       </c>
@@ -16463,7 +16463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A516" s="5" t="s">
         <v>1214</v>
       </c>
@@ -16483,7 +16483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A517" s="5" t="s">
         <v>270</v>
       </c>
@@ -16503,7 +16503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A518" s="5" t="s">
         <v>936</v>
       </c>
@@ -16523,7 +16523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A519" s="5" t="s">
         <v>1038</v>
       </c>
@@ -16543,7 +16543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A520" s="5" t="s">
         <v>703</v>
       </c>
@@ -16563,7 +16563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A521" s="5" t="s">
         <v>1219</v>
       </c>
@@ -16583,7 +16583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A522" s="5" t="s">
         <v>82</v>
       </c>
@@ -16603,7 +16603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A523" s="5" t="s">
         <v>526</v>
       </c>
@@ -16623,7 +16623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A524" s="5" t="s">
         <v>122</v>
       </c>
@@ -16643,7 +16643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A525" s="5" t="s">
         <v>713</v>
       </c>
@@ -16663,7 +16663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A526" s="5" t="s">
         <v>1227</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A527" s="5" t="s">
         <v>551</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A528" s="5" t="s">
         <v>1134</v>
       </c>
@@ -16723,7 +16723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A529" s="5" t="s">
         <v>703</v>
       </c>
@@ -16743,7 +16743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A530" s="5" t="s">
         <v>753</v>
       </c>
@@ -16763,7 +16763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A531" s="5" t="s">
         <v>1235</v>
       </c>
@@ -16783,7 +16783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A532" s="5" t="s">
         <v>1238</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A533" s="5" t="s">
         <v>1240</v>
       </c>
@@ -16823,7 +16823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A534" s="5" t="s">
         <v>1242</v>
       </c>
@@ -16843,7 +16843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A535" s="5" t="s">
         <v>1244</v>
       </c>
@@ -16863,7 +16863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A536" s="5" t="s">
         <v>1247</v>
       </c>
@@ -16883,7 +16883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A537" s="5" t="s">
         <v>570</v>
       </c>
@@ -16903,7 +16903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A538" s="5" t="s">
         <v>812</v>
       </c>
@@ -16923,7 +16923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A539" s="5" t="s">
         <v>1075</v>
       </c>
@@ -16943,7 +16943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A540" s="5" t="s">
         <v>1251</v>
       </c>
@@ -16963,7 +16963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A541" s="5" t="s">
         <v>1120</v>
       </c>
@@ -16983,7 +16983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A542" s="5" t="s">
         <v>387</v>
       </c>
@@ -17003,7 +17003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A543" s="5" t="s">
         <v>495</v>
       </c>
@@ -17023,7 +17023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A544" s="5" t="s">
         <v>1259</v>
       </c>
@@ -17043,7 +17043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A545" s="5" t="s">
         <v>444</v>
       </c>
@@ -17063,7 +17063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A546" s="5" t="s">
         <v>1086</v>
       </c>
@@ -17083,7 +17083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A547" s="5" t="s">
         <v>1265</v>
       </c>
@@ -17103,7 +17103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A548" s="5" t="s">
         <v>171</v>
       </c>
@@ -17123,7 +17123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A549" s="5" t="s">
         <v>473</v>
       </c>
@@ -17143,7 +17143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A550" s="5" t="s">
         <v>1269</v>
       </c>
@@ -17163,7 +17163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A551" s="5" t="s">
         <v>790</v>
       </c>
@@ -17183,7 +17183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A552" s="5" t="s">
         <v>488</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A553" s="5" t="s">
         <v>118</v>
       </c>
@@ -17223,7 +17223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A554" s="5" t="s">
         <v>959</v>
       </c>
@@ -17243,7 +17243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A555" s="5" t="s">
         <v>193</v>
       </c>
@@ -17263,7 +17263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A556" s="5" t="s">
         <v>28</v>
       </c>
@@ -17283,7 +17283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A557" s="5" t="s">
         <v>1283</v>
       </c>
@@ -17303,7 +17303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A558" s="5" t="s">
         <v>1286</v>
       </c>
@@ -17323,7 +17323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A559" s="5" t="s">
         <v>368</v>
       </c>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A560" s="5" t="s">
         <v>1289</v>
       </c>
@@ -17363,7 +17363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A561" s="5" t="s">
         <v>739</v>
       </c>
@@ -17383,7 +17383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A562" s="5" t="s">
         <v>1204</v>
       </c>
@@ -17403,7 +17403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A563" s="5" t="s">
         <v>290</v>
       </c>
@@ -17423,7 +17423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A564" s="5" t="s">
         <v>1295</v>
       </c>
@@ -17443,7 +17443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A565" s="5" t="s">
         <v>358</v>
       </c>
@@ -17463,7 +17463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A566" s="5" t="s">
         <v>1298</v>
       </c>
@@ -17483,7 +17483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A567" s="5" t="s">
         <v>118</v>
       </c>
@@ -17503,7 +17503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A568" s="5" t="s">
         <v>420</v>
       </c>
@@ -17523,7 +17523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A569" s="5" t="s">
         <v>654</v>
       </c>
@@ -17543,7 +17543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A570" s="5" t="s">
         <v>959</v>
       </c>
@@ -17563,7 +17563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A571" s="5" t="s">
         <v>1144</v>
       </c>
@@ -17583,7 +17583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A572" s="5" t="s">
         <v>1308</v>
       </c>
@@ -17603,7 +17603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A573" s="5" t="s">
         <v>477</v>
       </c>
@@ -17623,7 +17623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A574" s="5" t="s">
         <v>713</v>
       </c>
@@ -17643,7 +17643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A575" s="5" t="s">
         <v>822</v>
       </c>
@@ -17663,7 +17663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A576" s="5" t="s">
         <v>1314</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A577" s="5" t="s">
         <v>1316</v>
       </c>
@@ -17703,7 +17703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A578" s="5" t="s">
         <v>157</v>
       </c>
@@ -17723,7 +17723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A579" s="5" t="s">
         <v>1319</v>
       </c>
@@ -17743,7 +17743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A580" s="5" t="s">
         <v>430</v>
       </c>
@@ -17763,7 +17763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A581" s="5" t="s">
         <v>1286</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A582" s="5" t="s">
         <v>1289</v>
       </c>
@@ -17803,7 +17803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A583" s="5" t="s">
         <v>488</v>
       </c>
@@ -17823,7 +17823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A584" s="5" t="s">
         <v>1327</v>
       </c>
@@ -17843,7 +17843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A585" s="5" t="s">
         <v>1330</v>
       </c>
@@ -17863,7 +17863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A586" s="5" t="s">
         <v>526</v>
       </c>
@@ -17883,7 +17883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A587" s="5" t="s">
         <v>36</v>
       </c>
@@ -17903,7 +17903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A588" s="5" t="s">
         <v>242</v>
       </c>
@@ -17923,7 +17923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A589" s="5" t="s">
         <v>713</v>
       </c>
@@ -17943,7 +17943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A590" s="5" t="s">
         <v>159</v>
       </c>
@@ -17963,7 +17963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A591" s="5" t="s">
         <v>1339</v>
       </c>
@@ -17983,7 +17983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A592" s="5" t="s">
         <v>1265</v>
       </c>
@@ -18003,7 +18003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A593" s="5" t="s">
         <v>1342</v>
       </c>
@@ -18023,7 +18023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A594" s="5" t="s">
         <v>1344</v>
       </c>
@@ -18043,7 +18043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A595" s="5" t="s">
         <v>1103</v>
       </c>
@@ -18063,7 +18063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A596" s="5" t="s">
         <v>1235</v>
       </c>
@@ -18083,7 +18083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A597" s="5" t="s">
         <v>1349</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A598" s="5" t="s">
         <v>1351</v>
       </c>
@@ -18123,7 +18123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A599" s="5" t="s">
         <v>1353</v>
       </c>
@@ -18143,7 +18143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A600" s="5" t="s">
         <v>848</v>
       </c>
@@ -18163,7 +18163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A601" s="5" t="s">
         <v>344</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A602" s="5" t="s">
         <v>1358</v>
       </c>
@@ -18203,7 +18203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A603" s="5" t="s">
         <v>61</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A604" s="5" t="s">
         <v>893</v>
       </c>
@@ -18243,7 +18243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A605" s="5" t="s">
         <v>1363</v>
       </c>
@@ -18263,7 +18263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A606" s="5" t="s">
         <v>899</v>
       </c>
@@ -18283,7 +18283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A607" s="5" t="s">
         <v>183</v>
       </c>
@@ -18303,7 +18303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A608" s="5" t="s">
         <v>1367</v>
       </c>
@@ -18323,7 +18323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A609" s="5" t="s">
         <v>1370</v>
       </c>
@@ -18343,7 +18343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A610" s="5" t="s">
         <v>1286</v>
       </c>
@@ -18363,7 +18363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A611" s="5" t="s">
         <v>1374</v>
       </c>
@@ -18383,7 +18383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A612" s="5" t="s">
         <v>1375</v>
       </c>
@@ -18403,7 +18403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A613" s="5" t="s">
         <v>549</v>
       </c>
@@ -18423,7 +18423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A614" s="5" t="s">
         <v>473</v>
       </c>
@@ -18443,7 +18443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A615" s="5" t="s">
         <v>1381</v>
       </c>
@@ -18463,7 +18463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A616" s="5" t="s">
         <v>1251</v>
       </c>
@@ -18483,7 +18483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A617" s="5" t="s">
         <v>889</v>
       </c>
@@ -18503,7 +18503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A618" s="5" t="s">
         <v>899</v>
       </c>
@@ -18523,7 +18523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A619" s="5" t="s">
         <v>82</v>
       </c>
@@ -18543,7 +18543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A620" s="5" t="s">
         <v>1388</v>
       </c>
@@ -18563,7 +18563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A621" s="5" t="s">
         <v>710</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A622" s="5" t="s">
         <v>514</v>
       </c>
@@ -18603,7 +18603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A623" s="5" t="s">
         <v>316</v>
       </c>
@@ -18623,7 +18623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A624" s="5" t="s">
         <v>1392</v>
       </c>
@@ -18643,7 +18643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A625" s="5" t="s">
         <v>1394</v>
       </c>
@@ -18663,7 +18663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A626" s="5" t="s">
         <v>1397</v>
       </c>
@@ -18683,7 +18683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A627" s="5" t="s">
         <v>40</v>
       </c>
@@ -18703,7 +18703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A628" s="5" t="s">
         <v>1351</v>
       </c>
@@ -18723,7 +18723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A629" s="5" t="s">
         <v>682</v>
       </c>
@@ -18743,7 +18743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A630" s="5" t="s">
         <v>1402</v>
       </c>
@@ -18763,7 +18763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A631" s="5" t="s">
         <v>32</v>
       </c>
@@ -18783,7 +18783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A632" s="5" t="s">
         <v>122</v>
       </c>
@@ -18803,7 +18803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A633" s="5" t="s">
         <v>439</v>
       </c>
@@ -18823,7 +18823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A634" s="5" t="s">
         <v>1208</v>
       </c>
@@ -18843,7 +18843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A635" s="5" t="s">
         <v>1351</v>
       </c>
@@ -18863,7 +18863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A636" s="5" t="s">
         <v>17</v>
       </c>
@@ -18883,7 +18883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A637" s="5" t="s">
         <v>390</v>
       </c>
@@ -18903,7 +18903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A638" s="5" t="s">
         <v>331</v>
       </c>
@@ -18923,7 +18923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A639" s="5" t="s">
         <v>102</v>
       </c>
@@ -18943,7 +18943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A640" s="5" t="s">
         <v>1064</v>
       </c>
@@ -18963,7 +18963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A641" s="5" t="s">
         <v>1416</v>
       </c>
@@ -18983,7 +18983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A642" s="5" t="s">
         <v>1418</v>
       </c>
@@ -19003,7 +19003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A643" s="5" t="s">
         <v>1421</v>
       </c>
@@ -19023,7 +19023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A644" s="5" t="s">
         <v>708</v>
       </c>
@@ -19043,7 +19043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A645" s="5" t="s">
         <v>551</v>
       </c>
@@ -19063,7 +19063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A646" s="5" t="s">
         <v>551</v>
       </c>
@@ -19083,7 +19083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A647" s="5" t="s">
         <v>380</v>
       </c>
@@ -19103,7 +19103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A648" s="5" t="s">
         <v>24</v>
       </c>
@@ -19123,7 +19123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A649" s="5" t="s">
         <v>236</v>
       </c>
@@ -19143,7 +19143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A650" s="5" t="s">
         <v>1045</v>
       </c>
@@ -19163,7 +19163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A651" s="5" t="s">
         <v>1432</v>
       </c>
@@ -19183,7 +19183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A652" s="5" t="s">
         <v>1433</v>
       </c>
@@ -19203,7 +19203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A653" s="5" t="s">
         <v>1434</v>
       </c>
@@ -19223,7 +19223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A654" s="5" t="s">
         <v>1190</v>
       </c>
@@ -19243,7 +19243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A655" s="5" t="s">
         <v>1436</v>
       </c>
@@ -19263,7 +19263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A656" s="5" t="s">
         <v>1438</v>
       </c>
@@ -19283,7 +19283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A657" s="5" t="s">
         <v>372</v>
       </c>
@@ -19303,7 +19303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A658" s="5" t="s">
         <v>78</v>
       </c>
@@ -19323,7 +19323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A659" s="5" t="s">
         <v>903</v>
       </c>
@@ -19343,7 +19343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A660" s="5" t="s">
         <v>94</v>
       </c>
@@ -19363,7 +19363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A661" s="5" t="s">
         <v>211</v>
       </c>
@@ -19383,7 +19383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A662" s="5" t="s">
         <v>885</v>
       </c>
@@ -19403,7 +19403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A663" s="5" t="s">
         <v>377</v>
       </c>
@@ -19423,7 +19423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A664" s="5" t="s">
         <v>1064</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A665" s="5" t="s">
         <v>901</v>
       </c>
@@ -19463,7 +19463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A666" s="5" t="s">
         <v>1454</v>
       </c>
@@ -19483,7 +19483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A667" s="5" t="s">
         <v>297</v>
       </c>
@@ -19503,7 +19503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A668" s="5" t="s">
         <v>1457</v>
       </c>
@@ -19523,7 +19523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A669" s="5" t="s">
         <v>146</v>
       </c>
@@ -19543,7 +19543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A670" s="5" t="s">
         <v>1460</v>
       </c>
@@ -19563,7 +19563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A671" s="5" t="s">
         <v>584</v>
       </c>
@@ -19583,7 +19583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A672" s="5" t="s">
         <v>377</v>
       </c>
@@ -19603,7 +19603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A673" s="5" t="s">
         <v>1438</v>
       </c>
@@ -19623,7 +19623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A674" s="5" t="s">
         <v>1468</v>
       </c>
@@ -19643,7 +19643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A675" s="5" t="s">
         <v>21</v>
       </c>
@@ -19663,7 +19663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A676" s="5" t="s">
         <v>1473</v>
       </c>
@@ -19683,7 +19683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A677" s="5" t="s">
         <v>1475</v>
       </c>
@@ -19703,7 +19703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A678" s="5" t="s">
         <v>1476</v>
       </c>
@@ -19723,7 +19723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A679" s="5" t="s">
         <v>1478</v>
       </c>
@@ -19743,7 +19743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A680" s="5" t="s">
         <v>935</v>
       </c>
@@ -19763,7 +19763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A681" s="5" t="s">
         <v>1358</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A682" s="5" t="s">
         <v>710</v>
       </c>
@@ -19803,7 +19803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A683" s="5" t="s">
         <v>1485</v>
       </c>
@@ -19823,7 +19823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A684" s="5" t="s">
         <v>201</v>
       </c>
@@ -19843,7 +19843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A685" s="5" t="s">
         <v>1432</v>
       </c>
@@ -19863,7 +19863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A686" s="5" t="s">
         <v>1242</v>
       </c>
@@ -19883,7 +19883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A687" s="5" t="s">
         <v>578</v>
       </c>
@@ -19903,7 +19903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A688" s="5" t="s">
         <v>691</v>
       </c>
@@ -19923,7 +19923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A689" s="5" t="s">
         <v>549</v>
       </c>
@@ -19943,7 +19943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A690" s="5" t="s">
         <v>1496</v>
       </c>
@@ -19963,7 +19963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A691" s="5" t="s">
         <v>1499</v>
       </c>
@@ -19983,7 +19983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A692" s="5" t="s">
         <v>514</v>
       </c>
@@ -20003,7 +20003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A693" s="5" t="s">
         <v>743</v>
       </c>
@@ -20023,7 +20023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A694" s="5" t="s">
         <v>672</v>
       </c>
@@ -20043,7 +20043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A695" s="5" t="s">
         <v>587</v>
       </c>
@@ -20063,7 +20063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A696" s="5" t="s">
         <v>128</v>
       </c>
@@ -20083,7 +20083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A697" s="5" t="s">
         <v>1103</v>
       </c>
@@ -20103,7 +20103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A698" s="5" t="s">
         <v>1140</v>
       </c>
@@ -20123,7 +20123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A699" s="5" t="s">
         <v>1064</v>
       </c>
@@ -20143,7 +20143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A700" s="5" t="s">
         <v>1512</v>
       </c>
@@ -20163,7 +20163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A701" s="5" t="s">
         <v>1460</v>
       </c>
@@ -20183,7 +20183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A702" s="5" t="s">
         <v>251</v>
       </c>
@@ -20203,7 +20203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A703" s="5" t="s">
         <v>1005</v>
       </c>
@@ -20223,7 +20223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A704" s="5" t="s">
         <v>290</v>
       </c>
@@ -20243,7 +20243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A705" s="5" t="s">
         <v>1521</v>
       </c>
@@ -20263,7 +20263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A706" s="5" t="s">
         <v>233</v>
       </c>
@@ -20283,7 +20283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A707" s="5" t="s">
         <v>1397</v>
       </c>
@@ -20303,7 +20303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A708" s="5" t="s">
         <v>1526</v>
       </c>
@@ -20323,7 +20323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A709" s="5" t="s">
         <v>1529</v>
       </c>
@@ -20343,7 +20343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A710" s="5" t="s">
         <v>903</v>
       </c>
@@ -20363,7 +20363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A711" s="5" t="s">
         <v>259</v>
       </c>
@@ -20383,7 +20383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A712" s="5" t="s">
         <v>654</v>
       </c>
@@ -20403,7 +20403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A713" s="5" t="s">
         <v>21</v>
       </c>
@@ -20423,7 +20423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A714" s="5" t="s">
         <v>761</v>
       </c>
@@ -20443,7 +20443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A715" s="5" t="s">
         <v>793</v>
       </c>
@@ -20463,7 +20463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A716" s="5" t="s">
         <v>183</v>
       </c>
@@ -20483,7 +20483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A717" s="5" t="s">
         <v>159</v>
       </c>
@@ -20503,7 +20503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A718" s="5" t="s">
         <v>865</v>
       </c>
@@ -20523,7 +20523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A719" s="5" t="s">
         <v>138</v>
       </c>
@@ -20543,7 +20543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A720" s="5" t="s">
         <v>149</v>
       </c>
@@ -20563,7 +20563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A721" s="5" t="s">
         <v>531</v>
       </c>
@@ -20583,7 +20583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A722" s="5" t="s">
         <v>372</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A723" s="5" t="s">
         <v>171</v>
       </c>
@@ -20623,7 +20623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A724" s="5" t="s">
         <v>1316</v>
       </c>
@@ -20643,7 +20643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A725" s="5" t="s">
         <v>110</v>
       </c>
@@ -20663,7 +20663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A726" s="5" t="s">
         <v>1269</v>
       </c>
@@ -20683,7 +20683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A727" s="5" t="s">
         <v>1134</v>
       </c>
@@ -20703,7 +20703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A728" s="5" t="s">
         <v>685</v>
       </c>
@@ -20723,7 +20723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A729" s="5" t="s">
         <v>1442</v>
       </c>
@@ -20743,7 +20743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A730" s="5" t="s">
         <v>1265</v>
       </c>
@@ -20763,7 +20763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A731" s="5" t="s">
         <v>13</v>
       </c>
@@ -20783,7 +20783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A732" s="5" t="s">
         <v>1558</v>
       </c>
@@ -20803,7 +20803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A733" s="5" t="s">
         <v>186</v>
       </c>
@@ -20823,7 +20823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A734" s="5" t="s">
         <v>1005</v>
       </c>
@@ -20843,7 +20843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A735" s="5" t="s">
         <v>1563</v>
       </c>
@@ -20863,7 +20863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A736" s="5" t="s">
         <v>1160</v>
       </c>
@@ -20883,7 +20883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A737" s="5" t="s">
         <v>913</v>
       </c>
@@ -20903,7 +20903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A738" s="5" t="s">
         <v>128</v>
       </c>
@@ -20923,7 +20923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A739" s="5" t="s">
         <v>430</v>
       </c>
@@ -20943,7 +20943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A740" s="5" t="s">
         <v>905</v>
       </c>
@@ -20963,7 +20963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A741" s="5" t="s">
         <v>1572</v>
       </c>
@@ -20983,7 +20983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A742" s="5" t="s">
         <v>102</v>
       </c>
@@ -21003,7 +21003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A743" s="5" t="s">
         <v>78</v>
       </c>
@@ -21023,7 +21023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A744" s="5" t="s">
         <v>1578</v>
       </c>
@@ -21043,7 +21043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A745" s="5" t="s">
         <v>387</v>
       </c>
@@ -21063,7 +21063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A746" s="5" t="s">
         <v>1578</v>
       </c>
@@ -21083,7 +21083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A747" s="5" t="s">
         <v>1107</v>
       </c>
@@ -21103,7 +21103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A748" s="5" t="s">
         <v>294</v>
       </c>
@@ -21123,7 +21123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A749" s="5" t="s">
         <v>528</v>
       </c>
@@ -21143,7 +21143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A750" s="5" t="s">
         <v>453</v>
       </c>
@@ -21163,7 +21163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A751" s="5" t="s">
         <v>1067</v>
       </c>
@@ -21183,7 +21183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A752" s="5" t="s">
         <v>710</v>
       </c>
@@ -21203,7 +21203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A753" s="5" t="s">
         <v>1590</v>
       </c>
@@ -21223,7 +21223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A754" s="5" t="s">
         <v>1242</v>
       </c>
@@ -21243,7 +21243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A755" s="5" t="s">
         <v>534</v>
       </c>
@@ -21263,7 +21263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A756" s="5" t="s">
         <v>806</v>
       </c>
@@ -21283,7 +21283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A757" s="5" t="s">
         <v>1594</v>
       </c>
@@ -21303,7 +21303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A758" s="5" t="s">
         <v>905</v>
       </c>
@@ -21323,7 +21323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A759" s="5" t="s">
         <v>672</v>
       </c>
@@ -21343,7 +21343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A760" s="5" t="s">
         <v>568</v>
       </c>
@@ -21363,7 +21363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A761" s="5" t="s">
         <v>705</v>
       </c>
@@ -21383,7 +21383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A762" s="5" t="s">
         <v>1601</v>
       </c>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A763" s="5" t="s">
         <v>351</v>
       </c>
@@ -21423,7 +21423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A764" s="5" t="s">
         <v>685</v>
       </c>
@@ -21443,7 +21443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A765" s="5" t="s">
         <v>885</v>
       </c>
@@ -21463,7 +21463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A766" s="5" t="s">
         <v>703</v>
       </c>
@@ -21483,7 +21483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A767" s="5" t="s">
         <v>1608</v>
       </c>
@@ -21503,7 +21503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A768" s="5" t="s">
         <v>1140</v>
       </c>
@@ -21523,7 +21523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A769" s="5" t="s">
         <v>680</v>
       </c>
@@ -21543,7 +21543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A770" s="5" t="s">
         <v>1614</v>
       </c>
@@ -21563,7 +21563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A771" s="5" t="s">
         <v>156</v>
       </c>
@@ -21583,7 +21583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A772" s="5" t="s">
         <v>733</v>
       </c>
@@ -21603,7 +21603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A773" s="5" t="s">
         <v>1381</v>
       </c>
@@ -21623,7 +21623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A774" s="5" t="s">
         <v>61</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A775" s="5" t="s">
         <v>592</v>
       </c>
@@ -21663,7 +21663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A776" s="5" t="s">
         <v>1468</v>
       </c>
@@ -21683,7 +21683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A777" s="5" t="s">
         <v>61</v>
       </c>
@@ -21703,7 +21703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A778" s="5" t="s">
         <v>300</v>
       </c>
@@ -21723,7 +21723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A779" s="5" t="s">
         <v>1209</v>
       </c>
@@ -21743,7 +21743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A780" s="5" t="s">
         <v>1629</v>
       </c>
@@ -21763,7 +21763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A781" s="5" t="s">
         <v>869</v>
       </c>
@@ -21783,7 +21783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A782" s="5" t="s">
         <v>1594</v>
       </c>
@@ -21803,7 +21803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A783" s="5" t="s">
         <v>201</v>
       </c>
@@ -21823,7 +21823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A784" s="5" t="s">
         <v>321</v>
       </c>
@@ -21843,7 +21843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A785" s="5" t="s">
         <v>1201</v>
       </c>
@@ -21863,7 +21863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A786" s="5" t="s">
         <v>916</v>
       </c>
@@ -21883,7 +21883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A787" s="5" t="s">
         <v>913</v>
       </c>
@@ -21903,7 +21903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A788" s="5" t="s">
         <v>21</v>
       </c>
@@ -21923,7 +21923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A789" s="5" t="s">
         <v>1640</v>
       </c>
@@ -21943,7 +21943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A790" s="5" t="s">
         <v>1563</v>
       </c>
@@ -21963,7 +21963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A791" s="5" t="s">
         <v>761</v>
       </c>
@@ -21983,7 +21983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A792" s="5" t="s">
         <v>793</v>
       </c>
@@ -22003,7 +22003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A793" s="5" t="s">
         <v>1473</v>
       </c>
@@ -22023,7 +22023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A794" s="5" t="s">
         <v>713</v>
       </c>
@@ -22043,7 +22043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A795" s="5" t="s">
         <v>1649</v>
       </c>
@@ -22063,7 +22063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A796" s="5" t="s">
         <v>1652</v>
       </c>
@@ -22083,7 +22083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A797" s="5" t="s">
         <v>1045</v>
       </c>
@@ -22103,7 +22103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A798" s="5" t="s">
         <v>1418</v>
       </c>
@@ -22123,7 +22123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A799" s="5" t="s">
         <v>21</v>
       </c>
@@ -22143,7 +22143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A800" s="5" t="s">
         <v>190</v>
       </c>
@@ -22163,7 +22163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A801" s="5" t="s">
         <v>1658</v>
       </c>
@@ -22183,7 +22183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A802" s="5" t="s">
         <v>347</v>
       </c>
@@ -22203,7 +22203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A803" s="5" t="s">
         <v>786</v>
       </c>
@@ -22223,7 +22223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A804" s="5" t="s">
         <v>1661</v>
       </c>
@@ -22243,7 +22243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A805" s="5" t="s">
         <v>236</v>
       </c>
@@ -22263,7 +22263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A806" s="5" t="s">
         <v>1214</v>
       </c>
@@ -22283,7 +22283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A807" s="5" t="s">
         <v>1666</v>
       </c>
@@ -22303,7 +22303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A808" s="5" t="s">
         <v>358</v>
       </c>
@@ -22323,7 +22323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A809" s="5" t="s">
         <v>1669</v>
       </c>
@@ -22343,7 +22343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A810" s="5" t="s">
         <v>128</v>
       </c>
@@ -22363,7 +22363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A811" s="5" t="s">
         <v>806</v>
       </c>
@@ -22383,7 +22383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A812" s="5" t="s">
         <v>848</v>
       </c>
@@ -22403,7 +22403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A813" s="5" t="s">
         <v>433</v>
       </c>
@@ -22423,7 +22423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A814" s="5" t="s">
         <v>690</v>
       </c>
@@ -22443,7 +22443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A815" s="5" t="s">
         <v>656</v>
       </c>
@@ -22463,7 +22463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A816" s="5" t="s">
         <v>1674</v>
       </c>
@@ -22483,7 +22483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A817" s="5" t="s">
         <v>307</v>
       </c>
@@ -22503,7 +22503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A818" s="5" t="s">
         <v>453</v>
       </c>
@@ -22523,7 +22523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A819" s="5" t="s">
         <v>1190</v>
       </c>
@@ -22543,7 +22543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A820" s="5" t="s">
         <v>179</v>
       </c>
@@ -22563,7 +22563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A821" s="5" t="s">
         <v>651</v>
       </c>
@@ -22583,7 +22583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A822" s="5" t="s">
         <v>568</v>
       </c>
@@ -22603,7 +22603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A823" s="5" t="s">
         <v>1680</v>
       </c>
@@ -22623,7 +22623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A824" s="5" t="s">
         <v>1682</v>
       </c>
@@ -22643,7 +22643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A825" s="5" t="s">
         <v>458</v>
       </c>
@@ -22663,7 +22663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A826" s="5" t="s">
         <v>1103</v>
       </c>
@@ -22683,7 +22683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A827" s="5" t="s">
         <v>364</v>
       </c>
@@ -22703,7 +22703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A828" s="5" t="s">
         <v>843</v>
       </c>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A829" s="5" t="s">
         <v>531</v>
       </c>
@@ -22743,7 +22743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A830" s="5" t="s">
         <v>717</v>
       </c>
@@ -22763,7 +22763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A831" s="5" t="s">
         <v>1127</v>
       </c>
@@ -22783,7 +22783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A832" s="5" t="s">
         <v>1363</v>
       </c>
@@ -22803,7 +22803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A833" s="5" t="s">
         <v>1375</v>
       </c>
@@ -22823,7 +22823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A834" s="5" t="s">
         <v>1295</v>
       </c>
@@ -22843,7 +22843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A835" s="5" t="s">
         <v>982</v>
       </c>
@@ -22863,7 +22863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A836" s="5" t="s">
         <v>1131</v>
       </c>
@@ -22883,7 +22883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A837" s="5" t="s">
         <v>245</v>
       </c>
@@ -22903,7 +22903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A838" s="5" t="s">
         <v>1702</v>
       </c>
@@ -22923,7 +22923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A839" s="5" t="s">
         <v>936</v>
       </c>
@@ -22943,7 +22943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A840" s="5" t="s">
         <v>973</v>
       </c>
@@ -22963,7 +22963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A841" s="5" t="s">
         <v>945</v>
       </c>
@@ -22983,7 +22983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A842" s="5" t="s">
         <v>786</v>
       </c>
@@ -23003,7 +23003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A843" s="5" t="s">
         <v>713</v>
       </c>
@@ -23023,7 +23023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A844" s="5" t="s">
         <v>265</v>
       </c>
@@ -23043,7 +23043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A845" s="5" t="s">
         <v>533</v>
       </c>
@@ -23063,7 +23063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A846" s="5" t="s">
         <v>1226</v>
       </c>
@@ -23083,7 +23083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A847" s="5" t="s">
         <v>1146</v>
       </c>
@@ -23103,7 +23103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A848" s="5" t="s">
         <v>1711</v>
       </c>
@@ -23123,7 +23123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A849" s="5" t="s">
         <v>1521</v>
       </c>
@@ -23143,7 +23143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A850" s="5" t="s">
         <v>1024</v>
       </c>
@@ -23163,7 +23163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A851" s="5" t="s">
         <v>594</v>
       </c>
@@ -23183,7 +23183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A852" s="5" t="s">
         <v>1674</v>
       </c>
@@ -23203,7 +23203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A853" s="5" t="s">
         <v>1418</v>
       </c>
@@ -23223,7 +23223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A854" s="5" t="s">
         <v>179</v>
       </c>
@@ -23243,7 +23243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A855" s="5" t="s">
         <v>458</v>
       </c>
@@ -23263,7 +23263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A856" s="5" t="s">
         <v>487</v>
       </c>
@@ -23283,7 +23283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A857" s="5" t="s">
         <v>1247</v>
       </c>
@@ -23303,7 +23303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A858" s="5" t="s">
         <v>1718</v>
       </c>
@@ -23323,7 +23323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A859" s="5" t="s">
         <v>526</v>
       </c>
@@ -23343,7 +23343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A860" s="5" t="s">
         <v>62</v>
       </c>
@@ -23363,7 +23363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A861" s="5" t="s">
         <v>1192</v>
       </c>
@@ -23383,7 +23383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A862" s="5" t="s">
         <v>0</v>
       </c>
@@ -23403,7 +23403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A863" s="5" t="s">
         <v>1724</v>
       </c>
@@ -23423,7 +23423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A864" s="5" t="s">
         <v>1017</v>
       </c>
@@ -23443,7 +23443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A865" s="5" t="s">
         <v>464</v>
       </c>
@@ -23463,7 +23463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A866" s="5" t="s">
         <v>444</v>
       </c>
@@ -23483,7 +23483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A867" s="5" t="s">
         <v>1199</v>
       </c>
@@ -23503,7 +23503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A868" s="5" t="s">
         <v>128</v>
       </c>
@@ -23523,7 +23523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A869" s="5" t="s">
         <v>361</v>
       </c>
@@ -23543,7 +23543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A870" s="5" t="s">
         <v>828</v>
       </c>
@@ -23563,7 +23563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A871" s="5" t="s">
         <v>224</v>
       </c>
@@ -23583,7 +23583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A872" s="5" t="s">
         <v>369</v>
       </c>
@@ -23603,7 +23603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A873" s="5" t="s">
         <v>786</v>
       </c>
@@ -23623,7 +23623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A874" s="5" t="s">
         <v>135</v>
       </c>
@@ -23643,7 +23643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A875" s="5" t="s">
         <v>862</v>
       </c>
@@ -23663,7 +23663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A876" s="5" t="s">
         <v>1024</v>
       </c>
@@ -23683,7 +23683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A877" s="5" t="s">
         <v>1652</v>
       </c>
@@ -23703,7 +23703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A878" s="5" t="s">
         <v>631</v>
       </c>
@@ -23723,7 +23723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A879" s="5" t="s">
         <v>220</v>
       </c>
@@ -23743,7 +23743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A880" s="5" t="s">
         <v>654</v>
       </c>
@@ -23763,7 +23763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A881" s="5" t="s">
         <v>519</v>
       </c>
@@ -23783,7 +23783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A882" s="5" t="s">
         <v>13</v>
       </c>
@@ -23803,7 +23803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A883" s="5" t="s">
         <v>1226</v>
       </c>
@@ -23823,7 +23823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A884" s="5" t="s">
         <v>1752</v>
       </c>
@@ -23843,7 +23843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A885" s="5" t="s">
         <v>828</v>
       </c>
@@ -23863,7 +23863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A886" s="5" t="s">
         <v>534</v>
       </c>
@@ -23883,7 +23883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A887" s="5" t="s">
         <v>1388</v>
       </c>
@@ -23903,7 +23903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A888" s="5" t="s">
         <v>1757</v>
       </c>
@@ -23923,7 +23923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A889" s="5" t="s">
         <v>1759</v>
       </c>
@@ -23943,7 +23943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A890" s="5" t="s">
         <v>453</v>
       </c>
@@ -23963,7 +23963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A891" s="5" t="s">
         <v>1171</v>
       </c>
@@ -23983,7 +23983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A892" s="5" t="s">
         <v>1226</v>
       </c>
@@ -24003,7 +24003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A893" s="5" t="s">
         <v>316</v>
       </c>
@@ -24023,7 +24023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A894" s="5" t="s">
         <v>94</v>
       </c>
@@ -24043,7 +24043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A895" s="5" t="s">
         <v>877</v>
       </c>
@@ -24063,7 +24063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A896" s="5" t="s">
         <v>1769</v>
       </c>
@@ -24083,7 +24083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A897" s="5" t="s">
         <v>383</v>
       </c>
@@ -24103,7 +24103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A898" s="5" t="s">
         <v>570</v>
       </c>
@@ -24123,7 +24123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A899" s="5" t="s">
         <v>748</v>
       </c>
@@ -24143,7 +24143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A900" s="5" t="s">
         <v>1160</v>
       </c>
@@ -24163,7 +24163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A901" s="5" t="s">
         <v>1702</v>
       </c>
@@ -24183,7 +24183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A902" s="5" t="s">
         <v>331</v>
       </c>
@@ -24203,7 +24203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A903" s="5" t="s">
         <v>1204</v>
       </c>
@@ -24223,7 +24223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A904" s="5" t="s">
         <v>390</v>
       </c>
@@ -24243,7 +24243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A905" s="5" t="s">
         <v>1235</v>
       </c>
@@ -24263,7 +24263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A906" s="5" t="s">
         <v>722</v>
       </c>
@@ -24283,7 +24283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A907" s="5" t="s">
         <v>1190</v>
       </c>
@@ -24303,7 +24303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A908" s="5" t="s">
         <v>1295</v>
       </c>
@@ -24323,7 +24323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A909" s="5" t="s">
         <v>1787</v>
       </c>
@@ -24343,7 +24343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A910" s="5" t="s">
         <v>131</v>
       </c>
@@ -24363,7 +24363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A911" s="5" t="s">
         <v>464</v>
       </c>
@@ -24383,7 +24383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A912" s="5" t="s">
         <v>1005</v>
       </c>
@@ -24403,7 +24403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A913" s="5" t="s">
         <v>261</v>
       </c>
@@ -24423,7 +24423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A914" s="5" t="s">
         <v>1640</v>
       </c>
@@ -24443,7 +24443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A915" s="5" t="s">
         <v>570</v>
       </c>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A916" s="5" t="s">
         <v>135</v>
       </c>
@@ -24483,7 +24483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A917" s="5" t="s">
         <v>1388</v>
       </c>
@@ -24503,7 +24503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A918" s="5" t="s">
         <v>285</v>
       </c>
@@ -24523,7 +24523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A919" s="5" t="s">
         <v>28</v>
       </c>
@@ -24543,7 +24543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A920" s="5" t="s">
         <v>53</v>
       </c>
@@ -24563,7 +24563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A921" s="5" t="s">
         <v>1803</v>
       </c>
@@ -24583,7 +24583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A922" s="5" t="s">
         <v>473</v>
       </c>
@@ -24603,7 +24603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A923" s="5" t="s">
         <v>526</v>
       </c>
@@ -24623,7 +24623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A924" s="5" t="s">
         <v>1807</v>
       </c>
@@ -24643,7 +24643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A925" s="5" t="s">
         <v>227</v>
       </c>
@@ -24663,7 +24663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A926" s="5" t="s">
         <v>830</v>
       </c>
@@ -24683,7 +24683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A927" s="5" t="s">
         <v>1349</v>
       </c>
@@ -24703,7 +24703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A928" s="5" t="s">
         <v>17</v>
       </c>
@@ -24723,7 +24723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A929" s="5" t="s">
         <v>664</v>
       </c>
@@ -24743,7 +24743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A930" s="5" t="s">
         <v>336</v>
       </c>
@@ -24763,7 +24763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A931" s="5" t="s">
         <v>1070</v>
       </c>
@@ -24783,7 +24783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A932" s="5" t="s">
         <v>661</v>
       </c>
@@ -24803,7 +24803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A933" s="5" t="s">
         <v>387</v>
       </c>
@@ -24823,7 +24823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A934" s="5" t="s">
         <v>468</v>
       </c>
@@ -24843,7 +24843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A935" s="5" t="s">
         <v>602</v>
       </c>
@@ -24863,7 +24863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A936" s="5" t="s">
         <v>1251</v>
       </c>
@@ -24883,7 +24883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A937" s="5" t="s">
         <v>1394</v>
       </c>
@@ -24903,7 +24903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A938" s="5" t="s">
         <v>1818</v>
       </c>
@@ -24923,7 +24923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A939" s="5" t="s">
         <v>1107</v>
       </c>
@@ -24943,7 +24943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A940" s="5" t="s">
         <v>1529</v>
       </c>
@@ -24963,7 +24963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A941" s="5" t="s">
         <v>748</v>
       </c>
@@ -24983,7 +24983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A942" s="5" t="s">
         <v>265</v>
       </c>
@@ -25003,7 +25003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A943" s="5" t="s">
         <v>1825</v>
       </c>
@@ -25023,7 +25023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A944" s="5" t="s">
         <v>1601</v>
       </c>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A945" s="5" t="s">
         <v>1434</v>
       </c>
@@ -25063,7 +25063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A946" s="5" t="s">
         <v>781</v>
       </c>
@@ -25083,7 +25083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A947" s="5" t="s">
         <v>1769</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A948" s="5" t="s">
         <v>1286</v>
       </c>
@@ -25123,7 +25123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A949" s="5" t="s">
         <v>282</v>
       </c>
@@ -25143,7 +25143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A950" s="5" t="s">
         <v>1563</v>
       </c>
@@ -25163,7 +25163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A951" s="5" t="s">
         <v>935</v>
       </c>
@@ -25183,7 +25183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A952" s="5" t="s">
         <v>1381</v>
       </c>
@@ -25203,7 +25203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="953" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A953" s="5" t="s">
         <v>1658</v>
       </c>
@@ -25223,7 +25223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="954" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A954" s="5" t="s">
         <v>1558</v>
       </c>
@@ -25243,7 +25243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A955" s="5" t="s">
         <v>1558</v>
       </c>
@@ -25263,7 +25263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A956" s="5" t="s">
         <v>1601</v>
       </c>
@@ -25283,7 +25283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="957" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A957" s="5" t="s">
         <v>511</v>
       </c>
@@ -25303,7 +25303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A958" s="5" t="s">
         <v>1370</v>
       </c>
@@ -25323,7 +25323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A959" s="5" t="s">
         <v>1825</v>
       </c>
@@ -25343,7 +25343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A960" s="5" t="s">
         <v>860</v>
       </c>
@@ -25363,7 +25363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="961" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A961" s="5" t="s">
         <v>1843</v>
       </c>
@@ -25383,7 +25383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A962" s="5" t="s">
         <v>935</v>
       </c>
@@ -25403,7 +25403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A963" s="5" t="s">
         <v>380</v>
       </c>
@@ -25423,7 +25423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A964" s="5" t="s">
         <v>746</v>
       </c>
@@ -25443,7 +25443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="965" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A965" s="5" t="s">
         <v>390</v>
       </c>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="966" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A966" s="5" t="s">
         <v>918</v>
       </c>
@@ -25483,7 +25483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="967" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A967" s="5" t="s">
         <v>1851</v>
       </c>
@@ -25503,7 +25503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="968" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A968" s="5" t="s">
         <v>423</v>
       </c>
@@ -25523,7 +25523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A969" s="5" t="s">
         <v>1787</v>
       </c>
@@ -25543,7 +25543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A970" s="5" t="s">
         <v>556</v>
       </c>
@@ -25563,7 +25563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A971" s="5" t="s">
         <v>838</v>
       </c>
@@ -25583,7 +25583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A972" s="5" t="s">
         <v>1226</v>
       </c>
@@ -25603,7 +25603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="973" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A973" s="5" t="s">
         <v>1269</v>
       </c>
@@ -25623,7 +25623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A974" s="5" t="s">
         <v>1521</v>
       </c>
@@ -25643,7 +25643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A975" s="5" t="s">
         <v>770</v>
       </c>
@@ -25663,7 +25663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="976" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A976" s="5" t="s">
         <v>511</v>
       </c>
@@ -25683,7 +25683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="977" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A977" s="5" t="s">
         <v>1259</v>
       </c>
@@ -25703,7 +25703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="978" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A978" s="5" t="s">
         <v>1669</v>
       </c>
@@ -25723,7 +25723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="979" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A979" s="5" t="s">
         <v>982</v>
       </c>
@@ -25743,7 +25743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="980" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A980" s="5" t="s">
         <v>1866</v>
       </c>
@@ -25763,7 +25763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A981" s="5" t="s">
         <v>53</v>
       </c>
@@ -25783,7 +25783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A982" s="5" t="s">
         <v>857</v>
       </c>
@@ -25803,7 +25803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A983" s="5" t="s">
         <v>1558</v>
       </c>
@@ -25823,7 +25823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="984" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A984" s="5" t="s">
         <v>166</v>
       </c>
@@ -25843,7 +25843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="985" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A985" s="5" t="s">
         <v>1875</v>
       </c>
@@ -25863,7 +25863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A986" s="5" t="s">
         <v>62</v>
       </c>
@@ -25883,7 +25883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="987" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A987" s="5" t="s">
         <v>1190</v>
       </c>
@@ -25903,7 +25903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="988" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A988" s="5" t="s">
         <v>368</v>
       </c>
@@ -25923,7 +25923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="989" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A989" s="5" t="s">
         <v>1882</v>
       </c>
@@ -25943,7 +25943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="990" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A990" s="5" t="s">
         <v>374</v>
       </c>
@@ -25963,7 +25963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="991" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A991" s="5" t="s">
         <v>656</v>
       </c>
@@ -25983,7 +25983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="992" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A992" s="5" t="s">
         <v>1590</v>
       </c>
@@ -26003,7 +26003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A993" s="5" t="s">
         <v>1269</v>
       </c>
@@ -26023,7 +26023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="994" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A994" s="5" t="s">
         <v>447</v>
       </c>
@@ -26043,7 +26043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="995" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A995" s="5" t="s">
         <v>1640</v>
       </c>
@@ -26063,7 +26063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="996" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A996" s="5" t="s">
         <v>240</v>
       </c>
@@ -26083,7 +26083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="997" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A997" s="5" t="s">
         <v>1070</v>
       </c>
@@ -26103,7 +26103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A998" s="5" t="s">
         <v>1521</v>
       </c>
@@ -26123,7 +26123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="999" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A999" s="5" t="s">
         <v>1759</v>
       </c>
@@ -26143,7 +26143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1000" s="5" t="s">
         <v>822</v>
       </c>
@@ -26163,7 +26163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1001" s="5" t="s">
         <v>1367</v>
       </c>
@@ -26197,16 +26197,16 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.07421875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.765625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.4609375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -26223,7 +26223,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -26240,7 +26240,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -26257,7 +26257,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -26274,7 +26274,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>73</v>
       </c>
@@ -26291,7 +26291,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
     </row>
@@ -26305,18 +26305,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1851D91F-DA7C-4EA5-959B-DCDBAE8FBF58}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="2.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.53515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.23046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="2.07421875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>48</v>
       </c>
@@ -26330,7 +26330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>67</v>
       </c>
@@ -26344,7 +26344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>64</v>
       </c>
@@ -26358,7 +26358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>134</v>
       </c>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>368</v>
       </c>
@@ -26400,7 +26400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -26414,7 +26414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>1916</v>
       </c>
@@ -26428,7 +26428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>72</v>
       </c>
@@ -26442,7 +26442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>182</v>
       </c>
@@ -26456,7 +26456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -26470,7 +26470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>293</v>
       </c>
@@ -26484,7 +26484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>87</v>
       </c>
@@ -26498,7 +26498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>81</v>
       </c>
@@ -26512,7 +26512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>303</v>
       </c>
@@ -26526,7 +26526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -26540,7 +26540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
@@ -26554,7 +26554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
@@ -26568,7 +26568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>169</v>
       </c>
@@ -26582,7 +26582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>189</v>
       </c>
@@ -26596,7 +26596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>443</v>
       </c>
@@ -26610,7 +26610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>350</v>
       </c>
@@ -26624,7 +26624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
@@ -26638,7 +26638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>343</v>
       </c>
@@ -26652,7 +26652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>599</v>
       </c>
@@ -26666,7 +26666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -26680,7 +26680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>60</v>
       </c>
@@ -26694,7 +26694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
         <v>100</v>
       </c>
@@ -26708,7 +26708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
         <v>155</v>
       </c>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
         <v>16</v>
       </c>
@@ -26736,7 +26736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>419</v>
       </c>
@@ -26750,7 +26750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>720</v>
       </c>
@@ -26764,7 +26764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
         <v>840</v>
       </c>
@@ -26778,7 +26778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
         <v>141</v>
       </c>
@@ -26792,7 +26792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>97</v>
       </c>
@@ -26806,7 +26806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
         <v>39</v>
       </c>
@@ -26820,7 +26820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>145</v>
       </c>
@@ -26834,7 +26834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
         <v>113</v>
       </c>
@@ -26848,7 +26848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
         <v>121</v>
       </c>
@@ -26862,7 +26862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>1917</v>
       </c>
@@ -26876,7 +26876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
         <v>726</v>
       </c>
@@ -26890,7 +26890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
         <v>223</v>
       </c>
@@ -26904,7 +26904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
         <v>117</v>
       </c>
@@ -26918,7 +26918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
         <v>165</v>
       </c>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
         <v>77</v>
       </c>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>254</v>
       </c>
@@ -26960,7 +26960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
         <v>1</v>
       </c>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
         <v>6</v>
       </c>
@@ -26988,7 +26988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
         <v>386</v>
       </c>
@@ -27002,7 +27002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>35</v>
       </c>
@@ -27016,7 +27016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
         <v>226</v>
       </c>
@@ -27044,14 +27044,14 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.23046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.23046875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -27062,7 +27062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -27073,11 +27073,11 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
@@ -27094,12 +27094,12 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>1</v>
       </c>

--- a/src/loader_package/big_pre_load.xlsx
+++ b/src/loader_package/big_pre_load.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://poce-my.sharepoint.com/personal/charles_perold_edu_ece_fr/Documents/ING 3/Informatique - Java/_Projet Gui S5/_Projet GUI_Fork/java_project_desautel_pellen_perold/src/loader_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{4560B6F7-C561-409F-9E40-3EAEB2945EBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="114_{4560B6F7-C561-409F-9E40-3EAEB2945EBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CF054478-8325-4806-A1C4-3A74D51CE4A5}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="27977" windowHeight="18120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="27977" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elector" sheetId="1" r:id="rId1"/>
@@ -6149,8 +6149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9914,7 +9914,7 @@
         <v>561</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>60</v>
+        <v>1917</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>44</v>
@@ -10034,7 +10034,7 @@
         <v>574</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>343</v>
+        <v>1917</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>2</v>
@@ -10234,7 +10234,7 @@
         <v>598</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>599</v>
+        <v>1917</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>7</v>
@@ -10334,7 +10334,7 @@
         <v>611</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>16</v>
+        <v>1917</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>44</v>
@@ -26305,8 +26305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1851D91F-DA7C-4EA5-959B-DCDBAE8FBF58}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/src/loader_package/big_pre_load.xlsx
+++ b/src/loader_package/big_pre_load.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://poce-my.sharepoint.com/personal/charles_perold_edu_ece_fr/Documents/ING 3/Informatique - Java/_Projet Gui S5/_Projet GUI_Fork/java_project_desautel_pellen_perold/src/loader_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="114_{4560B6F7-C561-409F-9E40-3EAEB2945EBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CF054478-8325-4806-A1C4-3A74D51CE4A5}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="114_{4560B6F7-C561-409F-9E40-3EAEB2945EBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E82AF0E1-137D-4C63-A55A-3987235B9526}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="27977" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6149,7 +6149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
@@ -26306,7 +26306,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -26509,7 +26509,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
@@ -26579,7 +26579,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
@@ -26677,7 +26677,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
@@ -26775,7 +26775,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
@@ -26859,7 +26859,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
@@ -26929,7 +26929,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
@@ -26985,7 +26985,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
@@ -27013,7 +27013,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">

--- a/src/loader_package/big_pre_load.xlsx
+++ b/src/loader_package/big_pre_load.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\ING3\Informatique\Projet\java_project_desautel_pellen_perold\src\loader_package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF08E314-B24E-410E-B040-DEE8C1962F0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA34E34F-DA9E-4D40-97C3-AB1E4F023FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5079" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5079" uniqueCount="1912">
   <si>
     <t>Charles</t>
   </si>
@@ -5354,9 +5354,6 @@
   </si>
   <si>
     <t>risus05219</t>
-  </si>
-  <si>
-    <t>Illinoisregion</t>
   </si>
   <si>
     <t>Vivamus-rhoncus0</t>
@@ -6134,8 +6131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A887" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M894" sqref="M894"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6150,19 +6147,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1904</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>1905</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1906</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F1" s="5">
         <v>0</v>
@@ -6222,7 +6219,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -6279,7 +6276,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>6</v>
@@ -6342,7 +6339,7 @@
         <v>44</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F10" s="5">
         <v>0</v>
@@ -6410,7 +6407,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>58</v>
@@ -6430,7 +6427,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>61</v>
@@ -6442,7 +6439,7 @@
         <v>63</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
@@ -6562,7 +6559,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F21" s="5">
         <v>0</v>
@@ -6619,7 +6616,7 @@
         <v>95</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>6</v>
@@ -7082,7 +7079,7 @@
         <v>130</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F47" s="5">
         <v>0</v>
@@ -7359,7 +7356,7 @@
         <v>215</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>6</v>
@@ -7502,7 +7499,7 @@
         <v>5</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F68" s="5">
         <v>0</v>
@@ -7982,7 +7979,7 @@
         <v>44</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F92" s="5">
         <v>0</v>
@@ -8422,7 +8419,7 @@
         <v>16</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F114" s="5">
         <v>0</v>
@@ -8842,7 +8839,7 @@
         <v>77</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F135" s="5">
         <v>0</v>
@@ -9322,7 +9319,7 @@
         <v>382</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F159" s="5">
         <v>0</v>
@@ -9622,7 +9619,7 @@
         <v>16</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F174" s="5">
         <v>0</v>
@@ -9899,7 +9896,7 @@
         <v>557</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>40</v>
@@ -10019,7 +10016,7 @@
         <v>570</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>2</v>
@@ -10162,7 +10159,7 @@
         <v>1</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F201" s="5">
         <v>0</v>
@@ -10219,7 +10216,7 @@
         <v>594</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>6</v>
@@ -10319,7 +10316,7 @@
         <v>607</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>40</v>
@@ -10642,7 +10639,7 @@
         <v>60</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F225" s="5">
         <v>0</v>
@@ -11062,7 +11059,7 @@
         <v>52</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F246" s="5">
         <v>0</v>
@@ -11302,7 +11299,7 @@
         <v>722</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F258" s="5">
         <v>0</v>
@@ -11542,7 +11539,7 @@
         <v>289</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F270" s="5">
         <v>0</v>
@@ -11722,7 +11719,7 @@
         <v>77</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F279" s="5">
         <v>0</v>
@@ -11962,7 +11959,7 @@
         <v>716</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F291" s="5">
         <v>0</v>
@@ -12202,7 +12199,7 @@
         <v>185</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F303" s="5">
         <v>0</v>
@@ -12442,7 +12439,7 @@
         <v>52</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F315" s="5">
         <v>0</v>
@@ -12742,7 +12739,7 @@
         <v>44</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F330" s="5">
         <v>0</v>
@@ -12982,7 +12979,7 @@
         <v>96</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F342" s="5">
         <v>0</v>
@@ -13162,7 +13159,7 @@
         <v>109</v>
       </c>
       <c r="E351" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F351" s="5">
         <v>0</v>
@@ -13522,7 +13519,7 @@
         <v>35</v>
       </c>
       <c r="E369" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F369" s="5">
         <v>0</v>
@@ -13702,7 +13699,7 @@
         <v>35</v>
       </c>
       <c r="E378" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F378" s="5">
         <v>0</v>
@@ -13942,7 +13939,7 @@
         <v>96</v>
       </c>
       <c r="E390" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F390" s="5">
         <v>0</v>
@@ -14242,7 +14239,7 @@
         <v>415</v>
       </c>
       <c r="E405" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F405" s="5">
         <v>0</v>
@@ -14482,7 +14479,7 @@
         <v>1</v>
       </c>
       <c r="E417" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F417" s="5">
         <v>0</v>
@@ -14722,7 +14719,7 @@
         <v>346</v>
       </c>
       <c r="E429" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F429" s="5">
         <v>0</v>
@@ -14902,7 +14899,7 @@
         <v>68</v>
       </c>
       <c r="E438" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F438" s="5">
         <v>0</v>
@@ -15202,7 +15199,7 @@
         <v>130</v>
       </c>
       <c r="E453" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F453" s="5">
         <v>0</v>
@@ -15502,7 +15499,7 @@
         <v>60</v>
       </c>
       <c r="E468" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F468" s="5">
         <v>0</v>
@@ -15862,7 +15859,7 @@
         <v>109</v>
       </c>
       <c r="E486" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F486" s="5">
         <v>0</v>
@@ -16162,7 +16159,7 @@
         <v>117</v>
       </c>
       <c r="E501" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F501" s="5">
         <v>0</v>
@@ -16522,7 +16519,7 @@
         <v>716</v>
       </c>
       <c r="E519" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F519" s="5">
         <v>0</v>
@@ -16882,7 +16879,7 @@
         <v>185</v>
       </c>
       <c r="E537" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F537" s="5">
         <v>0</v>
@@ -17242,7 +17239,7 @@
         <v>151</v>
       </c>
       <c r="E555" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F555" s="5">
         <v>0</v>
@@ -17542,7 +17539,7 @@
         <v>161</v>
       </c>
       <c r="E570" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F570" s="5">
         <v>0</v>
@@ -18022,7 +18019,7 @@
         <v>346</v>
       </c>
       <c r="E594" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F594" s="5">
         <v>0</v>
@@ -18382,7 +18379,7 @@
         <v>52</v>
       </c>
       <c r="E612" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F612" s="5">
         <v>0</v>
@@ -18742,7 +18739,7 @@
         <v>113</v>
       </c>
       <c r="E630" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F630" s="5">
         <v>0</v>
@@ -19102,7 +19099,7 @@
         <v>250</v>
       </c>
       <c r="E648" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F648" s="5">
         <v>0</v>
@@ -19582,7 +19579,7 @@
         <v>77</v>
       </c>
       <c r="E672" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F672" s="5">
         <v>0</v>
@@ -20062,7 +20059,7 @@
         <v>339</v>
       </c>
       <c r="E696" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F696" s="5">
         <v>0</v>
@@ -20542,7 +20539,7 @@
         <v>96</v>
       </c>
       <c r="E720" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F720" s="5">
         <v>0</v>
@@ -20962,7 +20959,7 @@
         <v>60</v>
       </c>
       <c r="E741" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F741" s="5">
         <v>0</v>
@@ -21502,7 +21499,7 @@
         <v>52</v>
       </c>
       <c r="E768" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F768" s="5">
         <v>0</v>
@@ -22102,7 +22099,7 @@
         <v>289</v>
       </c>
       <c r="E798" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F798" s="5">
         <v>0</v>
@@ -22402,7 +22399,7 @@
         <v>346</v>
       </c>
       <c r="E813" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F813" s="5">
         <v>0</v>
@@ -22702,7 +22699,7 @@
         <v>16</v>
       </c>
       <c r="E828" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F828" s="5">
         <v>0</v>
@@ -22942,7 +22939,7 @@
         <v>113</v>
       </c>
       <c r="E840" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F840" s="5">
         <v>0</v>
@@ -23182,7 +23179,7 @@
         <v>595</v>
       </c>
       <c r="E852" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F852" s="5">
         <v>0</v>
@@ -23422,7 +23419,7 @@
         <v>31</v>
       </c>
       <c r="E864" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F864" s="5">
         <v>0</v>
@@ -23662,7 +23659,7 @@
         <v>4</v>
       </c>
       <c r="E876" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F876" s="5">
         <v>0</v>
@@ -23842,7 +23839,7 @@
         <v>364</v>
       </c>
       <c r="E885" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F885" s="5">
         <v>0</v>
@@ -24022,7 +24019,7 @@
         <v>836</v>
       </c>
       <c r="E894" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F894" s="5">
         <v>0</v>
@@ -24159,7 +24156,7 @@
         <v>1771</v>
       </c>
       <c r="D901" s="5" t="s">
-        <v>1772</v>
+        <v>77</v>
       </c>
       <c r="E901" s="5" t="s">
         <v>2</v>
@@ -24176,7 +24173,7 @@
         <v>1375</v>
       </c>
       <c r="C902" s="5" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D902" s="5" t="s">
         <v>113</v>
@@ -24193,10 +24190,10 @@
         <v>1200</v>
       </c>
       <c r="B903" s="5" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C903" s="5" t="s">
         <v>1774</v>
-      </c>
-      <c r="C903" s="5" t="s">
-        <v>1775</v>
       </c>
       <c r="D903" s="5" t="s">
         <v>5</v>
@@ -24213,10 +24210,10 @@
         <v>386</v>
       </c>
       <c r="B904" s="5" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C904" s="5" t="s">
         <v>1776</v>
-      </c>
-      <c r="C904" s="5" t="s">
-        <v>1777</v>
       </c>
       <c r="D904" s="5" t="s">
         <v>151</v>
@@ -24236,7 +24233,7 @@
         <v>230</v>
       </c>
       <c r="C905" s="5" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="D905" s="5" t="s">
         <v>109</v>
@@ -24253,16 +24250,16 @@
         <v>718</v>
       </c>
       <c r="B906" s="5" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C906" s="5" t="s">
         <v>1779</v>
-      </c>
-      <c r="C906" s="5" t="s">
-        <v>1780</v>
       </c>
       <c r="D906" s="5" t="s">
         <v>151</v>
       </c>
       <c r="E906" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F906" s="5">
         <v>0</v>
@@ -24273,10 +24270,10 @@
         <v>1186</v>
       </c>
       <c r="B907" s="5" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C907" s="5" t="s">
         <v>1781</v>
-      </c>
-      <c r="C907" s="5" t="s">
-        <v>1782</v>
       </c>
       <c r="D907" s="5" t="s">
         <v>169</v>
@@ -24310,13 +24307,13 @@
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A909" s="5" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B909" s="5" t="s">
         <v>1783</v>
       </c>
-      <c r="B909" s="5" t="s">
+      <c r="C909" s="5" t="s">
         <v>1784</v>
-      </c>
-      <c r="C909" s="5" t="s">
-        <v>1785</v>
       </c>
       <c r="D909" s="5" t="s">
         <v>35</v>
@@ -24333,10 +24330,10 @@
         <v>127</v>
       </c>
       <c r="B910" s="5" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C910" s="5" t="s">
         <v>1786</v>
-      </c>
-      <c r="C910" s="5" t="s">
-        <v>1787</v>
       </c>
       <c r="D910" s="5" t="s">
         <v>35</v>
@@ -24356,7 +24353,7 @@
         <v>679</v>
       </c>
       <c r="C911" s="5" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D911" s="5" t="s">
         <v>716</v>
@@ -24393,10 +24390,10 @@
         <v>257</v>
       </c>
       <c r="B913" s="5" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C913" s="5" t="s">
         <v>1789</v>
-      </c>
-      <c r="C913" s="5" t="s">
-        <v>1790</v>
       </c>
       <c r="D913" s="5" t="s">
         <v>289</v>
@@ -24416,7 +24413,7 @@
         <v>1183</v>
       </c>
       <c r="C914" s="5" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D914" s="5" t="s">
         <v>836</v>
@@ -24433,16 +24430,16 @@
         <v>566</v>
       </c>
       <c r="B915" s="5" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C915" s="5" t="s">
         <v>1792</v>
-      </c>
-      <c r="C915" s="5" t="s">
-        <v>1793</v>
       </c>
       <c r="D915" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E915" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F915" s="5">
         <v>0</v>
@@ -24456,7 +24453,7 @@
         <v>679</v>
       </c>
       <c r="C916" s="5" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="D916" s="5" t="s">
         <v>346</v>
@@ -24513,10 +24510,10 @@
         <v>24</v>
       </c>
       <c r="B919" s="5" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C919" s="5" t="s">
         <v>1795</v>
-      </c>
-      <c r="C919" s="5" t="s">
-        <v>1796</v>
       </c>
       <c r="D919" s="5" t="s">
         <v>63</v>
@@ -24533,10 +24530,10 @@
         <v>49</v>
       </c>
       <c r="B920" s="5" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C920" s="5" t="s">
         <v>1797</v>
-      </c>
-      <c r="C920" s="5" t="s">
-        <v>1798</v>
       </c>
       <c r="D920" s="5" t="s">
         <v>178</v>
@@ -24550,13 +24547,13 @@
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A921" s="5" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B921" s="5" t="s">
         <v>513</v>
       </c>
       <c r="C921" s="5" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D921" s="5" t="s">
         <v>130</v>
@@ -24573,10 +24570,10 @@
         <v>469</v>
       </c>
       <c r="B922" s="5" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C922" s="5" t="s">
         <v>1801</v>
-      </c>
-      <c r="C922" s="5" t="s">
-        <v>1802</v>
       </c>
       <c r="D922" s="5" t="s">
         <v>39</v>
@@ -24610,13 +24607,13 @@
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A924" s="5" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B924" s="5" t="s">
         <v>1062</v>
       </c>
       <c r="C924" s="5" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D924" s="5" t="s">
         <v>382</v>
@@ -24636,7 +24633,7 @@
         <v>1091</v>
       </c>
       <c r="C925" s="5" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D925" s="5" t="s">
         <v>48</v>
@@ -24676,7 +24673,7 @@
         <v>1578</v>
       </c>
       <c r="C927" s="5" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D927" s="5" t="s">
         <v>364</v>
@@ -24696,13 +24693,13 @@
         <v>1220</v>
       </c>
       <c r="C928" s="5" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D928" s="5" t="s">
         <v>716</v>
       </c>
       <c r="E928" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F928" s="5">
         <v>0</v>
@@ -24716,7 +24713,7 @@
         <v>315</v>
       </c>
       <c r="C929" s="5" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D929" s="5" t="s">
         <v>151</v>
@@ -24736,7 +24733,7 @@
         <v>1163</v>
       </c>
       <c r="C930" s="5" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D930" s="5" t="s">
         <v>346</v>
@@ -24753,7 +24750,7 @@
         <v>1066</v>
       </c>
       <c r="B931" s="5" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="C931" s="5" t="s">
         <v>1344</v>
@@ -24776,7 +24773,7 @@
         <v>513</v>
       </c>
       <c r="C932" s="5" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D932" s="5" t="s">
         <v>364</v>
@@ -24796,7 +24793,7 @@
         <v>1178</v>
       </c>
       <c r="C933" s="5" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D933" s="5" t="s">
         <v>415</v>
@@ -24853,7 +24850,7 @@
         <v>1247</v>
       </c>
       <c r="B936" s="5" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C936" s="5" t="s">
         <v>795</v>
@@ -24890,13 +24887,13 @@
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A938" s="5" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B938" s="5" t="s">
         <v>997</v>
       </c>
       <c r="C938" s="5" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D938" s="5" t="s">
         <v>382</v>
@@ -24916,7 +24913,7 @@
         <v>890</v>
       </c>
       <c r="C939" s="5" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D939" s="5" t="s">
         <v>109</v>
@@ -24953,10 +24950,10 @@
         <v>744</v>
       </c>
       <c r="B941" s="5" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C941" s="5" t="s">
         <v>1817</v>
-      </c>
-      <c r="C941" s="5" t="s">
-        <v>1818</v>
       </c>
       <c r="D941" s="5" t="s">
         <v>44</v>
@@ -24973,10 +24970,10 @@
         <v>261</v>
       </c>
       <c r="B942" s="5" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C942" s="5" t="s">
         <v>1819</v>
-      </c>
-      <c r="C942" s="5" t="s">
-        <v>1820</v>
       </c>
       <c r="D942" s="5" t="s">
         <v>63</v>
@@ -24990,13 +24987,13 @@
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A943" s="5" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B943" s="5" t="s">
         <v>111</v>
       </c>
       <c r="C943" s="5" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D943" s="5" t="s">
         <v>12</v>
@@ -25013,7 +25010,7 @@
         <v>1597</v>
       </c>
       <c r="B944" s="5" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C944" s="5" t="s">
         <v>1669</v>
@@ -25022,7 +25019,7 @@
         <v>5</v>
       </c>
       <c r="E944" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F944" s="5">
         <v>0</v>
@@ -25033,10 +25030,10 @@
         <v>1430</v>
       </c>
       <c r="B945" s="5" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C945" s="5" t="s">
         <v>1824</v>
-      </c>
-      <c r="C945" s="5" t="s">
-        <v>1825</v>
       </c>
       <c r="D945" s="5" t="s">
         <v>48</v>
@@ -25053,10 +25050,10 @@
         <v>777</v>
       </c>
       <c r="B946" s="5" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C946" s="5" t="s">
         <v>1826</v>
-      </c>
-      <c r="C946" s="5" t="s">
-        <v>1827</v>
       </c>
       <c r="D946" s="5" t="s">
         <v>31</v>
@@ -25076,7 +25073,7 @@
         <v>1104</v>
       </c>
       <c r="C947" s="5" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D947" s="5" t="s">
         <v>595</v>
@@ -25096,7 +25093,7 @@
         <v>1457</v>
       </c>
       <c r="C948" s="5" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D948" s="5" t="s">
         <v>73</v>
@@ -25136,7 +25133,7 @@
         <v>658</v>
       </c>
       <c r="C950" s="5" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D950" s="5" t="s">
         <v>185</v>
@@ -25176,7 +25173,7 @@
         <v>371</v>
       </c>
       <c r="C952" s="5" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D952" s="5" t="s">
         <v>117</v>
@@ -25196,7 +25193,7 @@
         <v>684</v>
       </c>
       <c r="C953" s="5" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D953" s="5" t="s">
         <v>16</v>
@@ -25256,7 +25253,7 @@
         <v>1200</v>
       </c>
       <c r="C956" s="5" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D956" s="5" t="s">
         <v>4</v>
@@ -25273,10 +25270,10 @@
         <v>507</v>
       </c>
       <c r="B957" s="5" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C957" s="5" t="s">
         <v>1834</v>
-      </c>
-      <c r="C957" s="5" t="s">
-        <v>1835</v>
       </c>
       <c r="D957" s="5" t="s">
         <v>130</v>
@@ -25296,7 +25293,7 @@
         <v>1729</v>
       </c>
       <c r="C958" s="5" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D958" s="5" t="s">
         <v>439</v>
@@ -25310,10 +25307,10 @@
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A959" s="5" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B959" s="5" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="C959" s="5" t="s">
         <v>756</v>
@@ -25336,7 +25333,7 @@
         <v>447</v>
       </c>
       <c r="C960" s="5" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D960" s="5" t="s">
         <v>44</v>
@@ -25350,13 +25347,13 @@
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A961" s="5" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B961" s="5" t="s">
         <v>1839</v>
       </c>
-      <c r="B961" s="5" t="s">
+      <c r="C961" s="5" t="s">
         <v>1840</v>
-      </c>
-      <c r="C961" s="5" t="s">
-        <v>1841</v>
       </c>
       <c r="D961" s="5" t="s">
         <v>595</v>
@@ -25373,10 +25370,10 @@
         <v>931</v>
       </c>
       <c r="B962" s="5" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C962" s="5" t="s">
         <v>1842</v>
-      </c>
-      <c r="C962" s="5" t="s">
-        <v>1843</v>
       </c>
       <c r="D962" s="5" t="s">
         <v>113</v>
@@ -25393,7 +25390,7 @@
         <v>376</v>
       </c>
       <c r="B963" s="5" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C963" s="5" t="s">
         <v>1207</v>
@@ -25416,7 +25413,7 @@
         <v>139</v>
       </c>
       <c r="C964" s="5" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D964" s="5" t="s">
         <v>73</v>
@@ -25436,7 +25433,7 @@
         <v>1601</v>
       </c>
       <c r="C965" s="5" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D965" s="5" t="s">
         <v>289</v>
@@ -25470,10 +25467,10 @@
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A967" s="5" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B967" s="5" t="s">
         <v>1847</v>
-      </c>
-      <c r="B967" s="5" t="s">
-        <v>1848</v>
       </c>
       <c r="C967" s="5" t="s">
         <v>728</v>
@@ -25496,7 +25493,7 @@
         <v>1496</v>
       </c>
       <c r="C968" s="5" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D968" s="5" t="s">
         <v>56</v>
@@ -25510,13 +25507,13 @@
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A969" s="5" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B969" s="5" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C969" s="5" t="s">
         <v>1850</v>
-      </c>
-      <c r="C969" s="5" t="s">
-        <v>1851</v>
       </c>
       <c r="D969" s="5" t="s">
         <v>250</v>
@@ -25533,10 +25530,10 @@
         <v>552</v>
       </c>
       <c r="B970" s="5" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C970" s="5" t="s">
         <v>1852</v>
-      </c>
-      <c r="C970" s="5" t="s">
-        <v>1853</v>
       </c>
       <c r="D970" s="5" t="s">
         <v>185</v>
@@ -25553,16 +25550,16 @@
         <v>834</v>
       </c>
       <c r="B971" s="5" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C971" s="5" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D971" s="5" t="s">
         <v>96</v>
       </c>
       <c r="E971" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F971" s="5">
         <v>0</v>
@@ -25573,7 +25570,7 @@
         <v>1222</v>
       </c>
       <c r="B972" s="5" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="C972" s="5" t="s">
         <v>1650</v>
@@ -25596,7 +25593,7 @@
         <v>843</v>
       </c>
       <c r="C973" s="5" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="D973" s="5" t="s">
         <v>364</v>
@@ -25633,10 +25630,10 @@
         <v>766</v>
       </c>
       <c r="B975" s="5" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C975" s="5" t="s">
         <v>1856</v>
-      </c>
-      <c r="C975" s="5" t="s">
-        <v>1857</v>
       </c>
       <c r="D975" s="5" t="s">
         <v>27</v>
@@ -25656,7 +25653,7 @@
         <v>684</v>
       </c>
       <c r="C976" s="5" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D976" s="5" t="s">
         <v>836</v>
@@ -25676,7 +25673,7 @@
         <v>1515</v>
       </c>
       <c r="C977" s="5" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D977" s="5" t="s">
         <v>439</v>
@@ -25696,7 +25693,7 @@
         <v>961</v>
       </c>
       <c r="C978" s="5" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="D978" s="5" t="s">
         <v>109</v>
@@ -25713,10 +25710,10 @@
         <v>978</v>
       </c>
       <c r="B979" s="5" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C979" s="5" t="s">
         <v>1860</v>
-      </c>
-      <c r="C979" s="5" t="s">
-        <v>1861</v>
       </c>
       <c r="D979" s="5" t="s">
         <v>161</v>
@@ -25730,13 +25727,13 @@
     </row>
     <row r="980" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A980" s="5" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B980" s="5" t="s">
         <v>1131</v>
       </c>
       <c r="C980" s="5" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D980" s="5" t="s">
         <v>346</v>
@@ -25753,10 +25750,10 @@
         <v>49</v>
       </c>
       <c r="B981" s="5" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C981" s="5" t="s">
         <v>1864</v>
-      </c>
-      <c r="C981" s="5" t="s">
-        <v>1865</v>
       </c>
       <c r="D981" s="5" t="s">
         <v>5</v>
@@ -25776,7 +25773,7 @@
         <v>300</v>
       </c>
       <c r="C982" s="5" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D982" s="5" t="s">
         <v>113</v>
@@ -25793,10 +25790,10 @@
         <v>1554</v>
       </c>
       <c r="B983" s="5" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C983" s="5" t="s">
         <v>1867</v>
-      </c>
-      <c r="C983" s="5" t="s">
-        <v>1868</v>
       </c>
       <c r="D983" s="5" t="s">
         <v>165</v>
@@ -25813,10 +25810,10 @@
         <v>162</v>
       </c>
       <c r="B984" s="5" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C984" s="5" t="s">
         <v>1869</v>
-      </c>
-      <c r="C984" s="5" t="s">
-        <v>1870</v>
       </c>
       <c r="D984" s="5" t="s">
         <v>35</v>
@@ -25830,13 +25827,13 @@
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A985" s="5" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B985" s="5" t="s">
         <v>1871</v>
       </c>
-      <c r="B985" s="5" t="s">
-        <v>1872</v>
-      </c>
       <c r="C985" s="5" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D985" s="5" t="s">
         <v>23</v>
@@ -25853,10 +25850,10 @@
         <v>58</v>
       </c>
       <c r="B986" s="5" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C986" s="5" t="s">
         <v>1873</v>
-      </c>
-      <c r="C986" s="5" t="s">
-        <v>1874</v>
       </c>
       <c r="D986" s="5" t="s">
         <v>39</v>
@@ -25873,10 +25870,10 @@
         <v>1186</v>
       </c>
       <c r="B987" s="5" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C987" s="5" t="s">
         <v>1875</v>
-      </c>
-      <c r="C987" s="5" t="s">
-        <v>1876</v>
       </c>
       <c r="D987" s="5" t="s">
         <v>141</v>
@@ -25896,7 +25893,7 @@
         <v>467</v>
       </c>
       <c r="C988" s="5" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D988" s="5" t="s">
         <v>31</v>
@@ -25910,13 +25907,13 @@
     </row>
     <row r="989" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A989" s="5" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B989" s="5" t="s">
         <v>1878</v>
       </c>
-      <c r="B989" s="5" t="s">
+      <c r="C989" s="5" t="s">
         <v>1879</v>
-      </c>
-      <c r="C989" s="5" t="s">
-        <v>1880</v>
       </c>
       <c r="D989" s="5" t="s">
         <v>27</v>
@@ -25973,7 +25970,7 @@
         <v>1586</v>
       </c>
       <c r="B992" s="5" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="C992" s="5" t="s">
         <v>1454</v>
@@ -25996,7 +25993,7 @@
         <v>794</v>
       </c>
       <c r="C993" s="5" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D993" s="5" t="s">
         <v>27</v>
@@ -26013,10 +26010,10 @@
         <v>443</v>
       </c>
       <c r="B994" s="5" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C994" s="5" t="s">
         <v>1883</v>
-      </c>
-      <c r="C994" s="5" t="s">
-        <v>1884</v>
       </c>
       <c r="D994" s="5" t="s">
         <v>716</v>
@@ -26036,7 +26033,7 @@
         <v>1094</v>
       </c>
       <c r="C995" s="5" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="D995" s="5" t="s">
         <v>595</v>
@@ -26053,10 +26050,10 @@
         <v>236</v>
       </c>
       <c r="B996" s="5" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C996" s="5" t="s">
         <v>1886</v>
-      </c>
-      <c r="C996" s="5" t="s">
-        <v>1887</v>
       </c>
       <c r="D996" s="5" t="s">
         <v>161</v>
@@ -26073,10 +26070,10 @@
         <v>1066</v>
       </c>
       <c r="B997" s="5" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C997" s="5" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="D997" s="5" t="s">
         <v>439</v>
@@ -26116,7 +26113,7 @@
         <v>1513</v>
       </c>
       <c r="C999" s="5" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="D999" s="5" t="s">
         <v>339</v>
@@ -26136,7 +26133,7 @@
         <v>1746</v>
       </c>
       <c r="C1000" s="5" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="D1000" s="5" t="s">
         <v>364</v>
@@ -26156,7 +26153,7 @@
         <v>993</v>
       </c>
       <c r="C1001" s="5" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="D1001" s="5" t="s">
         <v>346</v>
@@ -26199,10 +26196,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1892</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1893</v>
       </c>
       <c r="E1" s="1">
         <v>422</v>
@@ -26219,7 +26216,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E2" s="2">
         <v>346</v>
@@ -26230,13 +26227,13 @@
         <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1900</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>1901</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="E3" s="2">
         <v>96</v>
@@ -26247,13 +26244,13 @@
         <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="E4" s="2">
         <v>55</v>
@@ -26264,13 +26261,13 @@
         <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E5" s="2">
         <v>36</v>
@@ -26401,7 +26398,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
@@ -26849,7 +26846,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B40" s="2">
         <v>4</v>
@@ -27038,13 +27035,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">

--- a/src/loader_package/big_pre_load.xlsx
+++ b/src/loader_package/big_pre_load.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\ING3\Informatique\Projet\java_project_desautel_pellen_perold\src\loader_package\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://poce-my.sharepoint.com/personal/charles_perold_edu_ece_fr/Documents/ING 3/Informatique - Java/_Projet Gui S5/_Projet GUI_Fork/java_project_desautel_pellen_perold/src/loader_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA34E34F-DA9E-4D40-97C3-AB1E4F023FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{B399591D-5F6E-41E0-B237-1997D581FB01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="27977" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elector" sheetId="1" r:id="rId1"/>
@@ -6131,21 +6131,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A887" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M894" sqref="M894"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.4609375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.07421875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>1903</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>1907</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>1908</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>65</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>74</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>78</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>84</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>87</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>90</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>53</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>97</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>100</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>103</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
         <v>106</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
         <v>110</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
         <v>114</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>118</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>121</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
         <v>124</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
         <v>127</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>131</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
         <v>134</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>138</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
         <v>142</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
         <v>145</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>148</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
         <v>152</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
         <v>155</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
         <v>158</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
         <v>162</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
         <v>166</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>170</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
         <v>121</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
         <v>175</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
         <v>179</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>182</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
         <v>186</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
         <v>189</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
         <v>191</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
         <v>194</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
         <v>197</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
         <v>200</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="5" t="s">
         <v>36</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="s">
         <v>205</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="5" t="s">
         <v>207</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
         <v>210</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
         <v>213</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
         <v>216</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="5" t="s">
         <v>220</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
         <v>223</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="5" t="s">
         <v>226</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="5" t="s">
         <v>229</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="5" t="s">
         <v>232</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="5" t="s">
         <v>235</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="5" t="s">
         <v>238</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="5" t="s">
         <v>241</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="5" t="s">
         <v>244</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="5" t="s">
         <v>247</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="5" t="s">
         <v>251</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="5" t="s">
         <v>254</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="5" t="s">
         <v>257</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="5" t="s">
         <v>260</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="5" t="s">
         <v>263</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="5" t="s">
         <v>266</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="5" t="s">
         <v>269</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="5" t="s">
         <v>272</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="5" t="s">
         <v>275</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="5" t="s">
         <v>278</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="5" t="s">
         <v>281</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="5" t="s">
         <v>283</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="5" t="s">
         <v>286</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="5" t="s">
         <v>290</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="5" t="s">
         <v>293</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="5" t="s">
         <v>296</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="5" t="s">
         <v>300</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="5" t="s">
         <v>303</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="5" t="s">
         <v>306</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="5" t="s">
         <v>309</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="5" t="s">
         <v>312</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="5" t="s">
         <v>314</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="5" t="s">
         <v>317</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="5" t="s">
         <v>167</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="5" t="s">
         <v>293</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="5" t="s">
         <v>324</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="5" t="s">
         <v>244</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="5" t="s">
         <v>329</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="5" t="s">
         <v>332</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="5" t="s">
         <v>269</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="5" t="s">
         <v>312</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="5" t="s">
         <v>340</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="5" t="s">
         <v>343</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="5" t="s">
         <v>347</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="5" t="s">
         <v>220</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="5" t="s">
         <v>58</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="5" t="s">
         <v>110</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="5" t="s">
         <v>354</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="5" t="s">
         <v>357</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="5" t="s">
         <v>360</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="5" t="s">
         <v>162</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="5" t="s">
         <v>365</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="5" t="s">
         <v>368</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="5" t="s">
         <v>370</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="5" t="s">
         <v>373</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="5" t="s">
         <v>376</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="5" t="s">
         <v>379</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="5" t="s">
         <v>383</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="5" t="s">
         <v>386</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="5" t="s">
         <v>389</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="5" t="s">
         <v>392</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="5" t="s">
         <v>354</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="5" t="s">
         <v>223</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="5" t="s">
         <v>399</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="5" t="s">
         <v>309</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="5" t="s">
         <v>158</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="5" t="s">
         <v>406</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="5" t="s">
         <v>148</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="5" t="s">
         <v>303</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="5" t="s">
         <v>314</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="5" t="s">
         <v>416</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="5" t="s">
         <v>419</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="5" t="s">
         <v>213</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="5" t="s">
         <v>49</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="5" t="s">
         <v>426</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="5" t="s">
         <v>429</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="5" t="s">
         <v>432</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="5" t="s">
         <v>167</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="5" t="s">
         <v>238</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="5" t="s">
         <v>440</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="5" t="s">
         <v>443</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="5" t="s">
         <v>446</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="5" t="s">
         <v>449</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="5" t="s">
         <v>452</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="5" t="s">
         <v>454</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="5" t="s">
         <v>457</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="5" t="s">
         <v>460</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="5" t="s">
         <v>463</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="5" t="s">
         <v>466</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="5" t="s">
         <v>469</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" s="5" t="s">
         <v>32</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" s="5" t="s">
         <v>473</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" s="5" t="s">
         <v>476</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="5" t="s">
         <v>479</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" s="5" t="s">
         <v>207</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" s="5" t="s">
         <v>483</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" s="5" t="s">
         <v>486</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" s="5" t="s">
         <v>251</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" s="5" t="s">
         <v>491</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" s="5" t="s">
         <v>494</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" s="5" t="s">
         <v>236</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" s="5" t="s">
         <v>498</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" s="5" t="s">
         <v>500</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" s="5" t="s">
         <v>332</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" s="5" t="s">
         <v>505</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168" s="5" t="s">
         <v>507</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" s="5" t="s">
         <v>509</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170" s="5" t="s">
         <v>512</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A171" s="5" t="s">
         <v>515</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A172" s="5" t="s">
         <v>255</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173" s="5" t="s">
         <v>386</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A174" s="5" t="s">
         <v>522</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A175" s="5" t="s">
         <v>524</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A176" s="5" t="s">
         <v>527</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A177" s="5" t="s">
         <v>529</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A178" s="5" t="s">
         <v>229</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A179" s="5" t="s">
         <v>534</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A180" s="5" t="s">
         <v>537</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A181" s="5" t="s">
         <v>540</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A182" s="5" t="s">
         <v>542</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A183" s="5" t="s">
         <v>545</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A184" s="5" t="s">
         <v>547</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A185" s="5" t="s">
         <v>303</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A186" s="5" t="s">
         <v>552</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A187" s="5" t="s">
         <v>555</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A188" s="5" t="s">
         <v>324</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A189" s="5" t="s">
         <v>558</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A190" s="5" t="s">
         <v>226</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A191" s="5" t="s">
         <v>406</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A192" s="5" t="s">
         <v>564</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A193" s="5" t="s">
         <v>566</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A194" s="5" t="s">
         <v>568</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A195" s="5" t="s">
         <v>260</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A196" s="5" t="s">
         <v>340</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A197" s="5" t="s">
         <v>574</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A198" s="5" t="s">
         <v>577</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A199" s="5" t="s">
         <v>580</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A200" s="5" t="s">
         <v>583</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A201" s="5" t="s">
         <v>446</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A202" s="5" t="s">
         <v>588</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A203" s="5" t="s">
         <v>590</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A204" s="5" t="s">
         <v>593</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A205" s="5" t="s">
         <v>223</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A206" s="5" t="s">
         <v>598</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A207" s="5" t="s">
         <v>601</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A208" s="5" t="s">
         <v>376</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A209" s="5" t="s">
         <v>605</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A210" s="5" t="s">
         <v>608</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A211" s="5" t="s">
         <v>580</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A212" s="5" t="s">
         <v>613</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A213" s="5" t="s">
         <v>20</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A214" s="5" t="s">
         <v>307</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215" s="5" t="s">
         <v>620</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A216" s="5" t="s">
         <v>32</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A217" s="5" t="s">
         <v>624</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A218" s="5" t="s">
         <v>627</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219" s="5" t="s">
         <v>630</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A220" s="5" t="s">
         <v>343</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A221" s="5" t="s">
         <v>244</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A222" s="5" t="s">
         <v>636</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A223" s="5" t="s">
         <v>244</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A224" s="5" t="s">
         <v>641</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A225" s="5" t="s">
         <v>644</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A226" s="5" t="s">
         <v>621</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A227" s="5" t="s">
         <v>647</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A228" s="5" t="s">
         <v>650</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A229" s="5" t="s">
         <v>652</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A230" s="5" t="s">
         <v>654</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A231" s="5" t="s">
         <v>97</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A232" s="5" t="s">
         <v>657</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A233" s="5" t="s">
         <v>660</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A234" s="5" t="s">
         <v>663</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A235" s="5" t="s">
         <v>449</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A236" s="5" t="s">
         <v>290</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A237" s="5" t="s">
         <v>668</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A238" s="5" t="s">
         <v>671</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A239" s="5" t="s">
         <v>406</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A240" s="5" t="s">
         <v>238</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A241" s="5" t="s">
         <v>678</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A242" s="5" t="s">
         <v>484</v>
       </c>
@@ -10985,7 +10985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A243" s="5" t="s">
         <v>683</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A244" s="5" t="s">
         <v>686</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A245" s="5" t="s">
         <v>370</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A246" s="5" t="s">
         <v>691</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A247" s="5" t="s">
         <v>446</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A248" s="5" t="s">
         <v>696</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A249" s="5" t="s">
         <v>699</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A250" s="5" t="s">
         <v>701</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A251" s="5" t="s">
         <v>704</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A252" s="5" t="s">
         <v>706</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A253" s="5" t="s">
         <v>709</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A254" s="5" t="s">
         <v>400</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A255" s="5" t="s">
         <v>713</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A256" s="5" t="s">
         <v>114</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A257" s="5" t="s">
         <v>718</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A258" s="5" t="s">
         <v>621</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A259" s="5" t="s">
         <v>399</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A260" s="5" t="s">
         <v>463</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A261" s="5" t="s">
         <v>368</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A262" s="5" t="s">
         <v>729</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A263" s="5" t="s">
         <v>429</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A264" s="5" t="s">
         <v>732</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A265" s="5" t="s">
         <v>735</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A266" s="5" t="s">
         <v>399</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A267" s="5" t="s">
         <v>739</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A268" s="5" t="s">
         <v>247</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A269" s="5" t="s">
         <v>744</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A270" s="5" t="s">
         <v>746</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A271" s="5" t="s">
         <v>749</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A272" s="5" t="s">
         <v>751</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A273" s="5" t="s">
         <v>754</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A274" s="5" t="s">
         <v>558</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A275" s="5" t="s">
         <v>309</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A276" s="5" t="s">
         <v>189</v>
       </c>
@@ -11665,7 +11665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A277" s="5" t="s">
         <v>763</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A278" s="5" t="s">
         <v>766</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A279" s="5" t="s">
         <v>422</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A280" s="5" t="s">
         <v>771</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A281" s="5" t="s">
         <v>774</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A282" s="5" t="s">
         <v>373</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A283" s="5" t="s">
         <v>419</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A284" s="5" t="s">
         <v>780</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A285" s="5" t="s">
         <v>782</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A286" s="5" t="s">
         <v>564</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A287" s="5" t="s">
         <v>786</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A288" s="5" t="s">
         <v>309</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A289" s="5" t="s">
         <v>789</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A290" s="5" t="s">
         <v>329</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A291" s="5" t="s">
         <v>131</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A292" s="5" t="s">
         <v>793</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A293" s="5" t="s">
         <v>644</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A294" s="5" t="s">
         <v>798</v>
       </c>
@@ -12025,7 +12025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A295" s="5" t="s">
         <v>307</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A296" s="5" t="s">
         <v>802</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A297" s="5" t="s">
         <v>654</v>
       </c>
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A298" s="5" t="s">
         <v>530</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A299" s="5" t="s">
         <v>808</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A300" s="5" t="s">
         <v>134</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A301" s="5" t="s">
         <v>153</v>
       </c>
@@ -12165,7 +12165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A302" s="5" t="s">
         <v>657</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A303" s="5" t="s">
         <v>739</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A304" s="5" t="s">
         <v>815</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A305" s="5" t="s">
         <v>818</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A306" s="5" t="s">
         <v>821</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A307" s="5" t="s">
         <v>823</v>
       </c>
@@ -12285,7 +12285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A308" s="5" t="s">
         <v>826</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A309" s="5" t="s">
         <v>828</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A310" s="5" t="s">
         <v>831</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A311" s="5" t="s">
         <v>683</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A312" s="5" t="s">
         <v>621</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A313" s="5" t="s">
         <v>839</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A314" s="5" t="s">
         <v>842</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A315" s="5" t="s">
         <v>844</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A316" s="5" t="s">
         <v>847</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A317" s="5" t="s">
         <v>850</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A318" s="5" t="s">
         <v>853</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A319" s="5" t="s">
         <v>856</v>
       </c>
@@ -12525,7 +12525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A320" s="5" t="s">
         <v>858</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A321" s="5" t="s">
         <v>153</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A322" s="5" t="s">
         <v>861</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A323" s="5" t="s">
         <v>864</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A324" s="5" t="s">
         <v>663</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A325" s="5" t="s">
         <v>534</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A326" s="5" t="s">
         <v>247</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A327" s="5" t="s">
         <v>861</v>
       </c>
@@ -12685,7 +12685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A328" s="5" t="s">
         <v>873</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A329" s="5" t="s">
         <v>278</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A330" s="5" t="s">
         <v>435</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A331" s="5" t="s">
         <v>216</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A332" s="5" t="s">
         <v>290</v>
       </c>
@@ -12785,7 +12785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A333" s="5" t="s">
         <v>881</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A334" s="5" t="s">
         <v>300</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A335" s="5" t="s">
         <v>885</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A336" s="5" t="s">
         <v>446</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A337" s="5" t="s">
         <v>889</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A338" s="5" t="s">
         <v>704</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A339" s="5" t="s">
         <v>568</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A340" s="5" t="s">
         <v>895</v>
       </c>
@@ -12945,7 +12945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A341" s="5" t="s">
         <v>850</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A342" s="5" t="s">
         <v>899</v>
       </c>
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A343" s="5" t="s">
         <v>901</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A344" s="5" t="s">
         <v>903</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A345" s="5" t="s">
         <v>906</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A346" s="5" t="s">
         <v>909</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A347" s="5" t="s">
         <v>912</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A348" s="5" t="s">
         <v>914</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A349" s="5" t="s">
         <v>839</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A350" s="5" t="s">
         <v>766</v>
       </c>
@@ -13145,7 +13145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A351" s="5" t="s">
         <v>590</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A352" s="5" t="s">
         <v>920</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A353" s="5" t="s">
         <v>580</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A354" s="5" t="s">
         <v>624</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A355" s="5" t="s">
         <v>568</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A356" s="5" t="s">
         <v>928</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A357" s="5" t="s">
         <v>148</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A358" s="5" t="s">
         <v>931</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A359" s="5" t="s">
         <v>618</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A360" s="5" t="s">
         <v>399</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A361" s="5" t="s">
         <v>232</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A362" s="5" t="s">
         <v>938</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A363" s="5" t="s">
         <v>941</v>
       </c>
@@ -13405,7 +13405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A364" s="5" t="s">
         <v>166</v>
       </c>
@@ -13425,7 +13425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A365" s="5" t="s">
         <v>696</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A366" s="5" t="s">
         <v>729</v>
       </c>
@@ -13465,7 +13465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A367" s="5" t="s">
         <v>950</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A368" s="5" t="s">
         <v>281</v>
       </c>
@@ -13505,7 +13505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A369" s="5" t="s">
         <v>955</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A370" s="5" t="s">
         <v>65</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A371" s="5" t="s">
         <v>960</v>
       </c>
@@ -13565,7 +13565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A372" s="5" t="s">
         <v>170</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A373" s="5" t="s">
         <v>454</v>
       </c>
@@ -13605,7 +13605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A374" s="5" t="s">
         <v>964</v>
       </c>
@@ -13625,7 +13625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A375" s="5" t="s">
         <v>660</v>
       </c>
@@ -13645,7 +13645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A376" s="5" t="s">
         <v>135</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A377" s="5" t="s">
         <v>969</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A378" s="5" t="s">
         <v>885</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A379" s="5" t="s">
         <v>194</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A380" s="5" t="s">
         <v>696</v>
       </c>
@@ -13745,7 +13745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A381" s="5" t="s">
         <v>847</v>
       </c>
@@ -13765,7 +13765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A382" s="5" t="s">
         <v>78</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A383" s="5" t="s">
         <v>978</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A384" s="5" t="s">
         <v>106</v>
       </c>
@@ -13825,7 +13825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A385" s="5" t="s">
         <v>744</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A386" s="5" t="s">
         <v>964</v>
       </c>
@@ -13865,7 +13865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A387" s="5" t="s">
         <v>889</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A388" s="5" t="s">
         <v>676</v>
       </c>
@@ -13905,7 +13905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A389" s="5" t="s">
         <v>990</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A390" s="5" t="s">
         <v>826</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A391" s="5" t="s">
         <v>406</v>
       </c>
@@ -13965,7 +13965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A392" s="5" t="s">
         <v>590</v>
       </c>
@@ -13985,7 +13985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A393" s="5" t="s">
         <v>733</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A394" s="5" t="s">
         <v>828</v>
       </c>
@@ -14025,7 +14025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A395" s="5" t="s">
         <v>630</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A396" s="5" t="s">
         <v>1001</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A397" s="5" t="s">
         <v>1004</v>
       </c>
@@ -14085,7 +14085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A398" s="5" t="s">
         <v>400</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A399" s="5" t="s">
         <v>1009</v>
       </c>
@@ -14125,7 +14125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A400" s="5" t="s">
         <v>821</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A401" s="5" t="s">
         <v>1013</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A402" s="5" t="s">
         <v>90</v>
       </c>
@@ -14185,7 +14185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A403" s="5" t="s">
         <v>990</v>
       </c>
@@ -14205,7 +14205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A404" s="5" t="s">
         <v>1020</v>
       </c>
@@ -14225,7 +14225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A405" s="5" t="s">
         <v>494</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A406" s="5" t="s">
         <v>260</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A407" s="5" t="s">
         <v>1024</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A408" s="5" t="s">
         <v>118</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A409" s="5" t="s">
         <v>1028</v>
       </c>
@@ -14325,7 +14325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A410" s="5" t="s">
         <v>197</v>
       </c>
@@ -14345,7 +14345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A411" s="5" t="s">
         <v>608</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A412" s="5" t="s">
         <v>1034</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A413" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14405,7 +14405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A414" s="5" t="s">
         <v>920</v>
       </c>
@@ -14425,7 +14425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A415" s="5" t="s">
         <v>1041</v>
       </c>
@@ -14445,7 +14445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A416" s="5" t="s">
         <v>938</v>
       </c>
@@ -14465,7 +14465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A417" s="5" t="s">
         <v>683</v>
       </c>
@@ -14485,7 +14485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A418" s="5" t="s">
         <v>782</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A419" s="5" t="s">
         <v>383</v>
       </c>
@@ -14525,7 +14525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A420" s="5" t="s">
         <v>931</v>
       </c>
@@ -14545,7 +14545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A421" s="5" t="s">
         <v>815</v>
       </c>
@@ -14565,7 +14565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A422" s="5" t="s">
         <v>1052</v>
       </c>
@@ -14585,7 +14585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A423" s="5" t="s">
         <v>303</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A424" s="5" t="s">
         <v>392</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A425" s="5" t="s">
         <v>343</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A426" s="5" t="s">
         <v>1059</v>
       </c>
@@ -14665,7 +14665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A427" s="5" t="s">
         <v>1060</v>
       </c>
@@ -14685,7 +14685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A428" s="5" t="s">
         <v>483</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A429" s="5" t="s">
         <v>1063</v>
       </c>
@@ -14725,7 +14725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A430" s="5" t="s">
         <v>1066</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A431" s="5" t="s">
         <v>636</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A432" s="5" t="s">
         <v>343</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A433" s="5" t="s">
         <v>647</v>
       </c>
@@ -14805,7 +14805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A434" s="5" t="s">
         <v>1071</v>
       </c>
@@ -14825,7 +14825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A435" s="5" t="s">
         <v>839</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A436" s="5" t="s">
         <v>216</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A437" s="5" t="s">
         <v>1009</v>
       </c>
@@ -14885,7 +14885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A438" s="5" t="s">
         <v>491</v>
       </c>
@@ -14905,7 +14905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A439" s="5" t="s">
         <v>1082</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A440" s="5" t="s">
         <v>484</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A441" s="5" t="s">
         <v>738</v>
       </c>
@@ -14965,7 +14965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A442" s="5" t="s">
         <v>360</v>
       </c>
@@ -14985,7 +14985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A443" s="5" t="s">
         <v>850</v>
       </c>
@@ -15005,7 +15005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A444" s="5" t="s">
         <v>1090</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A445" s="5" t="s">
         <v>364</v>
       </c>
@@ -15045,7 +15045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A446" s="5" t="s">
         <v>1093</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A447" s="5" t="s">
         <v>818</v>
       </c>
@@ -15085,7 +15085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A448" s="5" t="s">
         <v>861</v>
       </c>
@@ -15105,7 +15105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A449" s="5" t="s">
         <v>826</v>
       </c>
@@ -15125,7 +15125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A450" s="5" t="s">
         <v>1099</v>
       </c>
@@ -15145,7 +15145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A451" s="5" t="s">
         <v>630</v>
       </c>
@@ -15165,7 +15165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A452" s="5" t="s">
         <v>1103</v>
       </c>
@@ -15185,7 +15185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A453" s="5" t="s">
         <v>751</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A454" s="5" t="s">
         <v>300</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A455" s="5" t="s">
         <v>1110</v>
       </c>
@@ -15245,7 +15245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A456" s="5" t="s">
         <v>191</v>
       </c>
@@ -15265,7 +15265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A457" s="5" t="s">
         <v>220</v>
       </c>
@@ -15285,7 +15285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A458" s="5" t="s">
         <v>1116</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A459" s="5" t="s">
         <v>232</v>
       </c>
@@ -15325,7 +15325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A460" s="5" t="s">
         <v>620</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A461" s="5" t="s">
         <v>713</v>
       </c>
@@ -15365,7 +15365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A462" s="5" t="s">
         <v>1028</v>
       </c>
@@ -15385,7 +15385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A463" s="5" t="s">
         <v>1123</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A464" s="5" t="s">
         <v>960</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A465" s="5" t="s">
         <v>1127</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A466" s="5" t="s">
         <v>1130</v>
       </c>
@@ -15465,7 +15465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A467" s="5" t="s">
         <v>191</v>
       </c>
@@ -15485,7 +15485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A468" s="5" t="s">
         <v>1134</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A469" s="5" t="s">
         <v>1136</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A470" s="5" t="s">
         <v>324</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A471" s="5" t="s">
         <v>798</v>
       </c>
@@ -15565,7 +15565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A472" s="5" t="s">
         <v>590</v>
       </c>
@@ -15585,7 +15585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A473" s="5" t="s">
         <v>360</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A474" s="5" t="s">
         <v>1142</v>
       </c>
@@ -15625,7 +15625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A475" s="5" t="s">
         <v>630</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A476" s="5" t="s">
         <v>205</v>
       </c>
@@ -15665,7 +15665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A477" s="5" t="s">
         <v>110</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A478" s="5" t="s">
         <v>340</v>
       </c>
@@ -15705,7 +15705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A479" s="5" t="s">
         <v>28</v>
       </c>
@@ -15725,7 +15725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A480" s="5" t="s">
         <v>110</v>
       </c>
@@ -15745,7 +15745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A481" s="5" t="s">
         <v>701</v>
       </c>
@@ -15765,7 +15765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A482" s="5" t="s">
         <v>98</v>
       </c>
@@ -15785,7 +15785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A483" s="5" t="s">
         <v>1153</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A484" s="5" t="s">
         <v>36</v>
       </c>
@@ -15825,7 +15825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A485" s="5" t="s">
         <v>1066</v>
       </c>
@@ -15845,7 +15845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A486" s="5" t="s">
         <v>1159</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A487" s="5" t="s">
         <v>155</v>
       </c>
@@ -15885,7 +15885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A488" s="5" t="s">
         <v>691</v>
       </c>
@@ -15905,7 +15905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A489" s="5" t="s">
         <v>309</v>
       </c>
@@ -15925,7 +15925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A490" s="5" t="s">
         <v>978</v>
       </c>
@@ -15945,7 +15945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A491" s="5" t="s">
         <v>1167</v>
       </c>
@@ -15965,7 +15965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A492" s="5" t="s">
         <v>167</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A493" s="5" t="s">
         <v>627</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A494" s="5" t="s">
         <v>1172</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A495" s="5" t="s">
         <v>197</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A496" s="5" t="s">
         <v>901</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A497" s="5" t="s">
         <v>789</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A498" s="5" t="s">
         <v>200</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A499" s="5" t="s">
         <v>818</v>
       </c>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A500" s="5" t="s">
         <v>1130</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A501" s="5" t="s">
         <v>1184</v>
       </c>
@@ -16165,7 +16165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A502" s="5" t="s">
         <v>357</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A503" s="5" t="s">
         <v>1186</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A504" s="5" t="s">
         <v>1188</v>
       </c>
@@ -16225,7 +16225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A505" s="5" t="s">
         <v>847</v>
       </c>
@@ -16245,7 +16245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A506" s="5" t="s">
         <v>281</v>
       </c>
@@ -16265,7 +16265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A507" s="5" t="s">
         <v>842</v>
       </c>
@@ -16285,7 +16285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A508" s="5" t="s">
         <v>1195</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A509" s="5" t="s">
         <v>1197</v>
       </c>
@@ -16325,7 +16325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A510" s="5" t="s">
         <v>1037</v>
       </c>
@@ -16345,7 +16345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A511" s="5" t="s">
         <v>303</v>
       </c>
@@ -16365,7 +16365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A512" s="5" t="s">
         <v>127</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A513" s="5" t="s">
         <v>1204</v>
       </c>
@@ -16405,7 +16405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A514" s="5" t="s">
         <v>577</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A515" s="5" t="s">
         <v>568</v>
       </c>
@@ -16445,7 +16445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A516" s="5" t="s">
         <v>1210</v>
       </c>
@@ -16465,7 +16465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A517" s="5" t="s">
         <v>266</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A518" s="5" t="s">
         <v>932</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A519" s="5" t="s">
         <v>1034</v>
       </c>
@@ -16525,7 +16525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A520" s="5" t="s">
         <v>699</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A521" s="5" t="s">
         <v>1215</v>
       </c>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A522" s="5" t="s">
         <v>78</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A523" s="5" t="s">
         <v>522</v>
       </c>
@@ -16605,7 +16605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A524" s="5" t="s">
         <v>118</v>
       </c>
@@ -16625,7 +16625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A525" s="5" t="s">
         <v>709</v>
       </c>
@@ -16645,7 +16645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A526" s="5" t="s">
         <v>1223</v>
       </c>
@@ -16665,7 +16665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A527" s="5" t="s">
         <v>547</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A528" s="5" t="s">
         <v>1130</v>
       </c>
@@ -16705,7 +16705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A529" s="5" t="s">
         <v>699</v>
       </c>
@@ -16725,7 +16725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A530" s="5" t="s">
         <v>749</v>
       </c>
@@ -16745,7 +16745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A531" s="5" t="s">
         <v>1231</v>
       </c>
@@ -16765,7 +16765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A532" s="5" t="s">
         <v>1234</v>
       </c>
@@ -16785,7 +16785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A533" s="5" t="s">
         <v>1236</v>
       </c>
@@ -16805,7 +16805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A534" s="5" t="s">
         <v>1238</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A535" s="5" t="s">
         <v>1240</v>
       </c>
@@ -16845,7 +16845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A536" s="5" t="s">
         <v>1243</v>
       </c>
@@ -16865,7 +16865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A537" s="5" t="s">
         <v>566</v>
       </c>
@@ -16885,7 +16885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A538" s="5" t="s">
         <v>808</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A539" s="5" t="s">
         <v>1071</v>
       </c>
@@ -16925,7 +16925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A540" s="5" t="s">
         <v>1247</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A541" s="5" t="s">
         <v>1116</v>
       </c>
@@ -16965,7 +16965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A542" s="5" t="s">
         <v>383</v>
       </c>
@@ -16985,7 +16985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A543" s="5" t="s">
         <v>491</v>
       </c>
@@ -17005,7 +17005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A544" s="5" t="s">
         <v>1255</v>
       </c>
@@ -17025,7 +17025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A545" s="5" t="s">
         <v>440</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A546" s="5" t="s">
         <v>1082</v>
       </c>
@@ -17065,7 +17065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A547" s="5" t="s">
         <v>1261</v>
       </c>
@@ -17085,7 +17085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A548" s="5" t="s">
         <v>167</v>
       </c>
@@ -17105,7 +17105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A549" s="5" t="s">
         <v>469</v>
       </c>
@@ -17125,7 +17125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A550" s="5" t="s">
         <v>1265</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A551" s="5" t="s">
         <v>786</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A552" s="5" t="s">
         <v>484</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A553" s="5" t="s">
         <v>114</v>
       </c>
@@ -17205,7 +17205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A554" s="5" t="s">
         <v>955</v>
       </c>
@@ -17225,7 +17225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A555" s="5" t="s">
         <v>189</v>
       </c>
@@ -17245,7 +17245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A556" s="5" t="s">
         <v>24</v>
       </c>
@@ -17265,7 +17265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A557" s="5" t="s">
         <v>1279</v>
       </c>
@@ -17285,7 +17285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A558" s="5" t="s">
         <v>1282</v>
       </c>
@@ -17305,7 +17305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A559" s="5" t="s">
         <v>364</v>
       </c>
@@ -17325,7 +17325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A560" s="5" t="s">
         <v>1285</v>
       </c>
@@ -17345,7 +17345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A561" s="5" t="s">
         <v>735</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A562" s="5" t="s">
         <v>1200</v>
       </c>
@@ -17385,7 +17385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A563" s="5" t="s">
         <v>286</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A564" s="5" t="s">
         <v>1291</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A565" s="5" t="s">
         <v>354</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A566" s="5" t="s">
         <v>1294</v>
       </c>
@@ -17465,7 +17465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A567" s="5" t="s">
         <v>114</v>
       </c>
@@ -17485,7 +17485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A568" s="5" t="s">
         <v>416</v>
       </c>
@@ -17505,7 +17505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A569" s="5" t="s">
         <v>650</v>
       </c>
@@ -17525,7 +17525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A570" s="5" t="s">
         <v>955</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A571" s="5" t="s">
         <v>1140</v>
       </c>
@@ -17565,7 +17565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A572" s="5" t="s">
         <v>1304</v>
       </c>
@@ -17585,7 +17585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A573" s="5" t="s">
         <v>473</v>
       </c>
@@ -17605,7 +17605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A574" s="5" t="s">
         <v>709</v>
       </c>
@@ -17625,7 +17625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A575" s="5" t="s">
         <v>818</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A576" s="5" t="s">
         <v>1310</v>
       </c>
@@ -17665,7 +17665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A577" s="5" t="s">
         <v>1312</v>
       </c>
@@ -17685,7 +17685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A578" s="5" t="s">
         <v>153</v>
       </c>
@@ -17705,7 +17705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A579" s="5" t="s">
         <v>1315</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A580" s="5" t="s">
         <v>426</v>
       </c>
@@ -17745,7 +17745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A581" s="5" t="s">
         <v>1282</v>
       </c>
@@ -17765,7 +17765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A582" s="5" t="s">
         <v>1285</v>
       </c>
@@ -17785,7 +17785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A583" s="5" t="s">
         <v>484</v>
       </c>
@@ -17805,7 +17805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A584" s="5" t="s">
         <v>1323</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A585" s="5" t="s">
         <v>1326</v>
       </c>
@@ -17845,7 +17845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A586" s="5" t="s">
         <v>522</v>
       </c>
@@ -17865,7 +17865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A587" s="5" t="s">
         <v>32</v>
       </c>
@@ -17885,7 +17885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A588" s="5" t="s">
         <v>238</v>
       </c>
@@ -17905,7 +17905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A589" s="5" t="s">
         <v>709</v>
       </c>
@@ -17925,7 +17925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A590" s="5" t="s">
         <v>155</v>
       </c>
@@ -17945,7 +17945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A591" s="5" t="s">
         <v>1335</v>
       </c>
@@ -17965,7 +17965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A592" s="5" t="s">
         <v>1261</v>
       </c>
@@ -17985,7 +17985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A593" s="5" t="s">
         <v>1338</v>
       </c>
@@ -18005,7 +18005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A594" s="5" t="s">
         <v>1340</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A595" s="5" t="s">
         <v>1099</v>
       </c>
@@ -18045,7 +18045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A596" s="5" t="s">
         <v>1231</v>
       </c>
@@ -18065,7 +18065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A597" s="5" t="s">
         <v>1345</v>
       </c>
@@ -18085,7 +18085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A598" s="5" t="s">
         <v>1347</v>
       </c>
@@ -18105,7 +18105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A599" s="5" t="s">
         <v>1349</v>
       </c>
@@ -18125,7 +18125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A600" s="5" t="s">
         <v>844</v>
       </c>
@@ -18145,7 +18145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A601" s="5" t="s">
         <v>340</v>
       </c>
@@ -18165,7 +18165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A602" s="5" t="s">
         <v>1354</v>
       </c>
@@ -18185,7 +18185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A603" s="5" t="s">
         <v>57</v>
       </c>
@@ -18205,7 +18205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A604" s="5" t="s">
         <v>889</v>
       </c>
@@ -18225,7 +18225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A605" s="5" t="s">
         <v>1359</v>
       </c>
@@ -18245,7 +18245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A606" s="5" t="s">
         <v>895</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A607" s="5" t="s">
         <v>179</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A608" s="5" t="s">
         <v>1363</v>
       </c>
@@ -18305,7 +18305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A609" s="5" t="s">
         <v>1366</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A610" s="5" t="s">
         <v>1282</v>
       </c>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A611" s="5" t="s">
         <v>1370</v>
       </c>
@@ -18365,7 +18365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A612" s="5" t="s">
         <v>1371</v>
       </c>
@@ -18385,7 +18385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A613" s="5" t="s">
         <v>545</v>
       </c>
@@ -18405,7 +18405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A614" s="5" t="s">
         <v>469</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A615" s="5" t="s">
         <v>1377</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A616" s="5" t="s">
         <v>1247</v>
       </c>
@@ -18465,7 +18465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A617" s="5" t="s">
         <v>885</v>
       </c>
@@ -18485,7 +18485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A618" s="5" t="s">
         <v>895</v>
       </c>
@@ -18505,7 +18505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A619" s="5" t="s">
         <v>78</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A620" s="5" t="s">
         <v>1384</v>
       </c>
@@ -18545,7 +18545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A621" s="5" t="s">
         <v>706</v>
       </c>
@@ -18565,7 +18565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A622" s="5" t="s">
         <v>510</v>
       </c>
@@ -18585,7 +18585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A623" s="5" t="s">
         <v>312</v>
       </c>
@@ -18605,7 +18605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A624" s="5" t="s">
         <v>1388</v>
       </c>
@@ -18625,7 +18625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A625" s="5" t="s">
         <v>1390</v>
       </c>
@@ -18645,7 +18645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A626" s="5" t="s">
         <v>1393</v>
       </c>
@@ -18665,7 +18665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A627" s="5" t="s">
         <v>36</v>
       </c>
@@ -18685,7 +18685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A628" s="5" t="s">
         <v>1347</v>
       </c>
@@ -18705,7 +18705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A629" s="5" t="s">
         <v>678</v>
       </c>
@@ -18725,7 +18725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A630" s="5" t="s">
         <v>1398</v>
       </c>
@@ -18745,7 +18745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A631" s="5" t="s">
         <v>28</v>
       </c>
@@ -18765,7 +18765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A632" s="5" t="s">
         <v>118</v>
       </c>
@@ -18785,7 +18785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A633" s="5" t="s">
         <v>435</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A634" s="5" t="s">
         <v>1204</v>
       </c>
@@ -18825,7 +18825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A635" s="5" t="s">
         <v>1347</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A636" s="5" t="s">
         <v>13</v>
       </c>
@@ -18865,7 +18865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A637" s="5" t="s">
         <v>386</v>
       </c>
@@ -18885,7 +18885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A638" s="5" t="s">
         <v>327</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A639" s="5" t="s">
         <v>98</v>
       </c>
@@ -18925,7 +18925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A640" s="5" t="s">
         <v>1060</v>
       </c>
@@ -18945,7 +18945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A641" s="5" t="s">
         <v>1412</v>
       </c>
@@ -18965,7 +18965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A642" s="5" t="s">
         <v>1414</v>
       </c>
@@ -18985,7 +18985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A643" s="5" t="s">
         <v>1417</v>
       </c>
@@ -19005,7 +19005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A644" s="5" t="s">
         <v>704</v>
       </c>
@@ -19025,7 +19025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A645" s="5" t="s">
         <v>547</v>
       </c>
@@ -19045,7 +19045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A646" s="5" t="s">
         <v>547</v>
       </c>
@@ -19065,7 +19065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A647" s="5" t="s">
         <v>376</v>
       </c>
@@ -19085,7 +19085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A648" s="5" t="s">
         <v>20</v>
       </c>
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A649" s="5" t="s">
         <v>232</v>
       </c>
@@ -19125,7 +19125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A650" s="5" t="s">
         <v>1041</v>
       </c>
@@ -19145,7 +19145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A651" s="5" t="s">
         <v>1428</v>
       </c>
@@ -19165,7 +19165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A652" s="5" t="s">
         <v>1429</v>
       </c>
@@ -19185,7 +19185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A653" s="5" t="s">
         <v>1430</v>
       </c>
@@ -19205,7 +19205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A654" s="5" t="s">
         <v>1186</v>
       </c>
@@ -19225,7 +19225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A655" s="5" t="s">
         <v>1432</v>
       </c>
@@ -19245,7 +19245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A656" s="5" t="s">
         <v>1434</v>
       </c>
@@ -19265,7 +19265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A657" s="5" t="s">
         <v>368</v>
       </c>
@@ -19285,7 +19285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A658" s="5" t="s">
         <v>74</v>
       </c>
@@ -19305,7 +19305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A659" s="5" t="s">
         <v>899</v>
       </c>
@@ -19325,7 +19325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A660" s="5" t="s">
         <v>90</v>
       </c>
@@ -19345,7 +19345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A661" s="5" t="s">
         <v>207</v>
       </c>
@@ -19365,7 +19365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A662" s="5" t="s">
         <v>881</v>
       </c>
@@ -19385,7 +19385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A663" s="5" t="s">
         <v>373</v>
       </c>
@@ -19405,7 +19405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A664" s="5" t="s">
         <v>1060</v>
       </c>
@@ -19425,7 +19425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A665" s="5" t="s">
         <v>897</v>
       </c>
@@ -19445,7 +19445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A666" s="5" t="s">
         <v>1450</v>
       </c>
@@ -19465,7 +19465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A667" s="5" t="s">
         <v>293</v>
       </c>
@@ -19485,7 +19485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A668" s="5" t="s">
         <v>1453</v>
       </c>
@@ -19505,7 +19505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A669" s="5" t="s">
         <v>142</v>
       </c>
@@ -19525,7 +19525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A670" s="5" t="s">
         <v>1456</v>
       </c>
@@ -19545,7 +19545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A671" s="5" t="s">
         <v>580</v>
       </c>
@@ -19565,7 +19565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A672" s="5" t="s">
         <v>373</v>
       </c>
@@ -19585,7 +19585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A673" s="5" t="s">
         <v>1434</v>
       </c>
@@ -19605,7 +19605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A674" s="5" t="s">
         <v>1464</v>
       </c>
@@ -19625,7 +19625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A675" s="5" t="s">
         <v>17</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A676" s="5" t="s">
         <v>1469</v>
       </c>
@@ -19665,7 +19665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A677" s="5" t="s">
         <v>1471</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A678" s="5" t="s">
         <v>1472</v>
       </c>
@@ -19705,7 +19705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A679" s="5" t="s">
         <v>1474</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A680" s="5" t="s">
         <v>931</v>
       </c>
@@ -19745,7 +19745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A681" s="5" t="s">
         <v>1354</v>
       </c>
@@ -19765,7 +19765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A682" s="5" t="s">
         <v>706</v>
       </c>
@@ -19785,7 +19785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A683" s="5" t="s">
         <v>1481</v>
       </c>
@@ -19805,7 +19805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A684" s="5" t="s">
         <v>197</v>
       </c>
@@ -19825,7 +19825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A685" s="5" t="s">
         <v>1428</v>
       </c>
@@ -19845,7 +19845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A686" s="5" t="s">
         <v>1238</v>
       </c>
@@ -19865,7 +19865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A687" s="5" t="s">
         <v>574</v>
       </c>
@@ -19885,7 +19885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A688" s="5" t="s">
         <v>687</v>
       </c>
@@ -19905,7 +19905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A689" s="5" t="s">
         <v>545</v>
       </c>
@@ -19925,7 +19925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A690" s="5" t="s">
         <v>1492</v>
       </c>
@@ -19945,7 +19945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A691" s="5" t="s">
         <v>1495</v>
       </c>
@@ -19965,7 +19965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A692" s="5" t="s">
         <v>510</v>
       </c>
@@ -19985,7 +19985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A693" s="5" t="s">
         <v>739</v>
       </c>
@@ -20005,7 +20005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A694" s="5" t="s">
         <v>668</v>
       </c>
@@ -20025,7 +20025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A695" s="5" t="s">
         <v>583</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A696" s="5" t="s">
         <v>124</v>
       </c>
@@ -20065,7 +20065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A697" s="5" t="s">
         <v>1099</v>
       </c>
@@ -20085,7 +20085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A698" s="5" t="s">
         <v>1136</v>
       </c>
@@ -20105,7 +20105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A699" s="5" t="s">
         <v>1060</v>
       </c>
@@ -20125,7 +20125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A700" s="5" t="s">
         <v>1508</v>
       </c>
@@ -20145,7 +20145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A701" s="5" t="s">
         <v>1456</v>
       </c>
@@ -20165,7 +20165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A702" s="5" t="s">
         <v>247</v>
       </c>
@@ -20185,7 +20185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A703" s="5" t="s">
         <v>1001</v>
       </c>
@@ -20205,7 +20205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A704" s="5" t="s">
         <v>286</v>
       </c>
@@ -20225,7 +20225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A705" s="5" t="s">
         <v>1517</v>
       </c>
@@ -20245,7 +20245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A706" s="5" t="s">
         <v>229</v>
       </c>
@@ -20265,7 +20265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A707" s="5" t="s">
         <v>1393</v>
       </c>
@@ -20285,7 +20285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A708" s="5" t="s">
         <v>1522</v>
       </c>
@@ -20305,7 +20305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A709" s="5" t="s">
         <v>1525</v>
       </c>
@@ -20325,7 +20325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A710" s="5" t="s">
         <v>899</v>
       </c>
@@ -20345,7 +20345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A711" s="5" t="s">
         <v>255</v>
       </c>
@@ -20365,7 +20365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A712" s="5" t="s">
         <v>650</v>
       </c>
@@ -20385,7 +20385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A713" s="5" t="s">
         <v>17</v>
       </c>
@@ -20405,7 +20405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A714" s="5" t="s">
         <v>757</v>
       </c>
@@ -20425,7 +20425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A715" s="5" t="s">
         <v>789</v>
       </c>
@@ -20445,7 +20445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A716" s="5" t="s">
         <v>179</v>
       </c>
@@ -20465,7 +20465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A717" s="5" t="s">
         <v>155</v>
       </c>
@@ -20485,7 +20485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A718" s="5" t="s">
         <v>861</v>
       </c>
@@ -20505,7 +20505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A719" s="5" t="s">
         <v>134</v>
       </c>
@@ -20525,7 +20525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A720" s="5" t="s">
         <v>145</v>
       </c>
@@ -20545,7 +20545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A721" s="5" t="s">
         <v>527</v>
       </c>
@@ -20565,7 +20565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A722" s="5" t="s">
         <v>368</v>
       </c>
@@ -20585,7 +20585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A723" s="5" t="s">
         <v>167</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A724" s="5" t="s">
         <v>1312</v>
       </c>
@@ -20625,7 +20625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A725" s="5" t="s">
         <v>106</v>
       </c>
@@ -20645,7 +20645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A726" s="5" t="s">
         <v>1265</v>
       </c>
@@ -20665,7 +20665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A727" s="5" t="s">
         <v>1130</v>
       </c>
@@ -20685,7 +20685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A728" s="5" t="s">
         <v>681</v>
       </c>
@@ -20705,7 +20705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A729" s="5" t="s">
         <v>1438</v>
       </c>
@@ -20725,7 +20725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A730" s="5" t="s">
         <v>1261</v>
       </c>
@@ -20745,7 +20745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A731" s="5" t="s">
         <v>9</v>
       </c>
@@ -20765,7 +20765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A732" s="5" t="s">
         <v>1554</v>
       </c>
@@ -20785,7 +20785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A733" s="5" t="s">
         <v>182</v>
       </c>
@@ -20805,7 +20805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A734" s="5" t="s">
         <v>1001</v>
       </c>
@@ -20825,7 +20825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A735" s="5" t="s">
         <v>1559</v>
       </c>
@@ -20845,7 +20845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A736" s="5" t="s">
         <v>1156</v>
       </c>
@@ -20865,7 +20865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A737" s="5" t="s">
         <v>909</v>
       </c>
@@ -20885,7 +20885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A738" s="5" t="s">
         <v>124</v>
       </c>
@@ -20905,7 +20905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A739" s="5" t="s">
         <v>426</v>
       </c>
@@ -20925,7 +20925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A740" s="5" t="s">
         <v>901</v>
       </c>
@@ -20945,7 +20945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A741" s="5" t="s">
         <v>1568</v>
       </c>
@@ -20965,7 +20965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A742" s="5" t="s">
         <v>98</v>
       </c>
@@ -20985,7 +20985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A743" s="5" t="s">
         <v>74</v>
       </c>
@@ -21005,7 +21005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A744" s="5" t="s">
         <v>1574</v>
       </c>
@@ -21025,7 +21025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A745" s="5" t="s">
         <v>383</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A746" s="5" t="s">
         <v>1574</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A747" s="5" t="s">
         <v>1103</v>
       </c>
@@ -21085,7 +21085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A748" s="5" t="s">
         <v>290</v>
       </c>
@@ -21105,7 +21105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A749" s="5" t="s">
         <v>524</v>
       </c>
@@ -21125,7 +21125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A750" s="5" t="s">
         <v>449</v>
       </c>
@@ -21145,7 +21145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A751" s="5" t="s">
         <v>1063</v>
       </c>
@@ -21165,7 +21165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A752" s="5" t="s">
         <v>706</v>
       </c>
@@ -21185,7 +21185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A753" s="5" t="s">
         <v>1586</v>
       </c>
@@ -21205,7 +21205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A754" s="5" t="s">
         <v>1238</v>
       </c>
@@ -21225,7 +21225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A755" s="5" t="s">
         <v>530</v>
       </c>
@@ -21245,7 +21245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A756" s="5" t="s">
         <v>802</v>
       </c>
@@ -21265,7 +21265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A757" s="5" t="s">
         <v>1590</v>
       </c>
@@ -21285,7 +21285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A758" s="5" t="s">
         <v>901</v>
       </c>
@@ -21305,7 +21305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A759" s="5" t="s">
         <v>668</v>
       </c>
@@ -21325,7 +21325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A760" s="5" t="s">
         <v>564</v>
       </c>
@@ -21345,7 +21345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A761" s="5" t="s">
         <v>701</v>
       </c>
@@ -21365,7 +21365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A762" s="5" t="s">
         <v>1597</v>
       </c>
@@ -21385,7 +21385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A763" s="5" t="s">
         <v>347</v>
       </c>
@@ -21405,7 +21405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A764" s="5" t="s">
         <v>681</v>
       </c>
@@ -21425,7 +21425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A765" s="5" t="s">
         <v>881</v>
       </c>
@@ -21445,7 +21445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A766" s="5" t="s">
         <v>699</v>
       </c>
@@ -21465,7 +21465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A767" s="5" t="s">
         <v>1604</v>
       </c>
@@ -21485,7 +21485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A768" s="5" t="s">
         <v>1136</v>
       </c>
@@ -21505,7 +21505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A769" s="5" t="s">
         <v>676</v>
       </c>
@@ -21525,7 +21525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A770" s="5" t="s">
         <v>1610</v>
       </c>
@@ -21545,7 +21545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A771" s="5" t="s">
         <v>152</v>
       </c>
@@ -21565,7 +21565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A772" s="5" t="s">
         <v>729</v>
       </c>
@@ -21585,7 +21585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A773" s="5" t="s">
         <v>1377</v>
       </c>
@@ -21605,7 +21605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A774" s="5" t="s">
         <v>57</v>
       </c>
@@ -21625,7 +21625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A775" s="5" t="s">
         <v>588</v>
       </c>
@@ -21645,7 +21645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A776" s="5" t="s">
         <v>1464</v>
       </c>
@@ -21665,7 +21665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A777" s="5" t="s">
         <v>57</v>
       </c>
@@ -21685,7 +21685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A778" s="5" t="s">
         <v>296</v>
       </c>
@@ -21705,7 +21705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A779" s="5" t="s">
         <v>1205</v>
       </c>
@@ -21725,7 +21725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A780" s="5" t="s">
         <v>1625</v>
       </c>
@@ -21745,7 +21745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A781" s="5" t="s">
         <v>865</v>
       </c>
@@ -21765,7 +21765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A782" s="5" t="s">
         <v>1590</v>
       </c>
@@ -21785,7 +21785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A783" s="5" t="s">
         <v>197</v>
       </c>
@@ -21805,7 +21805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A784" s="5" t="s">
         <v>317</v>
       </c>
@@ -21825,7 +21825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A785" s="5" t="s">
         <v>1197</v>
       </c>
@@ -21845,7 +21845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A786" s="5" t="s">
         <v>912</v>
       </c>
@@ -21865,7 +21865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A787" s="5" t="s">
         <v>909</v>
       </c>
@@ -21885,7 +21885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A788" s="5" t="s">
         <v>17</v>
       </c>
@@ -21905,7 +21905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A789" s="5" t="s">
         <v>1636</v>
       </c>
@@ -21925,7 +21925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A790" s="5" t="s">
         <v>1559</v>
       </c>
@@ -21945,7 +21945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A791" s="5" t="s">
         <v>757</v>
       </c>
@@ -21965,7 +21965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A792" s="5" t="s">
         <v>789</v>
       </c>
@@ -21985,7 +21985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A793" s="5" t="s">
         <v>1469</v>
       </c>
@@ -22005,7 +22005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A794" s="5" t="s">
         <v>709</v>
       </c>
@@ -22025,7 +22025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A795" s="5" t="s">
         <v>1645</v>
       </c>
@@ -22045,7 +22045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A796" s="5" t="s">
         <v>1648</v>
       </c>
@@ -22065,7 +22065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A797" s="5" t="s">
         <v>1041</v>
       </c>
@@ -22085,7 +22085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A798" s="5" t="s">
         <v>1414</v>
       </c>
@@ -22105,7 +22105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A799" s="5" t="s">
         <v>17</v>
       </c>
@@ -22125,7 +22125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A800" s="5" t="s">
         <v>186</v>
       </c>
@@ -22145,7 +22145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A801" s="5" t="s">
         <v>1654</v>
       </c>
@@ -22165,7 +22165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A802" s="5" t="s">
         <v>343</v>
       </c>
@@ -22185,7 +22185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A803" s="5" t="s">
         <v>782</v>
       </c>
@@ -22205,7 +22205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A804" s="5" t="s">
         <v>1657</v>
       </c>
@@ -22225,7 +22225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A805" s="5" t="s">
         <v>232</v>
       </c>
@@ -22245,7 +22245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A806" s="5" t="s">
         <v>1210</v>
       </c>
@@ -22265,7 +22265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A807" s="5" t="s">
         <v>1662</v>
       </c>
@@ -22285,7 +22285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A808" s="5" t="s">
         <v>354</v>
       </c>
@@ -22305,7 +22305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A809" s="5" t="s">
         <v>1665</v>
       </c>
@@ -22325,7 +22325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A810" s="5" t="s">
         <v>124</v>
       </c>
@@ -22345,7 +22345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A811" s="5" t="s">
         <v>802</v>
       </c>
@@ -22365,7 +22365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A812" s="5" t="s">
         <v>844</v>
       </c>
@@ -22385,7 +22385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A813" s="5" t="s">
         <v>429</v>
       </c>
@@ -22405,7 +22405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A814" s="5" t="s">
         <v>686</v>
       </c>
@@ -22425,7 +22425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A815" s="5" t="s">
         <v>652</v>
       </c>
@@ -22445,7 +22445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A816" s="5" t="s">
         <v>1670</v>
       </c>
@@ -22465,7 +22465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A817" s="5" t="s">
         <v>303</v>
       </c>
@@ -22485,7 +22485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A818" s="5" t="s">
         <v>449</v>
       </c>
@@ -22505,7 +22505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A819" s="5" t="s">
         <v>1186</v>
       </c>
@@ -22525,7 +22525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A820" s="5" t="s">
         <v>175</v>
       </c>
@@ -22545,7 +22545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A821" s="5" t="s">
         <v>647</v>
       </c>
@@ -22565,7 +22565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A822" s="5" t="s">
         <v>564</v>
       </c>
@@ -22585,7 +22585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A823" s="5" t="s">
         <v>1676</v>
       </c>
@@ -22605,7 +22605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A824" s="5" t="s">
         <v>1678</v>
       </c>
@@ -22625,7 +22625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A825" s="5" t="s">
         <v>454</v>
       </c>
@@ -22645,7 +22645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A826" s="5" t="s">
         <v>1099</v>
       </c>
@@ -22665,7 +22665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A827" s="5" t="s">
         <v>360</v>
       </c>
@@ -22685,7 +22685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A828" s="5" t="s">
         <v>839</v>
       </c>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A829" s="5" t="s">
         <v>527</v>
       </c>
@@ -22725,7 +22725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A830" s="5" t="s">
         <v>713</v>
       </c>
@@ -22745,7 +22745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A831" s="5" t="s">
         <v>1123</v>
       </c>
@@ -22765,7 +22765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A832" s="5" t="s">
         <v>1359</v>
       </c>
@@ -22785,7 +22785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A833" s="5" t="s">
         <v>1371</v>
       </c>
@@ -22805,7 +22805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A834" s="5" t="s">
         <v>1291</v>
       </c>
@@ -22825,7 +22825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A835" s="5" t="s">
         <v>978</v>
       </c>
@@ -22845,7 +22845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A836" s="5" t="s">
         <v>1127</v>
       </c>
@@ -22865,7 +22865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A837" s="5" t="s">
         <v>241</v>
       </c>
@@ -22885,7 +22885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A838" s="5" t="s">
         <v>1698</v>
       </c>
@@ -22905,7 +22905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A839" s="5" t="s">
         <v>932</v>
       </c>
@@ -22925,7 +22925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A840" s="5" t="s">
         <v>969</v>
       </c>
@@ -22945,7 +22945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A841" s="5" t="s">
         <v>941</v>
       </c>
@@ -22965,7 +22965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A842" s="5" t="s">
         <v>782</v>
       </c>
@@ -22985,7 +22985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A843" s="5" t="s">
         <v>709</v>
       </c>
@@ -23005,7 +23005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A844" s="5" t="s">
         <v>261</v>
       </c>
@@ -23025,7 +23025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A845" s="5" t="s">
         <v>529</v>
       </c>
@@ -23045,7 +23045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A846" s="5" t="s">
         <v>1222</v>
       </c>
@@ -23065,7 +23065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A847" s="5" t="s">
         <v>1142</v>
       </c>
@@ -23085,7 +23085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A848" s="5" t="s">
         <v>1707</v>
       </c>
@@ -23105,7 +23105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A849" s="5" t="s">
         <v>1517</v>
       </c>
@@ -23125,7 +23125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A850" s="5" t="s">
         <v>1020</v>
       </c>
@@ -23145,7 +23145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A851" s="5" t="s">
         <v>590</v>
       </c>
@@ -23165,7 +23165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A852" s="5" t="s">
         <v>1670</v>
       </c>
@@ -23185,7 +23185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A853" s="5" t="s">
         <v>1414</v>
       </c>
@@ -23205,7 +23205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A854" s="5" t="s">
         <v>175</v>
       </c>
@@ -23225,7 +23225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A855" s="5" t="s">
         <v>454</v>
       </c>
@@ -23245,7 +23245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A856" s="5" t="s">
         <v>483</v>
       </c>
@@ -23265,7 +23265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A857" s="5" t="s">
         <v>1243</v>
       </c>
@@ -23285,7 +23285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A858" s="5" t="s">
         <v>1714</v>
       </c>
@@ -23305,7 +23305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A859" s="5" t="s">
         <v>522</v>
       </c>
@@ -23325,7 +23325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A860" s="5" t="s">
         <v>58</v>
       </c>
@@ -23345,7 +23345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A861" s="5" t="s">
         <v>1188</v>
       </c>
@@ -23365,7 +23365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A862" s="5" t="s">
         <v>0</v>
       </c>
@@ -23385,7 +23385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A863" s="5" t="s">
         <v>1720</v>
       </c>
@@ -23405,7 +23405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A864" s="5" t="s">
         <v>1013</v>
       </c>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A865" s="5" t="s">
         <v>460</v>
       </c>
@@ -23445,7 +23445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A866" s="5" t="s">
         <v>440</v>
       </c>
@@ -23465,7 +23465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A867" s="5" t="s">
         <v>1195</v>
       </c>
@@ -23485,7 +23485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A868" s="5" t="s">
         <v>124</v>
       </c>
@@ -23505,7 +23505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A869" s="5" t="s">
         <v>357</v>
       </c>
@@ -23525,7 +23525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A870" s="5" t="s">
         <v>824</v>
       </c>
@@ -23545,7 +23545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A871" s="5" t="s">
         <v>220</v>
       </c>
@@ -23565,7 +23565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A872" s="5" t="s">
         <v>365</v>
       </c>
@@ -23585,7 +23585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A873" s="5" t="s">
         <v>782</v>
       </c>
@@ -23605,7 +23605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A874" s="5" t="s">
         <v>131</v>
       </c>
@@ -23625,7 +23625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A875" s="5" t="s">
         <v>858</v>
       </c>
@@ -23645,7 +23645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A876" s="5" t="s">
         <v>1020</v>
       </c>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A877" s="5" t="s">
         <v>1648</v>
       </c>
@@ -23685,7 +23685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A878" s="5" t="s">
         <v>627</v>
       </c>
@@ -23705,7 +23705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A879" s="5" t="s">
         <v>216</v>
       </c>
@@ -23725,7 +23725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A880" s="5" t="s">
         <v>650</v>
       </c>
@@ -23745,7 +23745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A881" s="5" t="s">
         <v>515</v>
       </c>
@@ -23765,7 +23765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A882" s="5" t="s">
         <v>9</v>
       </c>
@@ -23785,7 +23785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A883" s="5" t="s">
         <v>1222</v>
       </c>
@@ -23805,7 +23805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A884" s="5" t="s">
         <v>1748</v>
       </c>
@@ -23825,7 +23825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A885" s="5" t="s">
         <v>824</v>
       </c>
@@ -23845,7 +23845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A886" s="5" t="s">
         <v>530</v>
       </c>
@@ -23865,7 +23865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A887" s="5" t="s">
         <v>1384</v>
       </c>
@@ -23885,7 +23885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A888" s="5" t="s">
         <v>1753</v>
       </c>
@@ -23905,7 +23905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A889" s="5" t="s">
         <v>1755</v>
       </c>
@@ -23925,7 +23925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A890" s="5" t="s">
         <v>449</v>
       </c>
@@ -23945,7 +23945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A891" s="5" t="s">
         <v>1167</v>
       </c>
@@ -23965,7 +23965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A892" s="5" t="s">
         <v>1222</v>
       </c>
@@ -23985,7 +23985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A893" s="5" t="s">
         <v>312</v>
       </c>
@@ -24005,7 +24005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A894" s="5" t="s">
         <v>90</v>
       </c>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A895" s="5" t="s">
         <v>873</v>
       </c>
@@ -24045,7 +24045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A896" s="5" t="s">
         <v>1765</v>
       </c>
@@ -24065,7 +24065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A897" s="5" t="s">
         <v>379</v>
       </c>
@@ -24085,7 +24085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A898" s="5" t="s">
         <v>566</v>
       </c>
@@ -24105,7 +24105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A899" s="5" t="s">
         <v>744</v>
       </c>
@@ -24125,7 +24125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A900" s="5" t="s">
         <v>1156</v>
       </c>
@@ -24145,7 +24145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A901" s="5" t="s">
         <v>1698</v>
       </c>
@@ -24165,7 +24165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A902" s="5" t="s">
         <v>327</v>
       </c>
@@ -24185,7 +24185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A903" s="5" t="s">
         <v>1200</v>
       </c>
@@ -24205,7 +24205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A904" s="5" t="s">
         <v>386</v>
       </c>
@@ -24225,7 +24225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A905" s="5" t="s">
         <v>1231</v>
       </c>
@@ -24245,7 +24245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A906" s="5" t="s">
         <v>718</v>
       </c>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A907" s="5" t="s">
         <v>1186</v>
       </c>
@@ -24285,7 +24285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A908" s="5" t="s">
         <v>1291</v>
       </c>
@@ -24305,7 +24305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A909" s="5" t="s">
         <v>1782</v>
       </c>
@@ -24325,7 +24325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A910" s="5" t="s">
         <v>127</v>
       </c>
@@ -24345,7 +24345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A911" s="5" t="s">
         <v>460</v>
       </c>
@@ -24365,7 +24365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A912" s="5" t="s">
         <v>1001</v>
       </c>
@@ -24385,7 +24385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A913" s="5" t="s">
         <v>257</v>
       </c>
@@ -24405,7 +24405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A914" s="5" t="s">
         <v>1636</v>
       </c>
@@ -24425,7 +24425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A915" s="5" t="s">
         <v>566</v>
       </c>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A916" s="5" t="s">
         <v>131</v>
       </c>
@@ -24465,7 +24465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A917" s="5" t="s">
         <v>1384</v>
       </c>
@@ -24485,7 +24485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A918" s="5" t="s">
         <v>281</v>
       </c>
@@ -24505,7 +24505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A919" s="5" t="s">
         <v>24</v>
       </c>
@@ -24525,7 +24525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A920" s="5" t="s">
         <v>49</v>
       </c>
@@ -24545,7 +24545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A921" s="5" t="s">
         <v>1798</v>
       </c>
@@ -24565,7 +24565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A922" s="5" t="s">
         <v>469</v>
       </c>
@@ -24585,7 +24585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A923" s="5" t="s">
         <v>522</v>
       </c>
@@ -24605,7 +24605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A924" s="5" t="s">
         <v>1802</v>
       </c>
@@ -24625,7 +24625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A925" s="5" t="s">
         <v>223</v>
       </c>
@@ -24645,7 +24645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A926" s="5" t="s">
         <v>826</v>
       </c>
@@ -24665,7 +24665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A927" s="5" t="s">
         <v>1345</v>
       </c>
@@ -24685,7 +24685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A928" s="5" t="s">
         <v>13</v>
       </c>
@@ -24705,7 +24705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A929" s="5" t="s">
         <v>660</v>
       </c>
@@ -24725,7 +24725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A930" s="5" t="s">
         <v>332</v>
       </c>
@@ -24745,7 +24745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A931" s="5" t="s">
         <v>1066</v>
       </c>
@@ -24765,7 +24765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A932" s="5" t="s">
         <v>657</v>
       </c>
@@ -24785,7 +24785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A933" s="5" t="s">
         <v>383</v>
       </c>
@@ -24805,7 +24805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A934" s="5" t="s">
         <v>464</v>
       </c>
@@ -24825,7 +24825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A935" s="5" t="s">
         <v>598</v>
       </c>
@@ -24845,7 +24845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A936" s="5" t="s">
         <v>1247</v>
       </c>
@@ -24865,7 +24865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A937" s="5" t="s">
         <v>1390</v>
       </c>
@@ -24885,7 +24885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A938" s="5" t="s">
         <v>1813</v>
       </c>
@@ -24905,7 +24905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A939" s="5" t="s">
         <v>1103</v>
       </c>
@@ -24925,7 +24925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A940" s="5" t="s">
         <v>1525</v>
       </c>
@@ -24945,7 +24945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A941" s="5" t="s">
         <v>744</v>
       </c>
@@ -24965,7 +24965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A942" s="5" t="s">
         <v>261</v>
       </c>
@@ -24985,7 +24985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A943" s="5" t="s">
         <v>1820</v>
       </c>
@@ -25005,7 +25005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A944" s="5" t="s">
         <v>1597</v>
       </c>
@@ -25025,7 +25025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A945" s="5" t="s">
         <v>1430</v>
       </c>
@@ -25045,7 +25045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A946" s="5" t="s">
         <v>777</v>
       </c>
@@ -25065,7 +25065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A947" s="5" t="s">
         <v>1765</v>
       </c>
@@ -25085,7 +25085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A948" s="5" t="s">
         <v>1282</v>
       </c>
@@ -25105,7 +25105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A949" s="5" t="s">
         <v>278</v>
       </c>
@@ -25125,7 +25125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A950" s="5" t="s">
         <v>1559</v>
       </c>
@@ -25145,7 +25145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A951" s="5" t="s">
         <v>931</v>
       </c>
@@ -25165,7 +25165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A952" s="5" t="s">
         <v>1377</v>
       </c>
@@ -25185,7 +25185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="953" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A953" s="5" t="s">
         <v>1654</v>
       </c>
@@ -25205,7 +25205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="954" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A954" s="5" t="s">
         <v>1554</v>
       </c>
@@ -25225,7 +25225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A955" s="5" t="s">
         <v>1554</v>
       </c>
@@ -25245,7 +25245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A956" s="5" t="s">
         <v>1597</v>
       </c>
@@ -25265,7 +25265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="957" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A957" s="5" t="s">
         <v>507</v>
       </c>
@@ -25285,7 +25285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A958" s="5" t="s">
         <v>1366</v>
       </c>
@@ -25305,7 +25305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A959" s="5" t="s">
         <v>1820</v>
       </c>
@@ -25325,7 +25325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A960" s="5" t="s">
         <v>856</v>
       </c>
@@ -25345,7 +25345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="961" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A961" s="5" t="s">
         <v>1838</v>
       </c>
@@ -25365,7 +25365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A962" s="5" t="s">
         <v>931</v>
       </c>
@@ -25385,7 +25385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A963" s="5" t="s">
         <v>376</v>
       </c>
@@ -25405,7 +25405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A964" s="5" t="s">
         <v>742</v>
       </c>
@@ -25425,7 +25425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="965" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A965" s="5" t="s">
         <v>386</v>
       </c>
@@ -25445,7 +25445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="966" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A966" s="5" t="s">
         <v>914</v>
       </c>
@@ -25465,7 +25465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="967" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A967" s="5" t="s">
         <v>1846</v>
       </c>
@@ -25485,7 +25485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="968" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A968" s="5" t="s">
         <v>419</v>
       </c>
@@ -25505,7 +25505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A969" s="5" t="s">
         <v>1782</v>
       </c>
@@ -25525,7 +25525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A970" s="5" t="s">
         <v>552</v>
       </c>
@@ -25545,7 +25545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A971" s="5" t="s">
         <v>834</v>
       </c>
@@ -25565,7 +25565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A972" s="5" t="s">
         <v>1222</v>
       </c>
@@ -25585,7 +25585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="973" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A973" s="5" t="s">
         <v>1265</v>
       </c>
@@ -25605,7 +25605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A974" s="5" t="s">
         <v>1517</v>
       </c>
@@ -25625,7 +25625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A975" s="5" t="s">
         <v>766</v>
       </c>
@@ -25645,7 +25645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="976" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A976" s="5" t="s">
         <v>507</v>
       </c>
@@ -25665,7 +25665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="977" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A977" s="5" t="s">
         <v>1255</v>
       </c>
@@ -25685,7 +25685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="978" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A978" s="5" t="s">
         <v>1665</v>
       </c>
@@ -25705,7 +25705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="979" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A979" s="5" t="s">
         <v>978</v>
       </c>
@@ -25725,7 +25725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="980" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A980" s="5" t="s">
         <v>1861</v>
       </c>
@@ -25745,7 +25745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A981" s="5" t="s">
         <v>49</v>
       </c>
@@ -25765,7 +25765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A982" s="5" t="s">
         <v>853</v>
       </c>
@@ -25785,7 +25785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A983" s="5" t="s">
         <v>1554</v>
       </c>
@@ -25805,7 +25805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="984" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A984" s="5" t="s">
         <v>162</v>
       </c>
@@ -25825,7 +25825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="985" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A985" s="5" t="s">
         <v>1870</v>
       </c>
@@ -25845,7 +25845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A986" s="5" t="s">
         <v>58</v>
       </c>
@@ -25865,7 +25865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="987" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A987" s="5" t="s">
         <v>1186</v>
       </c>
@@ -25885,7 +25885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="988" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A988" s="5" t="s">
         <v>364</v>
       </c>
@@ -25905,7 +25905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="989" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A989" s="5" t="s">
         <v>1877</v>
       </c>
@@ -25925,7 +25925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="990" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A990" s="5" t="s">
         <v>370</v>
       </c>
@@ -25945,7 +25945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="991" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A991" s="5" t="s">
         <v>652</v>
       </c>
@@ -25965,7 +25965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="992" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A992" s="5" t="s">
         <v>1586</v>
       </c>
@@ -25985,7 +25985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A993" s="5" t="s">
         <v>1265</v>
       </c>
@@ -26005,7 +26005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="994" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A994" s="5" t="s">
         <v>443</v>
       </c>
@@ -26025,7 +26025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="995" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A995" s="5" t="s">
         <v>1636</v>
       </c>
@@ -26045,7 +26045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="996" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A996" s="5" t="s">
         <v>236</v>
       </c>
@@ -26065,7 +26065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="997" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A997" s="5" t="s">
         <v>1066</v>
       </c>
@@ -26085,7 +26085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A998" s="5" t="s">
         <v>1517</v>
       </c>
@@ -26105,7 +26105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="999" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A999" s="5" t="s">
         <v>1755</v>
       </c>
@@ -26125,7 +26125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1000" s="5" t="s">
         <v>818</v>
       </c>
@@ -26145,7 +26145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1001" s="5" t="s">
         <v>1363</v>
       </c>
@@ -26175,20 +26175,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCABBEE2-3395-47C2-9626-C3684E3ED960}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.07421875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.765625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.4609375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -26205,7 +26205,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -26222,7 +26222,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -26239,7 +26239,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>64</v>
       </c>
@@ -26256,7 +26256,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
@@ -26273,7 +26273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
     </row>
@@ -26291,14 +26291,14 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="2.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.53515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.23046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="2.07421875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -26312,7 +26312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>63</v>
       </c>
@@ -26326,7 +26326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
@@ -26340,7 +26340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>130</v>
       </c>
@@ -26354,7 +26354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -26368,7 +26368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>364</v>
       </c>
@@ -26382,7 +26382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>169</v>
       </c>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>1909</v>
       </c>
@@ -26410,7 +26410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>68</v>
       </c>
@@ -26424,7 +26424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>178</v>
       </c>
@@ -26438,7 +26438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
@@ -26452,7 +26452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>289</v>
       </c>
@@ -26466,7 +26466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>83</v>
       </c>
@@ -26480,7 +26480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>77</v>
       </c>
@@ -26494,7 +26494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>299</v>
       </c>
@@ -26508,7 +26508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
@@ -26522,7 +26522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
@@ -26536,7 +26536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>39</v>
       </c>
@@ -26550,7 +26550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>165</v>
       </c>
@@ -26564,7 +26564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>185</v>
       </c>
@@ -26578,7 +26578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>439</v>
       </c>
@@ -26592,7 +26592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>346</v>
       </c>
@@ -26606,7 +26606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
@@ -26620,7 +26620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>339</v>
       </c>
@@ -26634,7 +26634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>595</v>
       </c>
@@ -26648,7 +26648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>16</v>
       </c>
@@ -26662,7 +26662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
@@ -26676,7 +26676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
         <v>96</v>
       </c>
@@ -26690,7 +26690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
         <v>151</v>
       </c>
@@ -26704,7 +26704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>415</v>
       </c>
@@ -26732,7 +26732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>716</v>
       </c>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
         <v>836</v>
       </c>
@@ -26760,7 +26760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
         <v>137</v>
       </c>
@@ -26774,7 +26774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>93</v>
       </c>
@@ -26788,7 +26788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
@@ -26802,7 +26802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>141</v>
       </c>
@@ -26816,7 +26816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
         <v>109</v>
       </c>
@@ -26830,7 +26830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
         <v>117</v>
       </c>
@@ -26844,7 +26844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>1910</v>
       </c>
@@ -26858,7 +26858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
         <v>722</v>
       </c>
@@ -26872,7 +26872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
         <v>219</v>
       </c>
@@ -26886,7 +26886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
         <v>113</v>
       </c>
@@ -26900,7 +26900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
         <v>161</v>
       </c>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
         <v>73</v>
       </c>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>250</v>
       </c>
@@ -26942,7 +26942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
         <v>1</v>
       </c>
@@ -26956,7 +26956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
         <v>5</v>
       </c>
@@ -26970,7 +26970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
         <v>382</v>
       </c>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>31</v>
       </c>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
         <v>222</v>
       </c>
@@ -27026,14 +27026,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.23046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.23046875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1911</v>
       </c>
@@ -27044,14 +27044,14 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
@@ -27068,12 +27068,12 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
